--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -29,7 +29,7 @@
     <definedName name="TrueFalse">Lookups!$C$14:$C$15</definedName>
     <definedName name="Workflow">Lookups!$E$14:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1410,10 +1410,10 @@
     <t>Option Names</t>
   </si>
   <si>
-    <t>1.19.1-rc3</t>
-  </si>
-  <si>
     <t>integer_sequence</t>
+  </si>
+  <si>
+    <t>1.19.1-rc4</t>
   </si>
 </sst>
 </file>
@@ -5489,7 +5489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5548,7 +5550,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>154</v>
@@ -6245,7 +6247,7 @@
       <c r="P5" s="45"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S5" s="45"/>
       <c r="T5" s="45"/>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -29,7 +29,7 @@
     <definedName name="TrueFalse">Lookups!$C$14:$C$15</definedName>
     <definedName name="Workflow">Lookups!$E$14:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -747,9 +747,6 @@
     <t>ReportingMeasure</t>
   </si>
   <si>
-    <t>../results/pnw</t>
-  </si>
-  <si>
     <t>ServerDirectoryCleanup</t>
   </si>
   <si>
@@ -1182,9 +1179,6 @@
     <t>BuildingCharacteristicsReport</t>
   </si>
   <si>
-    <t>run_baseline</t>
-  </si>
-  <si>
     <t>building_characteristics_report.Location Region</t>
   </si>
   <si>
@@ -1414,6 +1408,12 @@
   </si>
   <si>
     <t>1.19.1-rc4</t>
+  </si>
+  <si>
+    <t>../analysis_results/pnw</t>
+  </si>
+  <si>
+    <t>Run Baseline</t>
   </si>
 </sst>
 </file>
@@ -5489,9 +5489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5550,7 +5548,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>154</v>
@@ -5661,7 +5659,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
@@ -5683,7 +5681,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>237</v>
+        <v>458</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>155</v>
@@ -5730,7 +5728,7 @@
         <v>59</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -5761,10 +5759,10 @@
         <v>217</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="22"/>
@@ -5777,19 +5775,19 @@
         <v>1000</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>382</v>
+        <v>459</v>
       </c>
       <c r="B25" s="21">
         <v>1</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="22"/>
@@ -5853,7 +5851,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5909,13 +5907,13 @@
     </row>
     <row r="41" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B41" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" s="22" t="s">
         <v>242</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>243</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -5941,10 +5939,10 @@
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C45" s="2" t="str">
         <f>"['pnw'," &amp; B24 &amp; "]"</f>
@@ -6178,13 +6176,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>287</v>
-      </c>
       <c r="D4" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>40</v>
@@ -6212,18 +6210,18 @@
     <row r="5" spans="1:26" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="45" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="45">
@@ -6247,7 +6245,7 @@
       <c r="P5" s="45"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="45" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S5" s="45"/>
       <c r="T5" s="45"/>
@@ -6261,16 +6259,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>376</v>
-      </c>
       <c r="D6" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -6295,18 +6293,18 @@
     <row r="7" spans="1:26" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="45" t="s">
         <v>377</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>378</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="45">
@@ -6332,7 +6330,7 @@
       </c>
       <c r="Q7" s="45"/>
       <c r="R7" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S7" s="45"/>
       <c r="T7" s="45"/>
@@ -6346,13 +6344,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>40</v>
@@ -6379,17 +6377,17 @@
     </row>
     <row r="9" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D9" s="45" t="str">
         <f>"Run " &amp; B8</f>
         <v>Run R60 Attic Insulation Upgrade</v>
       </c>
       <c r="E9" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="45" t="s">
         <v>267</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>268</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -6407,10 +6405,10 @@
         <v>1</v>
       </c>
       <c r="P9" s="45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R9" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6420,10 +6418,10 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
@@ -6431,7 +6429,7 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -6458,10 +6456,10 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
@@ -6469,7 +6467,7 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -6496,10 +6494,10 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
@@ -6507,7 +6505,7 @@
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -6532,13 +6530,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E13" s="39" t="s">
         <v>40</v>
@@ -6565,17 +6563,17 @@
     </row>
     <row r="14" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D14" s="45" t="str">
         <f>"Run " &amp; B13</f>
         <v>Run Triple-Pane Windows Upgrade</v>
       </c>
       <c r="E14" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="45" t="s">
         <v>267</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>268</v>
       </c>
       <c r="I14" s="45">
         <v>1</v>
@@ -6593,10 +6591,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R14" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6606,10 +6604,10 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
@@ -6617,7 +6615,7 @@
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -6644,10 +6642,10 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
@@ -6655,7 +6653,7 @@
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -6682,10 +6680,10 @@
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
@@ -6693,7 +6691,7 @@
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -6718,13 +6716,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E18" s="39" t="s">
         <v>40</v>
@@ -6751,17 +6749,17 @@
     </row>
     <row r="19" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D19" s="45" t="str">
         <f>"Run " &amp; B18</f>
         <v>Run LED Lighting Upgrade</v>
       </c>
       <c r="E19" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="45" t="s">
         <v>267</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>268</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -6779,10 +6777,10 @@
         <v>1</v>
       </c>
       <c r="P19" s="45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R19" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6792,10 +6790,10 @@
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
@@ -6803,7 +6801,7 @@
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -6830,10 +6828,10 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
@@ -6841,7 +6839,7 @@
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -6868,10 +6866,10 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
@@ -6879,7 +6877,7 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -6904,13 +6902,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E23" s="39" t="s">
         <v>40</v>
@@ -6937,17 +6935,17 @@
     </row>
     <row r="24" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D24" s="45" t="str">
         <f>"Run " &amp; B23</f>
         <v>Run Attic+Windows+Lighting Package</v>
       </c>
       <c r="E24" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G24" s="45" t="s">
         <v>267</v>
-      </c>
-      <c r="G24" s="45" t="s">
-        <v>268</v>
       </c>
       <c r="I24" s="45">
         <v>1</v>
@@ -6965,10 +6963,10 @@
         <v>1</v>
       </c>
       <c r="P24" s="45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R24" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6978,10 +6976,10 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
@@ -6989,7 +6987,7 @@
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -7016,10 +7014,10 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
@@ -7027,7 +7025,7 @@
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -7054,10 +7052,10 @@
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10" t="s">
@@ -7065,7 +7063,7 @@
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -7090,13 +7088,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="C28" s="40" t="s">
-        <v>381</v>
-      </c>
       <c r="D28" s="40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>236</v>
@@ -7126,13 +7124,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="C29" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="C29" s="40" t="s">
-        <v>355</v>
-      </c>
       <c r="D29" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E29" s="40" t="s">
         <v>236</v>
@@ -7162,13 +7160,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E30" s="40" t="s">
         <v>236</v>
@@ -7331,16 +7329,16 @@
     </row>
     <row r="4" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G4" s="48" t="b">
         <v>0</v>
@@ -7358,16 +7356,16 @@
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G5" s="48" t="b">
         <v>0</v>
@@ -7385,16 +7383,16 @@
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G6" s="48" t="b">
         <v>0</v>
@@ -7412,16 +7410,16 @@
     </row>
     <row r="7" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G7" s="48" t="b">
         <v>0</v>
@@ -7439,16 +7437,16 @@
     </row>
     <row r="8" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G8" s="48" t="b">
         <v>0</v>
@@ -7466,16 +7464,16 @@
     </row>
     <row r="9" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G9" s="48" t="b">
         <v>0</v>
@@ -7493,16 +7491,16 @@
     </row>
     <row r="10" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="48" t="b">
         <v>0</v>
@@ -7520,16 +7518,16 @@
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="48" t="b">
         <v>0</v>
@@ -7547,16 +7545,16 @@
     </row>
     <row r="12" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="48" t="b">
         <v>0</v>
@@ -7574,16 +7572,16 @@
     </row>
     <row r="13" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G13" s="48" t="b">
         <v>0</v>
@@ -7601,16 +7599,16 @@
     </row>
     <row r="14" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G14" s="48" t="b">
         <v>0</v>
@@ -7628,16 +7626,16 @@
     </row>
     <row r="15" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G15" s="48" t="b">
         <v>0</v>
@@ -7655,16 +7653,16 @@
     </row>
     <row r="16" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G16" s="48" t="b">
         <v>0</v>
@@ -7682,13 +7680,13 @@
     </row>
     <row r="17" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G17" s="48" t="b">
         <v>0</v>
@@ -7702,13 +7700,13 @@
     </row>
     <row r="18" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G18" s="48" t="b">
         <v>0</v>
@@ -7722,16 +7720,16 @@
     </row>
     <row r="19" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
       <c r="D19" s="48" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G19" s="48" t="b">
         <v>0</v>
@@ -7749,16 +7747,16 @@
     </row>
     <row r="20" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G20" s="48" t="b">
         <v>0</v>
@@ -7776,16 +7774,16 @@
     </row>
     <row r="21" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G21" s="48" t="b">
         <v>0</v>
@@ -7803,16 +7801,16 @@
     </row>
     <row r="22" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G22" s="48" t="b">
         <v>0</v>
@@ -7830,16 +7828,16 @@
     </row>
     <row r="23" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G23" s="48" t="b">
         <v>0</v>
@@ -7857,13 +7855,13 @@
     </row>
     <row r="24" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G24" s="48" t="b">
         <v>0</v>
@@ -7877,13 +7875,13 @@
     </row>
     <row r="25" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G25" s="48" t="b">
         <v>0</v>
@@ -7897,13 +7895,13 @@
     </row>
     <row r="26" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G26" s="48" t="b">
         <v>0</v>
@@ -7917,13 +7915,13 @@
     </row>
     <row r="27" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G27" s="48" t="b">
         <v>0</v>
@@ -7937,13 +7935,13 @@
     </row>
     <row r="28" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G28" s="48" t="b">
         <v>0</v>
@@ -7957,13 +7955,13 @@
     </row>
     <row r="29" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G29" s="48" t="b">
         <v>0</v>
@@ -7977,13 +7975,13 @@
     </row>
     <row r="30" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G30" s="48" t="b">
         <v>0</v>
@@ -7997,13 +7995,13 @@
     </row>
     <row r="31" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F31" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G31" s="48" t="b">
         <v>0</v>
@@ -8017,13 +8015,13 @@
     </row>
     <row r="32" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F32" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G32" s="48" t="b">
         <v>0</v>
@@ -8037,13 +8035,13 @@
     </row>
     <row r="33" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F33" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G33" s="48" t="b">
         <v>0</v>
@@ -8057,13 +8055,13 @@
     </row>
     <row r="34" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F34" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G34" s="48" t="b">
         <v>0</v>
@@ -8077,13 +8075,13 @@
     </row>
     <row r="35" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F35" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G35" s="48" t="b">
         <v>0</v>
@@ -8097,13 +8095,13 @@
     </row>
     <row r="36" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G36" s="48" t="b">
         <v>0</v>
@@ -8117,13 +8115,13 @@
     </row>
     <row r="37" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G37" s="48" t="b">
         <v>0</v>
@@ -8137,13 +8135,13 @@
     </row>
     <row r="38" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G38" s="48" t="b">
         <v>0</v>
@@ -8157,13 +8155,13 @@
     </row>
     <row r="39" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G39" s="48" t="b">
         <v>0</v>
@@ -8177,13 +8175,13 @@
     </row>
     <row r="40" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G40" s="48" t="b">
         <v>0</v>
@@ -8197,13 +8195,13 @@
     </row>
     <row r="41" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F41" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G41" s="48" t="b">
         <v>0</v>
@@ -8217,13 +8215,13 @@
     </row>
     <row r="42" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F42" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G42" s="48" t="b">
         <v>0</v>
@@ -8237,13 +8235,13 @@
     </row>
     <row r="43" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F43" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G43" s="48" t="b">
         <v>0</v>
@@ -8257,13 +8255,13 @@
     </row>
     <row r="44" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F44" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G44" s="48" t="b">
         <v>0</v>
@@ -8277,13 +8275,13 @@
     </row>
     <row r="45" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F45" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G45" s="48" t="b">
         <v>0</v>
@@ -8297,13 +8295,13 @@
     </row>
     <row r="46" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F46" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G46" s="48" t="b">
         <v>0</v>
@@ -8317,13 +8315,13 @@
     </row>
     <row r="47" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F47" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G47" s="48" t="b">
         <v>0</v>
@@ -8337,13 +8335,13 @@
     </row>
     <row r="48" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F48" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G48" s="48" t="b">
         <v>0</v>
@@ -8357,13 +8355,13 @@
     </row>
     <row r="49" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F49" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G49" s="48" t="b">
         <v>0</v>
@@ -8377,13 +8375,13 @@
     </row>
     <row r="50" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F50" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G50" s="48" t="b">
         <v>0</v>
@@ -8397,13 +8395,13 @@
     </row>
     <row r="51" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F51" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G51" s="48" t="b">
         <v>0</v>
@@ -8417,13 +8415,13 @@
     </row>
     <row r="52" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F52" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G52" s="48" t="b">
         <v>0</v>
@@ -8437,13 +8435,13 @@
     </row>
     <row r="53" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G53" s="48" t="b">
         <v>0</v>
@@ -8457,13 +8455,13 @@
     </row>
     <row r="54" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G54" s="48" t="b">
         <v>0</v>
@@ -8477,13 +8475,13 @@
     </row>
     <row r="55" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F55" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G55" s="48" t="b">
         <v>0</v>
@@ -8497,13 +8495,13 @@
     </row>
     <row r="56" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F56" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G56" s="48" t="b">
         <v>0</v>
@@ -8517,13 +8515,13 @@
     </row>
     <row r="57" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D57" s="48" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F57" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G57" s="48" t="b">
         <v>0</v>
@@ -8537,13 +8535,13 @@
     </row>
     <row r="58" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F58" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G58" s="48" t="b">
         <v>0</v>
@@ -8557,13 +8555,13 @@
     </row>
     <row r="59" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F59" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G59" s="48" t="b">
         <v>0</v>
@@ -8577,13 +8575,13 @@
     </row>
     <row r="60" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F60" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G60" s="48" t="b">
         <v>0</v>
@@ -8597,13 +8595,13 @@
     </row>
     <row r="61" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F61" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G61" s="48" t="b">
         <v>0</v>
@@ -8617,13 +8615,13 @@
     </row>
     <row r="62" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F62" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G62" s="48" t="b">
         <v>0</v>
@@ -8637,13 +8635,13 @@
     </row>
     <row r="63" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G63" s="48" t="b">
         <v>0</v>
@@ -8657,13 +8655,13 @@
     </row>
     <row r="64" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G64" s="48" t="b">
         <v>0</v>
@@ -8677,13 +8675,13 @@
     </row>
     <row r="65" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G65" s="48" t="b">
         <v>0</v>
@@ -8697,13 +8695,13 @@
     </row>
     <row r="66" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G66" s="48" t="b">
         <v>0</v>
@@ -8717,13 +8715,13 @@
     </row>
     <row r="67" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G67" s="48" t="b">
         <v>0</v>
@@ -8737,13 +8735,13 @@
     </row>
     <row r="68" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F68" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G68" s="48" t="b">
         <v>0</v>
@@ -8757,13 +8755,13 @@
     </row>
     <row r="69" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D69" s="48" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F69" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G69" s="48" t="b">
         <v>0</v>
@@ -8777,13 +8775,13 @@
     </row>
     <row r="70" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G70" s="14" t="b">
         <v>0</v>
@@ -8797,13 +8795,13 @@
     </row>
     <row r="71" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G71" s="14" t="b">
         <v>0</v>
@@ -8817,13 +8815,13 @@
     </row>
     <row r="72" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G72" s="14" t="b">
         <v>0</v>
@@ -8837,13 +8835,13 @@
     </row>
     <row r="73" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G73" s="14" t="b">
         <v>0</v>
@@ -8857,13 +8855,13 @@
     </row>
     <row r="74" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G74" s="14" t="b">
         <v>0</v>
@@ -8877,13 +8875,13 @@
     </row>
     <row r="75" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G75" s="14" t="b">
         <v>0</v>
@@ -8897,13 +8895,13 @@
     </row>
     <row r="76" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G76" s="14" t="b">
         <v>0</v>
@@ -8917,13 +8915,13 @@
     </row>
     <row r="77" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G77" s="14" t="b">
         <v>0</v>
@@ -8937,13 +8935,13 @@
     </row>
     <row r="78" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G78" s="14" t="b">
         <v>0</v>
@@ -8957,13 +8955,13 @@
     </row>
     <row r="79" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G79" s="14" t="b">
         <v>0</v>
@@ -8977,13 +8975,13 @@
     </row>
     <row r="80" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G80" s="14" t="b">
         <v>0</v>
@@ -8997,13 +8995,13 @@
     </row>
     <row r="81" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G81" s="14" t="b">
         <v>0</v>
@@ -9017,13 +9015,13 @@
     </row>
     <row r="82" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G82" s="14" t="b">
         <v>0</v>
@@ -9037,13 +9035,13 @@
     </row>
     <row r="83" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G83" s="14" t="b">
         <v>0</v>
@@ -9057,13 +9055,13 @@
     </row>
     <row r="84" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G84" s="14" t="b">
         <v>0</v>
@@ -9077,13 +9075,13 @@
     </row>
     <row r="85" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G85" s="14" t="b">
         <v>0</v>
@@ -9097,13 +9095,13 @@
     </row>
     <row r="86" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G86" s="14" t="b">
         <v>0</v>
@@ -9117,13 +9115,13 @@
     </row>
     <row r="87" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G87" s="14" t="b">
         <v>0</v>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="462">
   <si>
     <t>type</t>
   </si>
@@ -1414,6 +1414,12 @@
   </si>
   <si>
     <t>Run Baseline</t>
+  </si>
+  <si>
+    <t>Hot Water Distribution</t>
+  </si>
+  <si>
+    <t>building_characteristics_report.Hot Water Distribution</t>
   </si>
 </sst>
 </file>
@@ -5994,7 +6000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7209,7 +7217,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -8255,10 +8263,10 @@
     </row>
     <row r="44" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>327</v>
+        <v>460</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="F44" s="48" t="s">
         <v>244</v>
@@ -8275,10 +8283,10 @@
     </row>
     <row r="45" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F45" s="48" t="s">
         <v>244</v>
@@ -8295,10 +8303,10 @@
     </row>
     <row r="46" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F46" s="48" t="s">
         <v>244</v>
@@ -8315,10 +8323,10 @@
     </row>
     <row r="47" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F47" s="48" t="s">
         <v>244</v>
@@ -8335,10 +8343,10 @@
     </row>
     <row r="48" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F48" s="48" t="s">
         <v>244</v>
@@ -8355,10 +8363,10 @@
     </row>
     <row r="49" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F49" s="48" t="s">
         <v>244</v>
@@ -8375,10 +8383,10 @@
     </row>
     <row r="50" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F50" s="48" t="s">
         <v>244</v>
@@ -8395,10 +8403,10 @@
     </row>
     <row r="51" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F51" s="48" t="s">
         <v>244</v>
@@ -8415,10 +8423,10 @@
     </row>
     <row r="52" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F52" s="48" t="s">
         <v>244</v>
@@ -8435,10 +8443,10 @@
     </row>
     <row r="53" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F53" s="48" t="s">
         <v>244</v>
@@ -8455,10 +8463,10 @@
     </row>
     <row r="54" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F54" s="48" t="s">
         <v>244</v>
@@ -8475,10 +8483,10 @@
     </row>
     <row r="55" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F55" s="48" t="s">
         <v>244</v>
@@ -8495,10 +8503,10 @@
     </row>
     <row r="56" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F56" s="48" t="s">
         <v>244</v>
@@ -8515,10 +8523,10 @@
     </row>
     <row r="57" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D57" s="48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F57" s="48" t="s">
         <v>244</v>
@@ -8535,10 +8543,10 @@
     </row>
     <row r="58" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F58" s="48" t="s">
         <v>244</v>
@@ -8555,10 +8563,10 @@
     </row>
     <row r="59" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F59" s="48" t="s">
         <v>244</v>
@@ -8575,10 +8583,10 @@
     </row>
     <row r="60" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F60" s="48" t="s">
         <v>244</v>
@@ -8595,10 +8603,10 @@
     </row>
     <row r="61" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F61" s="48" t="s">
         <v>244</v>
@@ -8615,10 +8623,10 @@
     </row>
     <row r="62" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F62" s="48" t="s">
         <v>244</v>
@@ -8635,10 +8643,10 @@
     </row>
     <row r="63" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F63" s="48" t="s">
         <v>244</v>
@@ -8655,10 +8663,10 @@
     </row>
     <row r="64" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F64" s="48" t="s">
         <v>244</v>
@@ -8675,10 +8683,10 @@
     </row>
     <row r="65" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F65" s="48" t="s">
         <v>244</v>
@@ -8695,10 +8703,10 @@
     </row>
     <row r="66" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F66" s="48" t="s">
         <v>244</v>
@@ -8715,10 +8723,10 @@
     </row>
     <row r="67" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F67" s="48" t="s">
         <v>244</v>
@@ -8735,10 +8743,10 @@
     </row>
     <row r="68" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F68" s="48" t="s">
         <v>244</v>
@@ -8755,10 +8763,10 @@
     </row>
     <row r="69" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D69" s="48" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>244</v>
@@ -8773,32 +8781,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G70" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" s="14" t="b">
+    <row r="70" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="D70" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="F70" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G70" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" s="48" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F71" s="14" t="s">
         <v>447</v>
@@ -8815,10 +8823,10 @@
     </row>
     <row r="72" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>447</v>
@@ -8835,10 +8843,10 @@
     </row>
     <row r="73" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>447</v>
@@ -8855,10 +8863,10 @@
     </row>
     <row r="74" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F74" s="14" t="s">
         <v>447</v>
@@ -8875,10 +8883,10 @@
     </row>
     <row r="75" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>447</v>
@@ -8895,10 +8903,10 @@
     </row>
     <row r="76" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>447</v>
@@ -8915,10 +8923,10 @@
     </row>
     <row r="77" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F77" s="14" t="s">
         <v>447</v>
@@ -8935,10 +8943,10 @@
     </row>
     <row r="78" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F78" s="14" t="s">
         <v>447</v>
@@ -8955,10 +8963,10 @@
     </row>
     <row r="79" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F79" s="14" t="s">
         <v>447</v>
@@ -8975,10 +8983,10 @@
     </row>
     <row r="80" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F80" s="14" t="s">
         <v>447</v>
@@ -8995,10 +9003,10 @@
     </row>
     <row r="81" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F81" s="14" t="s">
         <v>447</v>
@@ -9014,11 +9022,11 @@
       </c>
     </row>
     <row r="82" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
-        <v>257</v>
+      <c r="A82" s="49" t="s">
+        <v>256</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F82" s="14" t="s">
         <v>447</v>
@@ -9035,10 +9043,10 @@
     </row>
     <row r="83" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F83" s="14" t="s">
         <v>447</v>
@@ -9055,10 +9063,10 @@
     </row>
     <row r="84" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F84" s="14" t="s">
         <v>447</v>
@@ -9075,10 +9083,10 @@
     </row>
     <row r="85" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F85" s="14" t="s">
         <v>447</v>
@@ -9095,10 +9103,10 @@
     </row>
     <row r="86" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F86" s="14" t="s">
         <v>447</v>
@@ -9115,10 +9123,10 @@
     </row>
     <row r="87" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F87" s="14" t="s">
         <v>447</v>
@@ -9133,20 +9141,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
+    <row r="88" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="G88" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" s="14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
@@ -9165,12 +9178,18 @@
     </row>
     <row r="90" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
-      <c r="B90" s="21"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
     </row>
     <row r="91" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
@@ -9442,12 +9461,10 @@
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="15"/>
       <c r="B121" s="21"/>
-      <c r="C121" s="22"/>
       <c r="D121" s="15"/>
-      <c r="E121" s="22"/>
       <c r="F121" s="15"/>
       <c r="G121" s="15"/>
       <c r="H121" s="15"/>
@@ -9507,6 +9524,17 @@
       <c r="G126" s="15"/>
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="15"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="466">
   <si>
     <t>type</t>
   </si>
@@ -1410,9 +1410,6 @@
     <t>1.19.1-rc4</t>
   </si>
   <si>
-    <t>../analysis_results/pnw</t>
-  </si>
-  <si>
     <t>Run Baseline</t>
   </si>
   <si>
@@ -1420,6 +1417,21 @@
   </si>
   <si>
     <t>building_characteristics_report.Hot Water Distribution</t>
+  </si>
+  <si>
+    <t>../analysis_results</t>
+  </si>
+  <si>
+    <t>Hours Heating Setpoint Not Met</t>
+  </si>
+  <si>
+    <t>simulation_output_report.Hours Heating Setpoint Not Met</t>
+  </si>
+  <si>
+    <t>Hours Cooling Setpoint Not Met</t>
+  </si>
+  <si>
+    <t>simulation_output_report.Hours Cooling Setpoint Not Met</t>
   </si>
 </sst>
 </file>
@@ -5687,7 +5699,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>155</v>
@@ -5787,7 +5799,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B25" s="21">
         <v>1</v>
@@ -8263,10 +8275,10 @@
     </row>
     <row r="44" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="D44" s="48" t="s">
         <v>460</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>461</v>
       </c>
       <c r="F44" s="48" t="s">
         <v>244</v>
@@ -9162,30 +9174,54 @@
       </c>
     </row>
     <row r="89" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
+      <c r="A89" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="G89" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
     </row>
     <row r="90" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
+      <c r="A90" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="G90" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
       <c r="L90" s="15"/>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="468">
   <si>
     <t>type</t>
   </si>
@@ -1407,9 +1407,6 @@
     <t>integer_sequence</t>
   </si>
   <si>
-    <t>1.19.1-rc4</t>
-  </si>
-  <si>
     <t>Run Baseline</t>
   </si>
   <si>
@@ -1432,6 +1429,15 @@
   </si>
   <si>
     <t>simulation_output_report.Hours Cooling Setpoint Not Met</t>
+  </si>
+  <si>
+    <t>1.19.1-rc5</t>
+  </si>
+  <si>
+    <t>Occupants</t>
+  </si>
+  <si>
+    <t>building_characteristics_report.Occupants</t>
   </si>
 </sst>
 </file>
@@ -5507,7 +5513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5566,7 +5574,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>154</v>
@@ -5699,7 +5707,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>155</v>
@@ -5799,7 +5807,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B25" s="21">
         <v>1</v>
@@ -6012,8 +6020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6361,7 +6369,7 @@
     </row>
     <row r="8" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="39" t="s">
         <v>272</v>
@@ -6547,7 +6555,7 @@
     </row>
     <row r="13" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>282</v>
@@ -6733,7 +6741,7 @@
     </row>
     <row r="18" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>283</v>
@@ -6919,7 +6927,7 @@
     </row>
     <row r="23" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>281</v>
@@ -7229,7 +7237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -7619,12 +7627,12 @@
     </row>
     <row r="14" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>299</v>
+        <v>466</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>391</v>
+        <v>467</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48" t="s">
@@ -7646,12 +7654,12 @@
     </row>
     <row r="15" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
@@ -7673,12 +7681,12 @@
     </row>
     <row r="16" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
@@ -7700,11 +7708,14 @@
     </row>
     <row r="17" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>302</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
-        <v>394</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
         <v>244</v>
       </c>
@@ -7717,13 +7728,17 @@
       <c r="I17" s="48" t="b">
         <v>0</v>
       </c>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
     </row>
     <row r="18" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F18" s="48" t="s">
         <v>244</v>
@@ -7740,14 +7755,11 @@
     </row>
     <row r="19" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
+        <v>303</v>
+      </c>
       <c r="D19" s="48" t="s">
-        <v>396</v>
-      </c>
-      <c r="E19" s="48"/>
+        <v>395</v>
+      </c>
       <c r="F19" s="48" t="s">
         <v>244</v>
       </c>
@@ -7760,19 +7772,15 @@
       <c r="I19" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
     </row>
     <row r="20" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
@@ -7794,12 +7802,12 @@
     </row>
     <row r="21" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
@@ -7821,12 +7829,12 @@
     </row>
     <row r="22" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
@@ -7848,12 +7856,12 @@
     </row>
     <row r="23" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
@@ -7875,11 +7883,14 @@
     </row>
     <row r="24" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
-        <v>308</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
-        <v>401</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
         <v>244</v>
       </c>
@@ -7892,13 +7903,17 @@
       <c r="I24" s="48" t="b">
         <v>0</v>
       </c>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
     </row>
     <row r="25" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F25" s="48" t="s">
         <v>244</v>
@@ -7915,10 +7930,10 @@
     </row>
     <row r="26" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F26" s="48" t="s">
         <v>244</v>
@@ -7935,10 +7950,10 @@
     </row>
     <row r="27" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F27" s="48" t="s">
         <v>244</v>
@@ -7955,10 +7970,10 @@
     </row>
     <row r="28" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F28" s="48" t="s">
         <v>244</v>
@@ -7975,10 +7990,10 @@
     </row>
     <row r="29" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F29" s="48" t="s">
         <v>244</v>
@@ -7995,10 +8010,10 @@
     </row>
     <row r="30" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F30" s="48" t="s">
         <v>244</v>
@@ -8015,10 +8030,10 @@
     </row>
     <row r="31" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F31" s="48" t="s">
         <v>244</v>
@@ -8035,10 +8050,10 @@
     </row>
     <row r="32" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F32" s="48" t="s">
         <v>244</v>
@@ -8055,10 +8070,10 @@
     </row>
     <row r="33" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F33" s="48" t="s">
         <v>244</v>
@@ -8075,10 +8090,10 @@
     </row>
     <row r="34" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F34" s="48" t="s">
         <v>244</v>
@@ -8095,10 +8110,10 @@
     </row>
     <row r="35" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F35" s="48" t="s">
         <v>244</v>
@@ -8115,10 +8130,10 @@
     </row>
     <row r="36" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F36" s="48" t="s">
         <v>244</v>
@@ -8135,10 +8150,10 @@
     </row>
     <row r="37" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F37" s="48" t="s">
         <v>244</v>
@@ -8155,10 +8170,10 @@
     </row>
     <row r="38" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F38" s="48" t="s">
         <v>244</v>
@@ -8175,10 +8190,10 @@
     </row>
     <row r="39" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F39" s="48" t="s">
         <v>244</v>
@@ -8195,10 +8210,10 @@
     </row>
     <row r="40" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F40" s="48" t="s">
         <v>244</v>
@@ -8215,10 +8230,10 @@
     </row>
     <row r="41" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F41" s="48" t="s">
         <v>244</v>
@@ -8235,10 +8250,10 @@
     </row>
     <row r="42" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F42" s="48" t="s">
         <v>244</v>
@@ -8255,10 +8270,10 @@
     </row>
     <row r="43" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F43" s="48" t="s">
         <v>244</v>
@@ -8275,10 +8290,10 @@
     </row>
     <row r="44" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>459</v>
+        <v>326</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="F44" s="48" t="s">
         <v>244</v>
@@ -8295,10 +8310,10 @@
     </row>
     <row r="45" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>327</v>
+        <v>458</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="F45" s="48" t="s">
         <v>244</v>
@@ -8315,10 +8330,10 @@
     </row>
     <row r="46" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F46" s="48" t="s">
         <v>244</v>
@@ -8335,10 +8350,10 @@
     </row>
     <row r="47" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F47" s="48" t="s">
         <v>244</v>
@@ -8355,10 +8370,10 @@
     </row>
     <row r="48" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F48" s="48" t="s">
         <v>244</v>
@@ -8375,10 +8390,10 @@
     </row>
     <row r="49" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F49" s="48" t="s">
         <v>244</v>
@@ -8395,10 +8410,10 @@
     </row>
     <row r="50" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F50" s="48" t="s">
         <v>244</v>
@@ -8415,10 +8430,10 @@
     </row>
     <row r="51" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F51" s="48" t="s">
         <v>244</v>
@@ -8435,10 +8450,10 @@
     </row>
     <row r="52" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F52" s="48" t="s">
         <v>244</v>
@@ -8455,10 +8470,10 @@
     </row>
     <row r="53" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F53" s="48" t="s">
         <v>244</v>
@@ -8475,10 +8490,10 @@
     </row>
     <row r="54" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F54" s="48" t="s">
         <v>244</v>
@@ -8495,10 +8510,10 @@
     </row>
     <row r="55" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F55" s="48" t="s">
         <v>244</v>
@@ -8515,10 +8530,10 @@
     </row>
     <row r="56" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F56" s="48" t="s">
         <v>244</v>
@@ -8535,10 +8550,10 @@
     </row>
     <row r="57" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="D57" s="48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F57" s="48" t="s">
         <v>244</v>
@@ -8555,10 +8570,10 @@
     </row>
     <row r="58" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F58" s="48" t="s">
         <v>244</v>
@@ -8575,10 +8590,10 @@
     </row>
     <row r="59" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F59" s="48" t="s">
         <v>244</v>
@@ -8595,10 +8610,10 @@
     </row>
     <row r="60" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F60" s="48" t="s">
         <v>244</v>
@@ -8615,10 +8630,10 @@
     </row>
     <row r="61" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F61" s="48" t="s">
         <v>244</v>
@@ -8635,10 +8650,10 @@
     </row>
     <row r="62" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F62" s="48" t="s">
         <v>244</v>
@@ -8655,10 +8670,10 @@
     </row>
     <row r="63" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F63" s="48" t="s">
         <v>244</v>
@@ -8675,10 +8690,10 @@
     </row>
     <row r="64" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F64" s="48" t="s">
         <v>244</v>
@@ -8695,10 +8710,10 @@
     </row>
     <row r="65" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F65" s="48" t="s">
         <v>244</v>
@@ -8715,10 +8730,10 @@
     </row>
     <row r="66" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F66" s="48" t="s">
         <v>244</v>
@@ -8735,10 +8750,10 @@
     </row>
     <row r="67" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F67" s="48" t="s">
         <v>244</v>
@@ -8755,10 +8770,10 @@
     </row>
     <row r="68" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F68" s="48" t="s">
         <v>244</v>
@@ -8775,10 +8790,10 @@
     </row>
     <row r="69" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D69" s="48" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>244</v>
@@ -8795,10 +8810,10 @@
     </row>
     <row r="70" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D70" s="48" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>244</v>
@@ -8813,32 +8828,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G71" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" s="14" t="b">
+    <row r="71" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="D71" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="F71" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G71" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" s="48" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>447</v>
@@ -8855,10 +8870,10 @@
     </row>
     <row r="73" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>447</v>
@@ -8875,10 +8890,10 @@
     </row>
     <row r="74" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F74" s="14" t="s">
         <v>447</v>
@@ -8895,10 +8910,10 @@
     </row>
     <row r="75" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>447</v>
@@ -8915,10 +8930,10 @@
     </row>
     <row r="76" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>447</v>
@@ -8935,10 +8950,10 @@
     </row>
     <row r="77" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F77" s="14" t="s">
         <v>447</v>
@@ -8955,10 +8970,10 @@
     </row>
     <row r="78" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F78" s="14" t="s">
         <v>447</v>
@@ -8975,10 +8990,10 @@
     </row>
     <row r="79" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F79" s="14" t="s">
         <v>447</v>
@@ -8995,10 +9010,10 @@
     </row>
     <row r="80" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F80" s="14" t="s">
         <v>447</v>
@@ -9015,10 +9030,10 @@
     </row>
     <row r="81" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F81" s="14" t="s">
         <v>447</v>
@@ -9035,10 +9050,10 @@
     </row>
     <row r="82" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F82" s="14" t="s">
         <v>447</v>
@@ -9054,11 +9069,11 @@
       </c>
     </row>
     <row r="83" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>257</v>
+      <c r="A83" s="49" t="s">
+        <v>256</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F83" s="14" t="s">
         <v>447</v>
@@ -9075,10 +9090,10 @@
     </row>
     <row r="84" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F84" s="14" t="s">
         <v>447</v>
@@ -9095,10 +9110,10 @@
     </row>
     <row r="85" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F85" s="14" t="s">
         <v>447</v>
@@ -9115,10 +9130,10 @@
     </row>
     <row r="86" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F86" s="14" t="s">
         <v>447</v>
@@ -9135,10 +9150,10 @@
     </row>
     <row r="87" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F87" s="14" t="s">
         <v>447</v>
@@ -9155,10 +9170,10 @@
     </row>
     <row r="88" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F88" s="14" t="s">
         <v>447</v>
@@ -9173,16 +9188,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
+        <v>262</v>
+      </c>
       <c r="D89" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="E89" s="14"/>
+        <v>372</v>
+      </c>
       <c r="F89" s="14" t="s">
         <v>447</v>
       </c>
@@ -9195,19 +9207,15 @@
       <c r="I89" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
     </row>
     <row r="90" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="14" t="s">
@@ -9228,13 +9236,31 @@
       <c r="M90" s="15"/>
     </row>
     <row r="91" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
-      <c r="B91" s="21"/>
-      <c r="D91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
+      <c r="A91" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="G91" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
     </row>
     <row r="92" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
@@ -9506,12 +9532,10 @@
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="21"/>
-      <c r="C122" s="22"/>
       <c r="D122" s="15"/>
-      <c r="E122" s="22"/>
       <c r="F122" s="15"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
@@ -9571,6 +9595,17 @@
       <c r="G127" s="15"/>
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="15"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="472">
   <si>
     <t>type</t>
   </si>
@@ -1431,13 +1431,25 @@
     <t>simulation_output_report.Hours Cooling Setpoint Not Met</t>
   </si>
   <si>
-    <t>1.19.1-rc5</t>
-  </si>
-  <si>
     <t>Occupants</t>
   </si>
   <si>
     <t>building_characteristics_report.Occupants</t>
+  </si>
+  <si>
+    <t>1.19.1-OS.1.12.5.de88f6a99d</t>
+  </si>
+  <si>
+    <t>HVAC Cooling Capacity W</t>
+  </si>
+  <si>
+    <t>HVAC Heating Capacity W</t>
+  </si>
+  <si>
+    <t>simulation_output_report.HVAC Cooling Capacity W</t>
+  </si>
+  <si>
+    <t>simulation_output_report.HVAC Heating Capacity W</t>
   </si>
 </sst>
 </file>
@@ -5513,9 +5525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5574,7 +5584,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>154</v>
@@ -7627,12 +7637,12 @@
     </row>
     <row r="14" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48" t="s">
@@ -9208,16 +9218,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
       <c r="D90" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="E90" s="14"/>
       <c r="F90" s="14" t="s">
         <v>447</v>
       </c>
@@ -9230,21 +9237,18 @@
       <c r="I90" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-    </row>
-    <row r="91" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J90" s="49"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="49"/>
+      <c r="M90" s="49"/>
+    </row>
+    <row r="91" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
       <c r="D91" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="E91" s="14"/>
       <c r="F91" s="14" t="s">
         <v>447</v>
       </c>
@@ -9257,28 +9261,50 @@
       <c r="I91" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
-      <c r="M91" s="15"/>
-    </row>
-    <row r="92" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="B92" s="21"/>
-      <c r="D92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-    </row>
-    <row r="93" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="B93" s="21"/>
-      <c r="D93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="49"/>
+    </row>
+    <row r="92" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="49" t="s">
+        <v>468</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="G92" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="G93" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -1437,9 +1437,6 @@
     <t>building_characteristics_report.Occupants</t>
   </si>
   <si>
-    <t>1.19.1-OS.1.12.5.de88f6a99d</t>
-  </si>
-  <si>
     <t>HVAC Cooling Capacity W</t>
   </si>
   <si>
@@ -1450,6 +1447,9 @@
   </si>
   <si>
     <t>simulation_output_report.HVAC Heating Capacity W</t>
+  </si>
+  <si>
+    <t>1.20.0-rc2</t>
   </si>
 </sst>
 </file>
@@ -5525,7 +5525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5584,7 +5586,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>154</v>
@@ -9268,10 +9270,10 @@
     </row>
     <row r="92" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="49" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F92" s="14" t="s">
         <v>447</v>
@@ -9288,10 +9290,10 @@
     </row>
     <row r="93" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="49" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F93" s="14" t="s">
         <v>447</v>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="467">
   <si>
     <t>type</t>
   </si>
@@ -1156,21 +1156,6 @@
   </si>
   <si>
     <t>ResStock_PNW</t>
-  </si>
-  <si>
-    <t>Build Existing Models EnergyPlus</t>
-  </si>
-  <si>
-    <t>BuildExistingModelEnergyPlus</t>
-  </si>
-  <si>
-    <t>Always Run</t>
-  </si>
-  <si>
-    <t>always_run</t>
-  </si>
-  <si>
-    <t>EnergyPlusMeasure</t>
   </si>
   <si>
     <t>Building Characteristics Report</t>
@@ -5525,7 +5510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -5586,7 +5571,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>154</v>
@@ -5719,7 +5704,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>155</v>
@@ -5813,19 +5798,19 @@
         <v>1000</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B25" s="21">
         <v>1</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="22"/>
@@ -6030,11 +6015,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6285,7 +6268,7 @@
       <c r="P5" s="45"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="45" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="S5" s="45"/>
       <c r="T5" s="45"/>
@@ -6296,19 +6279,19 @@
     </row>
     <row r="6" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>374</v>
+        <v>272</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>375</v>
+        <v>269</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>375</v>
+        <v>269</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>378</v>
+        <v>40</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -6330,29 +6313,25 @@
       <c r="W6" s="39"/>
       <c r="X6" s="39"/>
     </row>
-    <row r="7" spans="1:26" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+    <row r="7" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45" t="s">
-        <v>376</v>
+        <v>240</v>
+      </c>
+      <c r="D7" s="45" t="str">
+        <f>"Run " &amp; B6</f>
+        <v>Run R60 Attic Insulation Upgrade</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="F7" s="45"/>
+        <v>266</v>
+      </c>
       <c r="G7" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="H7" s="45"/>
       <c r="I7" s="45">
         <v>1</v>
       </c>
-      <c r="J7" s="45"/>
       <c r="K7" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="45">
         <v>1</v>
@@ -6363,93 +6342,88 @@
       <c r="N7" s="45">
         <v>1</v>
       </c>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45" t="str">
-        <f>"[1]"</f>
-        <v>[1]</v>
-      </c>
-      <c r="Q7" s="45"/>
+      <c r="P7" s="45" t="s">
+        <v>268</v>
+      </c>
       <c r="R7" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-    </row>
-    <row r="8" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-    </row>
-    <row r="9" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9" s="45" t="str">
-        <f>"Run " &amp; B8</f>
-        <v>Run R60 Attic Insulation Upgrade</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="I9" s="45">
-        <v>1</v>
-      </c>
-      <c r="K9" s="45">
-        <v>0</v>
-      </c>
-      <c r="L9" s="45">
-        <v>1</v>
-      </c>
-      <c r="M9" s="45">
-        <v>1</v>
-      </c>
-      <c r="N9" s="45">
-        <v>1</v>
-      </c>
-      <c r="P9" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="R9" s="45" t="s">
-        <v>276</v>
-      </c>
+    </row>
+    <row r="8" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+    </row>
+    <row r="9" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
     </row>
     <row r="10" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -6458,10 +6432,10 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>454</v>
+        <v>273</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>452</v>
+        <v>274</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
@@ -6469,7 +6443,7 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -6489,153 +6463,153 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+    </row>
+    <row r="12" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="45" t="str">
+        <f>"Run " &amp; B11</f>
+        <v>Run Triple-Pane Windows Upgrade</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="45">
+        <v>1</v>
+      </c>
+      <c r="K12" s="45">
+        <v>0</v>
+      </c>
+      <c r="L12" s="45">
+        <v>1</v>
+      </c>
+      <c r="M12" s="45">
+        <v>1</v>
+      </c>
+      <c r="N12" s="45">
+        <v>1</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="R12" s="45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-    </row>
-    <row r="12" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+    </row>
+    <row r="14" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-    </row>
-    <row r="13" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-    </row>
-    <row r="14" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="45" t="str">
-        <f>"Run " &amp; B13</f>
-        <v>Run Triple-Pane Windows Upgrade</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="I14" s="45">
-        <v>1</v>
-      </c>
-      <c r="K14" s="45">
-        <v>0</v>
-      </c>
-      <c r="L14" s="45">
-        <v>1</v>
-      </c>
-      <c r="M14" s="45">
-        <v>1</v>
-      </c>
-      <c r="N14" s="45">
-        <v>1</v>
-      </c>
-      <c r="P14" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="R14" s="45" t="s">
-        <v>276</v>
-      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
@@ -6644,10 +6618,10 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>454</v>
+        <v>273</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>452</v>
+        <v>274</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
@@ -6655,7 +6629,7 @@
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -6675,153 +6649,153 @@
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+    </row>
+    <row r="17" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="45" t="str">
+        <f>"Run " &amp; B16</f>
+        <v>Run LED Lighting Upgrade</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="I17" s="45">
+        <v>1</v>
+      </c>
+      <c r="K17" s="45">
+        <v>0</v>
+      </c>
+      <c r="L17" s="45">
+        <v>1</v>
+      </c>
+      <c r="M17" s="45">
+        <v>1</v>
+      </c>
+      <c r="N17" s="45">
+        <v>1</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="R17" s="45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-    </row>
-    <row r="17" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+    </row>
+    <row r="19" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-    </row>
-    <row r="18" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-    </row>
-    <row r="19" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D19" s="45" t="str">
-        <f>"Run " &amp; B18</f>
-        <v>Run LED Lighting Upgrade</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="I19" s="45">
-        <v>1</v>
-      </c>
-      <c r="K19" s="45">
-        <v>0</v>
-      </c>
-      <c r="L19" s="45">
-        <v>1</v>
-      </c>
-      <c r="M19" s="45">
-        <v>1</v>
-      </c>
-      <c r="N19" s="45">
-        <v>1</v>
-      </c>
-      <c r="P19" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="R19" s="45" t="s">
-        <v>276</v>
-      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
     </row>
     <row r="20" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -6830,10 +6804,10 @@
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>454</v>
+        <v>273</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>452</v>
+        <v>274</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
@@ -6841,7 +6815,7 @@
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -6861,153 +6835,153 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10" t="s">
+    <row r="21" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+    </row>
+    <row r="22" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" s="45" t="str">
+        <f>"Run " &amp; B21</f>
+        <v>Run Attic+Windows+Lighting Package</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="I22" s="45">
+        <v>1</v>
+      </c>
+      <c r="K22" s="45">
+        <v>0</v>
+      </c>
+      <c r="L22" s="45">
+        <v>1</v>
+      </c>
+      <c r="M22" s="45">
+        <v>1</v>
+      </c>
+      <c r="N22" s="45">
+        <v>1</v>
+      </c>
+      <c r="P22" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="R22" s="45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-    </row>
-    <row r="22" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+    </row>
+    <row r="24" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-    </row>
-    <row r="23" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-    </row>
-    <row r="24" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D24" s="45" t="str">
-        <f>"Run " &amp; B23</f>
-        <v>Run Attic+Windows+Lighting Package</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="G24" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="I24" s="45">
-        <v>1</v>
-      </c>
-      <c r="K24" s="45">
-        <v>0</v>
-      </c>
-      <c r="L24" s="45">
-        <v>1</v>
-      </c>
-      <c r="M24" s="45">
-        <v>1</v>
-      </c>
-      <c r="N24" s="45">
-        <v>1</v>
-      </c>
-      <c r="P24" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="R24" s="45" t="s">
-        <v>276</v>
-      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
     </row>
     <row r="25" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
@@ -7016,10 +6990,10 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>454</v>
+        <v>273</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>452</v>
+        <v>274</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
@@ -7027,7 +7001,7 @@
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>450</v>
+        <v>275</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -7047,94 +7021,90 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-    </row>
-    <row r="27" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
+    <row r="26" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+    </row>
+    <row r="27" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
     </row>
     <row r="28" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="b">
         <v>1</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>379</v>
+        <v>238</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>380</v>
+        <v>237</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>380</v>
+        <v>237</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>236</v>
@@ -7159,83 +7129,11 @@
       <c r="W28" s="40"/>
       <c r="X28" s="40"/>
     </row>
-    <row r="29" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-    </row>
-    <row r="30" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="50"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B30" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>
@@ -7374,7 +7272,7 @@
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48" t="s">
@@ -7401,7 +7299,7 @@
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48" t="s">
@@ -7428,7 +7326,7 @@
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="48" t="s">
@@ -7455,7 +7353,7 @@
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48" t="s">
@@ -7482,7 +7380,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48" t="s">
@@ -7509,7 +7407,7 @@
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48" t="s">
@@ -7536,7 +7434,7 @@
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
@@ -7563,7 +7461,7 @@
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48" t="s">
@@ -7590,7 +7488,7 @@
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48" t="s">
@@ -7617,7 +7515,7 @@
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48" t="s">
@@ -7639,12 +7537,12 @@
     </row>
     <row r="14" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48" t="s">
@@ -7671,7 +7569,7 @@
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
@@ -7698,7 +7596,7 @@
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
@@ -7725,7 +7623,7 @@
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
@@ -7750,7 +7648,7 @@
         <v>302</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F18" s="48" t="s">
         <v>244</v>
@@ -7770,7 +7668,7 @@
         <v>303</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F19" s="48" t="s">
         <v>244</v>
@@ -7792,7 +7690,7 @@
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
@@ -7819,7 +7717,7 @@
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
@@ -7846,7 +7744,7 @@
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
@@ -7873,7 +7771,7 @@
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
@@ -7900,7 +7798,7 @@
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
@@ -7925,7 +7823,7 @@
         <v>308</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F25" s="48" t="s">
         <v>244</v>
@@ -7945,7 +7843,7 @@
         <v>309</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F26" s="48" t="s">
         <v>244</v>
@@ -7965,7 +7863,7 @@
         <v>310</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F27" s="48" t="s">
         <v>244</v>
@@ -7985,7 +7883,7 @@
         <v>311</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F28" s="48" t="s">
         <v>244</v>
@@ -8005,7 +7903,7 @@
         <v>312</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F29" s="48" t="s">
         <v>244</v>
@@ -8025,7 +7923,7 @@
         <v>313</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F30" s="48" t="s">
         <v>244</v>
@@ -8045,7 +7943,7 @@
         <v>314</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F31" s="48" t="s">
         <v>244</v>
@@ -8065,7 +7963,7 @@
         <v>315</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F32" s="48" t="s">
         <v>244</v>
@@ -8085,7 +7983,7 @@
         <v>316</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F33" s="48" t="s">
         <v>244</v>
@@ -8105,7 +8003,7 @@
         <v>317</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F34" s="48" t="s">
         <v>244</v>
@@ -8125,7 +8023,7 @@
         <v>318</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F35" s="48" t="s">
         <v>244</v>
@@ -8145,7 +8043,7 @@
         <v>319</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F36" s="48" t="s">
         <v>244</v>
@@ -8165,7 +8063,7 @@
         <v>320</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F37" s="48" t="s">
         <v>244</v>
@@ -8185,7 +8083,7 @@
         <v>321</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F38" s="48" t="s">
         <v>244</v>
@@ -8205,7 +8103,7 @@
         <v>322</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F39" s="48" t="s">
         <v>244</v>
@@ -8225,7 +8123,7 @@
         <v>323</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F40" s="48" t="s">
         <v>244</v>
@@ -8245,7 +8143,7 @@
         <v>324</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F41" s="48" t="s">
         <v>244</v>
@@ -8265,7 +8163,7 @@
         <v>277</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F42" s="48" t="s">
         <v>244</v>
@@ -8285,7 +8183,7 @@
         <v>325</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F43" s="48" t="s">
         <v>244</v>
@@ -8305,7 +8203,7 @@
         <v>326</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F44" s="48" t="s">
         <v>244</v>
@@ -8322,10 +8220,10 @@
     </row>
     <row r="45" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F45" s="48" t="s">
         <v>244</v>
@@ -8345,7 +8243,7 @@
         <v>327</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F46" s="48" t="s">
         <v>244</v>
@@ -8365,7 +8263,7 @@
         <v>328</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F47" s="48" t="s">
         <v>244</v>
@@ -8385,7 +8283,7 @@
         <v>329</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F48" s="48" t="s">
         <v>244</v>
@@ -8405,7 +8303,7 @@
         <v>330</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F49" s="48" t="s">
         <v>244</v>
@@ -8425,7 +8323,7 @@
         <v>331</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F50" s="48" t="s">
         <v>244</v>
@@ -8445,7 +8343,7 @@
         <v>332</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F51" s="48" t="s">
         <v>244</v>
@@ -8465,7 +8363,7 @@
         <v>333</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F52" s="48" t="s">
         <v>244</v>
@@ -8485,7 +8383,7 @@
         <v>334</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F53" s="48" t="s">
         <v>244</v>
@@ -8505,7 +8403,7 @@
         <v>335</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F54" s="48" t="s">
         <v>244</v>
@@ -8525,7 +8423,7 @@
         <v>336</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F55" s="48" t="s">
         <v>244</v>
@@ -8545,7 +8443,7 @@
         <v>337</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F56" s="48" t="s">
         <v>244</v>
@@ -8565,7 +8463,7 @@
         <v>279</v>
       </c>
       <c r="D57" s="48" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F57" s="48" t="s">
         <v>244</v>
@@ -8585,7 +8483,7 @@
         <v>338</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F58" s="48" t="s">
         <v>244</v>
@@ -8605,7 +8503,7 @@
         <v>339</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F59" s="48" t="s">
         <v>244</v>
@@ -8625,7 +8523,7 @@
         <v>340</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F60" s="48" t="s">
         <v>244</v>
@@ -8645,7 +8543,7 @@
         <v>341</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F61" s="48" t="s">
         <v>244</v>
@@ -8665,7 +8563,7 @@
         <v>342</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F62" s="48" t="s">
         <v>244</v>
@@ -8685,7 +8583,7 @@
         <v>343</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F63" s="48" t="s">
         <v>244</v>
@@ -8705,7 +8603,7 @@
         <v>344</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F64" s="48" t="s">
         <v>244</v>
@@ -8725,7 +8623,7 @@
         <v>345</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F65" s="48" t="s">
         <v>244</v>
@@ -8745,7 +8643,7 @@
         <v>346</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F66" s="48" t="s">
         <v>244</v>
@@ -8765,7 +8663,7 @@
         <v>347</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F67" s="48" t="s">
         <v>244</v>
@@ -8785,7 +8683,7 @@
         <v>348</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F68" s="48" t="s">
         <v>244</v>
@@ -8805,7 +8703,7 @@
         <v>349</v>
       </c>
       <c r="D69" s="48" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>244</v>
@@ -8825,7 +8723,7 @@
         <v>350</v>
       </c>
       <c r="D70" s="48" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>244</v>
@@ -8845,7 +8743,7 @@
         <v>351</v>
       </c>
       <c r="D71" s="48" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>244</v>
@@ -8868,7 +8766,7 @@
         <v>355</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G72" s="14" t="b">
         <v>0</v>
@@ -8888,7 +8786,7 @@
         <v>356</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G73" s="14" t="b">
         <v>0</v>
@@ -8908,7 +8806,7 @@
         <v>357</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G74" s="14" t="b">
         <v>0</v>
@@ -8928,7 +8826,7 @@
         <v>358</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G75" s="14" t="b">
         <v>0</v>
@@ -8948,7 +8846,7 @@
         <v>359</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G76" s="14" t="b">
         <v>0</v>
@@ -8968,7 +8866,7 @@
         <v>360</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G77" s="14" t="b">
         <v>0</v>
@@ -8988,7 +8886,7 @@
         <v>361</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G78" s="14" t="b">
         <v>0</v>
@@ -9008,7 +8906,7 @@
         <v>362</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G79" s="14" t="b">
         <v>0</v>
@@ -9028,7 +8926,7 @@
         <v>363</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G80" s="14" t="b">
         <v>0</v>
@@ -9048,7 +8946,7 @@
         <v>364</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G81" s="14" t="b">
         <v>0</v>
@@ -9068,7 +8966,7 @@
         <v>365</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G82" s="14" t="b">
         <v>0</v>
@@ -9088,7 +8986,7 @@
         <v>366</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G83" s="14" t="b">
         <v>0</v>
@@ -9108,7 +9006,7 @@
         <v>367</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G84" s="14" t="b">
         <v>0</v>
@@ -9128,7 +9026,7 @@
         <v>368</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G85" s="14" t="b">
         <v>0</v>
@@ -9148,7 +9046,7 @@
         <v>369</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G86" s="14" t="b">
         <v>0</v>
@@ -9168,7 +9066,7 @@
         <v>370</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G87" s="14" t="b">
         <v>0</v>
@@ -9188,7 +9086,7 @@
         <v>371</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G88" s="14" t="b">
         <v>0</v>
@@ -9208,7 +9106,7 @@
         <v>372</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G89" s="14" t="b">
         <v>0</v>
@@ -9222,13 +9120,13 @@
     </row>
     <row r="90" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G90" s="14" t="b">
         <v>0</v>
@@ -9246,13 +9144,13 @@
     </row>
     <row r="91" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G91" s="14" t="b">
         <v>0</v>
@@ -9270,13 +9168,13 @@
     </row>
     <row r="92" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="49" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G92" s="14" t="b">
         <v>0</v>
@@ -9290,13 +9188,13 @@
     </row>
     <row r="93" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="49" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G93" s="14" t="b">
         <v>0</v>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -1434,7 +1434,7 @@
     <t>simulation_output_report.HVAC Heating Capacity W</t>
   </si>
   <si>
-    <t>1.20.0-rc2</t>
+    <t>1.20.1</t>
   </si>
 </sst>
 </file>
@@ -5510,8 +5510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6017,7 +6017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="473">
   <si>
     <t>type</t>
   </si>
@@ -1435,6 +1435,24 @@
   </si>
   <si>
     <t>1.20.1</t>
+  </si>
+  <si>
+    <t>Build Existing Models EnergyPlus</t>
+  </si>
+  <si>
+    <t>BuildExistingModelEnergyPlus</t>
+  </si>
+  <si>
+    <t>EnergyPlusMeasure</t>
+  </si>
+  <si>
+    <t>Always Run</t>
+  </si>
+  <si>
+    <t>always_run</t>
+  </si>
+  <si>
+    <t>[1]</t>
   </si>
 </sst>
 </file>
@@ -3563,7 +3581,7 @@
     <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3664,6 +3682,10 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1544">
     <cellStyle name="20% - Accent1" xfId="1521" builtinId="30" customBuiltin="1"/>
@@ -5510,7 +5532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6015,9 +6037,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6277,153 +6301,165 @@
       <c r="W5" s="45"/>
       <c r="X5" s="45"/>
     </row>
-    <row r="6" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="1:26" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>469</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+    </row>
+    <row r="7" spans="1:26" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54" t="s">
+        <v>470</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>471</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54">
+        <v>1</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
+        <v>1</v>
+      </c>
+      <c r="L7" s="54">
+        <v>1</v>
+      </c>
+      <c r="M7" s="54">
+        <v>1</v>
+      </c>
+      <c r="N7" s="54">
+        <v>1</v>
+      </c>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+    </row>
+    <row r="8" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C8" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D8" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E8" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-    </row>
-    <row r="7" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+    </row>
+    <row r="9" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="D7" s="45" t="str">
-        <f>"Run " &amp; B6</f>
+      <c r="D9" s="45" t="str">
+        <f>"Run " &amp; B8</f>
         <v>Run R60 Attic Insulation Upgrade</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E9" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G9" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I9" s="45">
         <v>1</v>
       </c>
-      <c r="K7" s="45">
-        <v>0</v>
-      </c>
-      <c r="L7" s="45">
+      <c r="K9" s="45">
+        <v>0</v>
+      </c>
+      <c r="L9" s="45">
         <v>1</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M9" s="45">
         <v>1</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N9" s="45">
         <v>1</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P9" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="R9" s="45" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-    </row>
-    <row r="9" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
     </row>
     <row r="10" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -6432,10 +6468,10 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>274</v>
+        <v>447</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
@@ -6443,7 +6479,7 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -6463,153 +6499,153 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="39" t="s">
+    <row r="11" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+    </row>
+    <row r="12" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+    </row>
+    <row r="13" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C13" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D13" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E13" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-    </row>
-    <row r="12" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+    </row>
+    <row r="14" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="D12" s="45" t="str">
-        <f>"Run " &amp; B11</f>
+      <c r="D14" s="45" t="str">
+        <f>"Run " &amp; B13</f>
         <v>Run Triple-Pane Windows Upgrade</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E14" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G14" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I14" s="45">
         <v>1</v>
       </c>
-      <c r="K12" s="45">
-        <v>0</v>
-      </c>
-      <c r="L12" s="45">
+      <c r="K14" s="45">
+        <v>0</v>
+      </c>
+      <c r="L14" s="45">
         <v>1</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M14" s="45">
         <v>1</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N14" s="45">
         <v>1</v>
       </c>
-      <c r="P12" s="45" t="s">
+      <c r="P14" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="R12" s="45" t="s">
+      <c r="R14" s="45" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-    </row>
-    <row r="14" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
@@ -6618,10 +6654,10 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>274</v>
+        <v>447</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
@@ -6629,7 +6665,7 @@
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -6649,153 +6685,153 @@
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="39" t="s">
+    <row r="16" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+    </row>
+    <row r="17" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+    </row>
+    <row r="18" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C18" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D18" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E18" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-    </row>
-    <row r="17" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+    </row>
+    <row r="19" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="D17" s="45" t="str">
-        <f>"Run " &amp; B16</f>
+      <c r="D19" s="45" t="str">
+        <f>"Run " &amp; B18</f>
         <v>Run LED Lighting Upgrade</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E19" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G19" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I19" s="45">
         <v>1</v>
       </c>
-      <c r="K17" s="45">
-        <v>0</v>
-      </c>
-      <c r="L17" s="45">
+      <c r="K19" s="45">
+        <v>0</v>
+      </c>
+      <c r="L19" s="45">
         <v>1</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M19" s="45">
         <v>1</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N19" s="45">
         <v>1</v>
       </c>
-      <c r="P17" s="45" t="s">
+      <c r="P19" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="R17" s="45" t="s">
+      <c r="R19" s="45" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-    </row>
-    <row r="19" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
     </row>
     <row r="20" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -6804,10 +6840,10 @@
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>274</v>
+        <v>447</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
@@ -6815,7 +6851,7 @@
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -6835,153 +6871,153 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="39" t="s">
+    <row r="21" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+    </row>
+    <row r="22" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+    </row>
+    <row r="23" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C23" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D23" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E23" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-    </row>
-    <row r="22" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="45" t="s">
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+    </row>
+    <row r="24" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="D22" s="45" t="str">
-        <f>"Run " &amp; B21</f>
+      <c r="D24" s="45" t="str">
+        <f>"Run " &amp; B23</f>
         <v>Run Attic+Windows+Lighting Package</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E24" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G24" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I24" s="45">
         <v>1</v>
       </c>
-      <c r="K22" s="45">
-        <v>0</v>
-      </c>
-      <c r="L22" s="45">
+      <c r="K24" s="45">
+        <v>0</v>
+      </c>
+      <c r="L24" s="45">
         <v>1</v>
       </c>
-      <c r="M22" s="45">
+      <c r="M24" s="45">
         <v>1</v>
       </c>
-      <c r="N22" s="45">
+      <c r="N24" s="45">
         <v>1</v>
       </c>
-      <c r="P22" s="45" t="s">
+      <c r="P24" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="R22" s="45" t="s">
+      <c r="R24" s="45" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-    </row>
-    <row r="24" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
     </row>
     <row r="25" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
@@ -6990,10 +7026,10 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>274</v>
+        <v>447</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
@@ -7001,7 +7037,7 @@
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>275</v>
+        <v>445</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -7021,90 +7057,94 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>374</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-    </row>
-    <row r="27" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
+    <row r="26" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+    </row>
+    <row r="27" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="b">
         <v>1</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>237</v>
+        <v>375</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>237</v>
+        <v>375</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>236</v>
@@ -7129,11 +7169,83 @@
       <c r="W28" s="40"/>
       <c r="X28" s="40"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
+    <row r="29" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+    </row>
+    <row r="30" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B31" s="50"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B32" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="471">
   <si>
     <t>type</t>
   </si>
@@ -903,9 +903,6 @@
     <t>Building ID</t>
   </si>
   <si>
-    <t>Location Region</t>
-  </si>
-  <si>
     <t>Location EPW</t>
   </si>
   <si>
@@ -930,9 +927,6 @@
     <t>Geometry Garage</t>
   </si>
   <si>
-    <t>Geometry</t>
-  </si>
-  <si>
     <t>Orientation</t>
   </si>
   <si>
@@ -1089,9 +1083,6 @@
     <t>Mechanical Ventilation</t>
   </si>
   <si>
-    <t>Airflow</t>
-  </si>
-  <si>
     <t>building_id</t>
   </si>
   <si>
@@ -1164,9 +1155,6 @@
     <t>BuildingCharacteristicsReport</t>
   </si>
   <si>
-    <t>building_characteristics_report.Location Region</t>
-  </si>
-  <si>
     <t>building_characteristics_report.Location EPW</t>
   </si>
   <si>
@@ -1191,9 +1179,6 @@
     <t>building_characteristics_report.Geometry Garage</t>
   </si>
   <si>
-    <t>building_characteristics_report.Geometry</t>
-  </si>
-  <si>
     <t>building_characteristics_report.Orientation</t>
   </si>
   <si>
@@ -1359,9 +1344,6 @@
     <t>building_characteristics_report.Mechanical Ventilation</t>
   </si>
   <si>
-    <t>building_characteristics_report.Airflow</t>
-  </si>
-  <si>
     <t>Double</t>
   </si>
   <si>
@@ -1453,6 +1435,18 @@
   </si>
   <si>
     <t>[1]</t>
+  </si>
+  <si>
+    <t>Location Heating Region</t>
+  </si>
+  <si>
+    <t>building_characteristics_report.Location Heating Region</t>
+  </si>
+  <si>
+    <t>Location Cooling Region</t>
+  </si>
+  <si>
+    <t>building_characteristics_report.Location Cooling Region</t>
   </si>
 </sst>
 </file>
@@ -3679,13 +3673,13 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1544">
     <cellStyle name="20% - Accent1" xfId="1521" builtinId="30" customBuiltin="1"/>
@@ -5532,9 +5526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5593,7 +5585,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>154</v>
@@ -5704,7 +5696,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
@@ -5726,7 +5718,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>155</v>
@@ -5820,19 +5812,19 @@
         <v>1000</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B25" s="21">
         <v>1</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="22"/>
@@ -6039,7 +6031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -6095,14 +6087,14 @@
       <c r="R1" s="30"/>
       <c r="S1" s="27"/>
       <c r="T1" s="27"/>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -6264,7 +6256,7 @@
         <v>288</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="45" t="s">
@@ -6292,7 +6284,7 @@
       <c r="P5" s="45"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="45" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="S5" s="45"/>
       <c r="T5" s="45"/>
@@ -6302,92 +6294,92 @@
       <c r="X5" s="45"/>
     </row>
     <row r="6" spans="1:26" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="b">
+      <c r="A6" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>467</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>468</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>468</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>469</v>
-      </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
+      <c r="B6" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
     </row>
     <row r="7" spans="1:26" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54" t="s">
-        <v>470</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>471</v>
-      </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53" t="s">
+        <v>464</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>465</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54">
+      <c r="H7" s="53"/>
+      <c r="I7" s="53">
         <v>1</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54">
+      <c r="J7" s="53"/>
+      <c r="K7" s="53">
         <v>1</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="53">
         <v>1</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="53">
         <v>1</v>
       </c>
-      <c r="N7" s="54">
+      <c r="N7" s="53">
         <v>1</v>
       </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54" t="s">
+      <c r="O7" s="53"/>
+      <c r="P7" s="53" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
     </row>
     <row r="8" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="b">
@@ -6468,10 +6460,10 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
@@ -6506,10 +6498,10 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
@@ -6654,10 +6646,10 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
@@ -6692,10 +6684,10 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
@@ -6840,10 +6832,10 @@
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
@@ -6878,10 +6870,10 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
@@ -7026,10 +7018,10 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
@@ -7037,7 +7029,7 @@
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -7064,10 +7056,10 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
@@ -7075,7 +7067,7 @@
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -7138,13 +7130,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>236</v>
@@ -7174,13 +7166,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E29" s="40" t="s">
         <v>236</v>
@@ -7259,11 +7251,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7379,12 +7371,12 @@
     </row>
     <row r="4" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>289</v>
+        <v>467</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>376</v>
+        <v>468</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48" t="s">
@@ -7406,12 +7398,12 @@
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>290</v>
+        <v>469</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>377</v>
+        <v>470</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48" t="s">
@@ -7433,12 +7425,12 @@
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="48" t="s">
@@ -7460,12 +7452,12 @@
     </row>
     <row r="7" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48" t="s">
@@ -7487,12 +7479,12 @@
     </row>
     <row r="8" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48" t="s">
@@ -7514,12 +7506,12 @@
     </row>
     <row r="9" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48" t="s">
@@ -7541,12 +7533,12 @@
     </row>
     <row r="10" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
@@ -7568,12 +7560,12 @@
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48" t="s">
@@ -7595,12 +7587,12 @@
     </row>
     <row r="12" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48" t="s">
@@ -7622,12 +7614,12 @@
     </row>
     <row r="13" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48" t="s">
@@ -7649,12 +7641,12 @@
     </row>
     <row r="14" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48" t="s">
@@ -7676,12 +7668,12 @@
     </row>
     <row r="15" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
@@ -7703,12 +7695,12 @@
     </row>
     <row r="16" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
@@ -7730,12 +7722,12 @@
     </row>
     <row r="17" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
@@ -7757,10 +7749,10 @@
     </row>
     <row r="18" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F18" s="48" t="s">
         <v>244</v>
@@ -7777,10 +7769,10 @@
     </row>
     <row r="19" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F19" s="48" t="s">
         <v>244</v>
@@ -7797,12 +7789,12 @@
     </row>
     <row r="20" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
@@ -7829,7 +7821,7 @@
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
@@ -7851,12 +7843,12 @@
     </row>
     <row r="22" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
@@ -7878,12 +7870,12 @@
     </row>
     <row r="23" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
@@ -7905,12 +7897,12 @@
     </row>
     <row r="24" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
@@ -7932,10 +7924,10 @@
     </row>
     <row r="25" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F25" s="48" t="s">
         <v>244</v>
@@ -7952,10 +7944,10 @@
     </row>
     <row r="26" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F26" s="48" t="s">
         <v>244</v>
@@ -7972,10 +7964,10 @@
     </row>
     <row r="27" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F27" s="48" t="s">
         <v>244</v>
@@ -7992,10 +7984,10 @@
     </row>
     <row r="28" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F28" s="48" t="s">
         <v>244</v>
@@ -8012,10 +8004,10 @@
     </row>
     <row r="29" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F29" s="48" t="s">
         <v>244</v>
@@ -8032,10 +8024,10 @@
     </row>
     <row r="30" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F30" s="48" t="s">
         <v>244</v>
@@ -8052,10 +8044,10 @@
     </row>
     <row r="31" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F31" s="48" t="s">
         <v>244</v>
@@ -8072,10 +8064,10 @@
     </row>
     <row r="32" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F32" s="48" t="s">
         <v>244</v>
@@ -8092,10 +8084,10 @@
     </row>
     <row r="33" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F33" s="48" t="s">
         <v>244</v>
@@ -8112,10 +8104,10 @@
     </row>
     <row r="34" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F34" s="48" t="s">
         <v>244</v>
@@ -8132,10 +8124,10 @@
     </row>
     <row r="35" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F35" s="48" t="s">
         <v>244</v>
@@ -8152,10 +8144,10 @@
     </row>
     <row r="36" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F36" s="48" t="s">
         <v>244</v>
@@ -8172,10 +8164,10 @@
     </row>
     <row r="37" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F37" s="48" t="s">
         <v>244</v>
@@ -8192,10 +8184,10 @@
     </row>
     <row r="38" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F38" s="48" t="s">
         <v>244</v>
@@ -8212,10 +8204,10 @@
     </row>
     <row r="39" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F39" s="48" t="s">
         <v>244</v>
@@ -8232,10 +8224,10 @@
     </row>
     <row r="40" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F40" s="48" t="s">
         <v>244</v>
@@ -8252,10 +8244,10 @@
     </row>
     <row r="41" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F41" s="48" t="s">
         <v>244</v>
@@ -8275,7 +8267,7 @@
         <v>277</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F42" s="48" t="s">
         <v>244</v>
@@ -8292,10 +8284,10 @@
     </row>
     <row r="43" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F43" s="48" t="s">
         <v>244</v>
@@ -8312,10 +8304,10 @@
     </row>
     <row r="44" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F44" s="48" t="s">
         <v>244</v>
@@ -8332,10 +8324,10 @@
     </row>
     <row r="45" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F45" s="48" t="s">
         <v>244</v>
@@ -8352,10 +8344,10 @@
     </row>
     <row r="46" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F46" s="48" t="s">
         <v>244</v>
@@ -8372,10 +8364,10 @@
     </row>
     <row r="47" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F47" s="48" t="s">
         <v>244</v>
@@ -8392,10 +8384,10 @@
     </row>
     <row r="48" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F48" s="48" t="s">
         <v>244</v>
@@ -8412,10 +8404,10 @@
     </row>
     <row r="49" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F49" s="48" t="s">
         <v>244</v>
@@ -8432,10 +8424,10 @@
     </row>
     <row r="50" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F50" s="48" t="s">
         <v>244</v>
@@ -8452,10 +8444,10 @@
     </row>
     <row r="51" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F51" s="48" t="s">
         <v>244</v>
@@ -8472,10 +8464,10 @@
     </row>
     <row r="52" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F52" s="48" t="s">
         <v>244</v>
@@ -8492,10 +8484,10 @@
     </row>
     <row r="53" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F53" s="48" t="s">
         <v>244</v>
@@ -8512,10 +8504,10 @@
     </row>
     <row r="54" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F54" s="48" t="s">
         <v>244</v>
@@ -8532,10 +8524,10 @@
     </row>
     <row r="55" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F55" s="48" t="s">
         <v>244</v>
@@ -8552,10 +8544,10 @@
     </row>
     <row r="56" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F56" s="48" t="s">
         <v>244</v>
@@ -8575,7 +8567,7 @@
         <v>279</v>
       </c>
       <c r="D57" s="48" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F57" s="48" t="s">
         <v>244</v>
@@ -8592,10 +8584,10 @@
     </row>
     <row r="58" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F58" s="48" t="s">
         <v>244</v>
@@ -8612,10 +8604,10 @@
     </row>
     <row r="59" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F59" s="48" t="s">
         <v>244</v>
@@ -8632,10 +8624,10 @@
     </row>
     <row r="60" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F60" s="48" t="s">
         <v>244</v>
@@ -8652,10 +8644,10 @@
     </row>
     <row r="61" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F61" s="48" t="s">
         <v>244</v>
@@ -8672,10 +8664,10 @@
     </row>
     <row r="62" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F62" s="48" t="s">
         <v>244</v>
@@ -8692,10 +8684,10 @@
     </row>
     <row r="63" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F63" s="48" t="s">
         <v>244</v>
@@ -8712,10 +8704,10 @@
     </row>
     <row r="64" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F64" s="48" t="s">
         <v>244</v>
@@ -8732,10 +8724,10 @@
     </row>
     <row r="65" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F65" s="48" t="s">
         <v>244</v>
@@ -8752,10 +8744,10 @@
     </row>
     <row r="66" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F66" s="48" t="s">
         <v>244</v>
@@ -8772,10 +8764,10 @@
     </row>
     <row r="67" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F67" s="48" t="s">
         <v>244</v>
@@ -8792,10 +8784,10 @@
     </row>
     <row r="68" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F68" s="48" t="s">
         <v>244</v>
@@ -8812,10 +8804,10 @@
     </row>
     <row r="69" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D69" s="48" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>244</v>
@@ -8832,10 +8824,10 @@
     </row>
     <row r="70" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D70" s="48" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>244</v>
@@ -8850,35 +8842,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="D71" s="48" t="s">
-        <v>441</v>
-      </c>
-      <c r="F71" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G71" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" s="48" t="b">
+    <row r="71" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="G71" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" s="14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G72" s="14" t="b">
         <v>0</v>
@@ -8892,13 +8884,13 @@
     </row>
     <row r="73" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G73" s="14" t="b">
         <v>0</v>
@@ -8912,13 +8904,13 @@
     </row>
     <row r="74" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G74" s="14" t="b">
         <v>0</v>
@@ -8932,13 +8924,13 @@
     </row>
     <row r="75" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G75" s="14" t="b">
         <v>0</v>
@@ -8952,13 +8944,13 @@
     </row>
     <row r="76" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G76" s="14" t="b">
         <v>0</v>
@@ -8972,13 +8964,13 @@
     </row>
     <row r="77" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G77" s="14" t="b">
         <v>0</v>
@@ -8992,13 +8984,13 @@
     </row>
     <row r="78" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G78" s="14" t="b">
         <v>0</v>
@@ -9012,13 +9004,13 @@
     </row>
     <row r="79" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G79" s="14" t="b">
         <v>0</v>
@@ -9032,13 +9024,13 @@
     </row>
     <row r="80" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G80" s="14" t="b">
         <v>0</v>
@@ -9052,13 +9044,13 @@
     </row>
     <row r="81" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G81" s="14" t="b">
         <v>0</v>
@@ -9072,13 +9064,13 @@
     </row>
     <row r="82" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G82" s="14" t="b">
         <v>0</v>
@@ -9091,14 +9083,14 @@
       </c>
     </row>
     <row r="83" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="49" t="s">
-        <v>256</v>
+      <c r="A83" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G83" s="14" t="b">
         <v>0</v>
@@ -9112,13 +9104,13 @@
     </row>
     <row r="84" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G84" s="14" t="b">
         <v>0</v>
@@ -9132,13 +9124,13 @@
     </row>
     <row r="85" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G85" s="14" t="b">
         <v>0</v>
@@ -9152,13 +9144,13 @@
     </row>
     <row r="86" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G86" s="14" t="b">
         <v>0</v>
@@ -9172,13 +9164,13 @@
     </row>
     <row r="87" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G87" s="14" t="b">
         <v>0</v>
@@ -9192,13 +9184,13 @@
     </row>
     <row r="88" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G88" s="14" t="b">
         <v>0</v>
@@ -9212,13 +9204,13 @@
     </row>
     <row r="89" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>262</v>
+        <v>450</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>372</v>
+        <v>451</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G89" s="14" t="b">
         <v>0</v>
@@ -9229,16 +9221,20 @@
       <c r="I89" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
     </row>
     <row r="90" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G90" s="14" t="b">
         <v>0</v>
@@ -9255,14 +9251,14 @@
       <c r="M90" s="49"/>
     </row>
     <row r="91" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="D91" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="D91" s="14" t="s">
-        <v>459</v>
-      </c>
       <c r="F91" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G91" s="14" t="b">
         <v>0</v>
@@ -9273,20 +9269,16 @@
       <c r="I91" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="J91" s="49"/>
-      <c r="K91" s="49"/>
-      <c r="L91" s="49"/>
-      <c r="M91" s="49"/>
     </row>
     <row r="92" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="49" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G92" s="14" t="b">
         <v>0</v>
@@ -9298,25 +9290,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="49" t="s">
-        <v>463</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="G93" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" s="14" t="b">
-        <v>0</v>
-      </c>
+    <row r="93" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15"/>
+      <c r="B93" s="21"/>
+      <c r="D93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
     </row>
     <row r="94" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
@@ -9570,10 +9551,12 @@
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
     </row>
-    <row r="122" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="21"/>
+      <c r="C122" s="22"/>
       <c r="D122" s="15"/>
+      <c r="E122" s="22"/>
       <c r="F122" s="15"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
@@ -9633,17 +9616,6 @@
       <c r="G127" s="15"/>
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
-      <c r="B128" s="21"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="467">
   <si>
     <t>type</t>
   </si>
@@ -849,42 +849,18 @@
     <t>Insulation Unfinished Attic</t>
   </si>
   <si>
-    <t>Ceiling R-60, Vented</t>
-  </si>
-  <si>
-    <t>R60 Attic Insulation Upgrade</t>
-  </si>
-  <si>
-    <t>Apply Logic</t>
-  </si>
-  <si>
-    <t>apply_logic</t>
-  </si>
-  <si>
-    <t>FIXME</t>
-  </si>
-  <si>
     <t>discrete</t>
   </si>
   <si>
     <t>Windows</t>
   </si>
   <si>
-    <t>Low-E, Triple, Non-metal, Air, L-Gain</t>
-  </si>
-  <si>
     <t>Lighting</t>
   </si>
   <si>
-    <t>100% LED</t>
-  </si>
-  <si>
     <t>Attic+Windows+Lighting Package</t>
   </si>
   <si>
-    <t>Triple-Pane Windows Upgrade</t>
-  </si>
-  <si>
     <t>LED Lighting Upgrade</t>
   </si>
   <si>
@@ -1083,9 +1059,6 @@
     <t>Mechanical Ventilation</t>
   </si>
   <si>
-    <t>building_id</t>
-  </si>
-  <si>
     <t>Simulation Output Report</t>
   </si>
   <si>
@@ -1353,24 +1326,6 @@
     <t>0 or 1 (defines whether to run upgrade and existing building simulations, or only upgrade simulations)</t>
   </si>
   <si>
-    <t>Insulation Unfinished Attic|Windows|Lighting</t>
-  </si>
-  <si>
-    <t>Ceiling R-60, Vented|Low-E, Triple, Non-metal, Air, L-Gain|100% LED</t>
-  </si>
-  <si>
-    <t>parameter_names</t>
-  </si>
-  <si>
-    <t>option_names</t>
-  </si>
-  <si>
-    <t>Parameter Names</t>
-  </si>
-  <si>
-    <t>Option Names</t>
-  </si>
-  <si>
     <t>integer_sequence</t>
   </si>
   <si>
@@ -1431,9 +1386,6 @@
     <t>Always Run</t>
   </si>
   <si>
-    <t>always_run</t>
-  </si>
-  <si>
     <t>[1]</t>
   </si>
   <si>
@@ -1447,6 +1399,42 @@
   </si>
   <si>
     <t>building_characteristics_report.Location Cooling Region</t>
+  </si>
+  <si>
+    <t>Insulation Unfinished Attic|Ceiling R-60, Vented</t>
+  </si>
+  <si>
+    <t>Option 1</t>
+  </si>
+  <si>
+    <t>Windows|Low-E, Triple, Non-metal, Air, L-Gain</t>
+  </si>
+  <si>
+    <t>Lighting|100% LED</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>Option 3</t>
+  </si>
+  <si>
+    <t>Option 1 Apply Logic</t>
+  </si>
+  <si>
+    <t>Insulation Unfinished Attic|Uninsulated, Vented || Insulation Unfinished Attic|Ceiling R-7, Vented || Insulation Unfinished Attic|Ceiling R-13, Vented || Insulation Unfinished Attic|Ceiling R-19, Vented || Insulation Unfinished Attic|Ceiling R-30, Vented</t>
+  </si>
+  <si>
+    <t>Triple-Pane Windows Upgrade (If Single-Pane)</t>
+  </si>
+  <si>
+    <t>R60 Attic Insulation Upgrade (If &lt;=R30)</t>
+  </si>
+  <si>
+    <t>Windows|Clear, Single, Metal || Windows|Clear, Single, Non-metal</t>
+  </si>
+  <si>
+    <t>Option 2 Apply Logic</t>
   </si>
 </sst>
 </file>
@@ -5585,7 +5573,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>154</v>
@@ -5696,7 +5684,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
@@ -5718,7 +5706,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>155</v>
@@ -5812,19 +5800,19 @@
         <v>1000</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B25" s="21">
         <v>1</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="22"/>
@@ -5976,10 +5964,10 @@
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C45" s="2" t="str">
         <f>"['pnw'," &amp; B24 &amp; "]"</f>
@@ -6029,16 +6017,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
@@ -6215,13 +6201,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>40</v>
@@ -6253,10 +6239,11 @@
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>349</v>
+        <v>280</v>
+      </c>
+      <c r="E5" s="53" t="str">
+        <f>LOWER(SUBSTITUTE(D5," ","_"))</f>
+        <v>building_id</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="45" t="s">
@@ -6284,7 +6271,7 @@
       <c r="P5" s="45"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="45" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="S5" s="45"/>
       <c r="T5" s="45"/>
@@ -6298,16 +6285,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
@@ -6338,10 +6325,11 @@
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53" t="s">
-        <v>464</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>465</v>
+        <v>449</v>
+      </c>
+      <c r="E7" s="53" t="str">
+        <f>LOWER(SUBSTITUTE(D7," ","_"))</f>
+        <v>always_run</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53" t="s">
@@ -6366,11 +6354,11 @@
       </c>
       <c r="O7" s="53"/>
       <c r="P7" s="53" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="Q7" s="53"/>
       <c r="R7" s="53" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="S7" s="53"/>
       <c r="T7" s="53"/>
@@ -6381,76 +6369,76 @@
       <c r="Y7" s="54"/>
       <c r="Z7" s="54"/>
     </row>
-    <row r="8" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="C8" s="39" t="s">
+    <row r="8" spans="1:26" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>464</v>
+      </c>
+      <c r="C8" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-    </row>
-    <row r="9" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+    </row>
+    <row r="9" spans="1:26" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="D9" s="45" t="str">
+      <c r="D9" s="53" t="str">
         <f>"Run " &amp; B8</f>
-        <v>Run R60 Attic Insulation Upgrade</v>
-      </c>
-      <c r="E9" s="45" t="s">
+        <v>Run R60 Attic Insulation Upgrade (If &lt;=R30)</v>
+      </c>
+      <c r="E9" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="53">
         <v>1</v>
       </c>
-      <c r="K9" s="45">
-        <v>0</v>
-      </c>
-      <c r="L9" s="45">
+      <c r="K9" s="53">
+        <v>0</v>
+      </c>
+      <c r="L9" s="53">
         <v>1</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="53">
         <v>1</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="53">
         <v>1</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="P9" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="R9" s="45" t="s">
-        <v>276</v>
+      <c r="R9" s="53" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6460,10 +6448,11 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>441</v>
+        <v>456</v>
+      </c>
+      <c r="E10" s="10" t="str">
+        <f t="shared" ref="E10:E11" si="0">LOWER(SUBSTITUTE(D10," ","_"))</f>
+        <v>option_1</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
@@ -6471,7 +6460,7 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>270</v>
+        <v>455</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -6498,10 +6487,11 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>442</v>
+        <v>461</v>
+      </c>
+      <c r="E11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>option_1_apply_logic</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
@@ -6509,7 +6499,7 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>271</v>
+        <v>462</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -6529,115 +6519,116 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+    </row>
+    <row r="13" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="45" t="str">
+        <f>"Run " &amp; B12</f>
+        <v>Run Triple-Pane Windows Upgrade (If Single-Pane)</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="I13" s="45">
+        <v>1</v>
+      </c>
+      <c r="K13" s="45">
+        <v>0</v>
+      </c>
+      <c r="L13" s="45">
+        <v>1</v>
+      </c>
+      <c r="M13" s="45">
+        <v>1</v>
+      </c>
+      <c r="N13" s="45">
+        <v>1</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="R13" s="45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E14" s="10" t="str">
+        <f>LOWER(SUBSTITUTE(D14," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-    </row>
-    <row r="13" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-    </row>
-    <row r="14" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="45" t="str">
-        <f>"Run " &amp; B13</f>
-        <v>Run Triple-Pane Windows Upgrade</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="I14" s="45">
-        <v>1</v>
-      </c>
-      <c r="K14" s="45">
-        <v>0</v>
-      </c>
-      <c r="L14" s="45">
-        <v>1</v>
-      </c>
-      <c r="M14" s="45">
-        <v>1</v>
-      </c>
-      <c r="N14" s="45">
-        <v>1</v>
-      </c>
-      <c r="P14" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="R14" s="45" t="s">
-        <v>276</v>
-      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
@@ -6646,10 +6637,11 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>441</v>
+        <v>461</v>
+      </c>
+      <c r="E15" s="10" t="str">
+        <f t="shared" ref="E15" si="1">LOWER(SUBSTITUTE(D15," ","_"))</f>
+        <v>option_1_apply_logic</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
@@ -6657,7 +6649,7 @@
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>277</v>
+        <v>465</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -6677,191 +6669,188 @@
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+    </row>
+    <row r="17" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="45" t="str">
+        <f>"Run " &amp; B16</f>
+        <v>Run LED Lighting Upgrade</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="I17" s="45">
+        <v>1</v>
+      </c>
+      <c r="K17" s="45">
+        <v>0</v>
+      </c>
+      <c r="L17" s="45">
+        <v>1</v>
+      </c>
+      <c r="M17" s="45">
+        <v>1</v>
+      </c>
+      <c r="N17" s="45">
+        <v>1</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="R17" s="45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E18" s="10" t="str">
+        <f>LOWER(SUBSTITUTE(D18," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-    </row>
-    <row r="17" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+    </row>
+    <row r="19" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-    </row>
-    <row r="18" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="C18" s="39" t="s">
+      <c r="C19" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D19" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E19" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-    </row>
-    <row r="19" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="s">
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+    </row>
+    <row r="20" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="45" t="str">
-        <f>"Run " &amp; B18</f>
-        <v>Run LED Lighting Upgrade</v>
-      </c>
-      <c r="E19" s="45" t="s">
+      <c r="D20" s="45" t="str">
+        <f>"Run " &amp; B19</f>
+        <v>Run Attic+Windows+Lighting Package</v>
+      </c>
+      <c r="E20" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G20" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I20" s="45">
         <v>1</v>
       </c>
-      <c r="K19" s="45">
-        <v>0</v>
-      </c>
-      <c r="L19" s="45">
+      <c r="K20" s="45">
+        <v>0</v>
+      </c>
+      <c r="L20" s="45">
         <v>1</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M20" s="45">
         <v>1</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N20" s="45">
         <v>1</v>
       </c>
-      <c r="P19" s="45" t="s">
+      <c r="P20" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="R19" s="45" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
+      <c r="R20" s="45" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="21" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -6870,10 +6859,11 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>442</v>
+        <v>456</v>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f t="shared" ref="E21:E25" si="2">LOWER(SUBSTITUTE(D21," ","_"))</f>
+        <v>option_1</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
@@ -6881,7 +6871,7 @@
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10" t="s">
-        <v>280</v>
+        <v>455</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -6908,10 +6898,11 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>274</v>
+        <v>461</v>
+      </c>
+      <c r="E22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>option_1_apply_logic</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
@@ -6919,7 +6910,7 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>275</v>
+        <v>462</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -6939,77 +6930,83 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
     </row>
-    <row r="23" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-    </row>
-    <row r="24" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D24" s="45" t="str">
-        <f>"Run " &amp; B23</f>
-        <v>Run Attic+Windows+Lighting Package</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="G24" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="I24" s="45">
-        <v>1</v>
-      </c>
-      <c r="K24" s="45">
-        <v>0</v>
-      </c>
-      <c r="L24" s="45">
-        <v>1</v>
-      </c>
-      <c r="M24" s="45">
-        <v>1</v>
-      </c>
-      <c r="N24" s="45">
-        <v>1</v>
-      </c>
-      <c r="P24" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="R24" s="45" t="s">
-        <v>276</v>
-      </c>
+    <row r="23" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E23" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>option_2</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+    </row>
+    <row r="24" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="E24" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>option_2_apply_logic</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
     </row>
     <row r="25" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
@@ -7018,10 +7015,11 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>441</v>
+        <v>460</v>
+      </c>
+      <c r="E25" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>option_3</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
@@ -7029,7 +7027,7 @@
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -7049,94 +7047,90 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-    </row>
-    <row r="27" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
+    <row r="26" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+    </row>
+    <row r="27" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
     </row>
     <row r="28" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="b">
         <v>1</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>371</v>
+        <v>238</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>372</v>
+        <v>237</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>372</v>
+        <v>237</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>236</v>
@@ -7161,83 +7155,11 @@
       <c r="W28" s="40"/>
       <c r="X28" s="40"/>
     </row>
-    <row r="29" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-    </row>
-    <row r="30" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="50"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B30" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>
@@ -7371,12 +7293,12 @@
     </row>
     <row r="4" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48" t="s">
@@ -7398,12 +7320,12 @@
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48" t="s">
@@ -7425,12 +7347,12 @@
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="48" t="s">
@@ -7452,12 +7374,12 @@
     </row>
     <row r="7" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48" t="s">
@@ -7479,12 +7401,12 @@
     </row>
     <row r="8" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48" t="s">
@@ -7506,12 +7428,12 @@
     </row>
     <row r="9" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48" t="s">
@@ -7533,12 +7455,12 @@
     </row>
     <row r="10" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
@@ -7560,12 +7482,12 @@
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48" t="s">
@@ -7587,12 +7509,12 @@
     </row>
     <row r="12" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48" t="s">
@@ -7614,12 +7536,12 @@
     </row>
     <row r="13" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48" t="s">
@@ -7641,12 +7563,12 @@
     </row>
     <row r="14" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48" t="s">
@@ -7668,12 +7590,12 @@
     </row>
     <row r="15" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
@@ -7695,12 +7617,12 @@
     </row>
     <row r="16" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
@@ -7722,12 +7644,12 @@
     </row>
     <row r="17" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
@@ -7749,10 +7671,10 @@
     </row>
     <row r="18" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F18" s="48" t="s">
         <v>244</v>
@@ -7769,10 +7691,10 @@
     </row>
     <row r="19" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F19" s="48" t="s">
         <v>244</v>
@@ -7789,12 +7711,12 @@
     </row>
     <row r="20" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
@@ -7821,7 +7743,7 @@
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
@@ -7843,12 +7765,12 @@
     </row>
     <row r="22" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
@@ -7870,12 +7792,12 @@
     </row>
     <row r="23" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
@@ -7897,12 +7819,12 @@
     </row>
     <row r="24" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
@@ -7924,10 +7846,10 @@
     </row>
     <row r="25" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F25" s="48" t="s">
         <v>244</v>
@@ -7944,10 +7866,10 @@
     </row>
     <row r="26" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F26" s="48" t="s">
         <v>244</v>
@@ -7964,10 +7886,10 @@
     </row>
     <row r="27" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F27" s="48" t="s">
         <v>244</v>
@@ -7984,10 +7906,10 @@
     </row>
     <row r="28" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F28" s="48" t="s">
         <v>244</v>
@@ -8004,10 +7926,10 @@
     </row>
     <row r="29" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F29" s="48" t="s">
         <v>244</v>
@@ -8024,10 +7946,10 @@
     </row>
     <row r="30" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="F30" s="48" t="s">
         <v>244</v>
@@ -8044,10 +7966,10 @@
     </row>
     <row r="31" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F31" s="48" t="s">
         <v>244</v>
@@ -8064,10 +7986,10 @@
     </row>
     <row r="32" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="F32" s="48" t="s">
         <v>244</v>
@@ -8084,10 +8006,10 @@
     </row>
     <row r="33" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F33" s="48" t="s">
         <v>244</v>
@@ -8104,10 +8026,10 @@
     </row>
     <row r="34" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F34" s="48" t="s">
         <v>244</v>
@@ -8124,10 +8046,10 @@
     </row>
     <row r="35" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F35" s="48" t="s">
         <v>244</v>
@@ -8144,10 +8066,10 @@
     </row>
     <row r="36" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="F36" s="48" t="s">
         <v>244</v>
@@ -8164,10 +8086,10 @@
     </row>
     <row r="37" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F37" s="48" t="s">
         <v>244</v>
@@ -8184,10 +8106,10 @@
     </row>
     <row r="38" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F38" s="48" t="s">
         <v>244</v>
@@ -8204,10 +8126,10 @@
     </row>
     <row r="39" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F39" s="48" t="s">
         <v>244</v>
@@ -8224,10 +8146,10 @@
     </row>
     <row r="40" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F40" s="48" t="s">
         <v>244</v>
@@ -8244,10 +8166,10 @@
     </row>
     <row r="41" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F41" s="48" t="s">
         <v>244</v>
@@ -8264,10 +8186,10 @@
     </row>
     <row r="42" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F42" s="48" t="s">
         <v>244</v>
@@ -8284,10 +8206,10 @@
     </row>
     <row r="43" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F43" s="48" t="s">
         <v>244</v>
@@ -8304,10 +8226,10 @@
     </row>
     <row r="44" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F44" s="48" t="s">
         <v>244</v>
@@ -8324,10 +8246,10 @@
     </row>
     <row r="45" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="F45" s="48" t="s">
         <v>244</v>
@@ -8344,10 +8266,10 @@
     </row>
     <row r="46" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F46" s="48" t="s">
         <v>244</v>
@@ -8364,10 +8286,10 @@
     </row>
     <row r="47" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F47" s="48" t="s">
         <v>244</v>
@@ -8384,10 +8306,10 @@
     </row>
     <row r="48" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F48" s="48" t="s">
         <v>244</v>
@@ -8404,10 +8326,10 @@
     </row>
     <row r="49" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F49" s="48" t="s">
         <v>244</v>
@@ -8424,10 +8346,10 @@
     </row>
     <row r="50" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F50" s="48" t="s">
         <v>244</v>
@@ -8444,10 +8366,10 @@
     </row>
     <row r="51" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F51" s="48" t="s">
         <v>244</v>
@@ -8464,10 +8386,10 @@
     </row>
     <row r="52" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F52" s="48" t="s">
         <v>244</v>
@@ -8484,10 +8406,10 @@
     </row>
     <row r="53" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F53" s="48" t="s">
         <v>244</v>
@@ -8504,10 +8426,10 @@
     </row>
     <row r="54" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F54" s="48" t="s">
         <v>244</v>
@@ -8524,10 +8446,10 @@
     </row>
     <row r="55" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="F55" s="48" t="s">
         <v>244</v>
@@ -8544,10 +8466,10 @@
     </row>
     <row r="56" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F56" s="48" t="s">
         <v>244</v>
@@ -8564,10 +8486,10 @@
     </row>
     <row r="57" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D57" s="48" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="F57" s="48" t="s">
         <v>244</v>
@@ -8584,10 +8506,10 @@
     </row>
     <row r="58" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F58" s="48" t="s">
         <v>244</v>
@@ -8604,10 +8526,10 @@
     </row>
     <row r="59" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F59" s="48" t="s">
         <v>244</v>
@@ -8624,10 +8546,10 @@
     </row>
     <row r="60" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F60" s="48" t="s">
         <v>244</v>
@@ -8644,10 +8566,10 @@
     </row>
     <row r="61" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="F61" s="48" t="s">
         <v>244</v>
@@ -8664,10 +8586,10 @@
     </row>
     <row r="62" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F62" s="48" t="s">
         <v>244</v>
@@ -8684,10 +8606,10 @@
     </row>
     <row r="63" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="F63" s="48" t="s">
         <v>244</v>
@@ -8704,10 +8626,10 @@
     </row>
     <row r="64" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F64" s="48" t="s">
         <v>244</v>
@@ -8724,10 +8646,10 @@
     </row>
     <row r="65" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="F65" s="48" t="s">
         <v>244</v>
@@ -8744,10 +8666,10 @@
     </row>
     <row r="66" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F66" s="48" t="s">
         <v>244</v>
@@ -8764,10 +8686,10 @@
     </row>
     <row r="67" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F67" s="48" t="s">
         <v>244</v>
@@ -8784,10 +8706,10 @@
     </row>
     <row r="68" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F68" s="48" t="s">
         <v>244</v>
@@ -8804,10 +8726,10 @@
     </row>
     <row r="69" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D69" s="48" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>244</v>
@@ -8824,10 +8746,10 @@
     </row>
     <row r="70" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D70" s="48" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>244</v>
@@ -8847,10 +8769,10 @@
         <v>245</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G71" s="14" t="b">
         <v>0</v>
@@ -8867,10 +8789,10 @@
         <v>246</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G72" s="14" t="b">
         <v>0</v>
@@ -8887,10 +8809,10 @@
         <v>247</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G73" s="14" t="b">
         <v>0</v>
@@ -8907,10 +8829,10 @@
         <v>248</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G74" s="14" t="b">
         <v>0</v>
@@ -8927,10 +8849,10 @@
         <v>249</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G75" s="14" t="b">
         <v>0</v>
@@ -8947,10 +8869,10 @@
         <v>250</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G76" s="14" t="b">
         <v>0</v>
@@ -8967,10 +8889,10 @@
         <v>251</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G77" s="14" t="b">
         <v>0</v>
@@ -8987,10 +8909,10 @@
         <v>252</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G78" s="14" t="b">
         <v>0</v>
@@ -9007,10 +8929,10 @@
         <v>253</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G79" s="14" t="b">
         <v>0</v>
@@ -9027,10 +8949,10 @@
         <v>254</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G80" s="14" t="b">
         <v>0</v>
@@ -9047,10 +8969,10 @@
         <v>255</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G81" s="14" t="b">
         <v>0</v>
@@ -9067,10 +8989,10 @@
         <v>256</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G82" s="14" t="b">
         <v>0</v>
@@ -9087,10 +9009,10 @@
         <v>257</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G83" s="14" t="b">
         <v>0</v>
@@ -9107,10 +9029,10 @@
         <v>258</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G84" s="14" t="b">
         <v>0</v>
@@ -9127,10 +9049,10 @@
         <v>259</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G85" s="14" t="b">
         <v>0</v>
@@ -9147,10 +9069,10 @@
         <v>260</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G86" s="14" t="b">
         <v>0</v>
@@ -9167,10 +9089,10 @@
         <v>261</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G87" s="14" t="b">
         <v>0</v>
@@ -9187,10 +9109,10 @@
         <v>262</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G88" s="14" t="b">
         <v>0</v>
@@ -9204,13 +9126,13 @@
     </row>
     <row r="89" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G89" s="14" t="b">
         <v>0</v>
@@ -9228,13 +9150,13 @@
     </row>
     <row r="90" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G90" s="14" t="b">
         <v>0</v>
@@ -9252,13 +9174,13 @@
     </row>
     <row r="91" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="49" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G91" s="14" t="b">
         <v>0</v>
@@ -9272,13 +9194,13 @@
     </row>
     <row r="92" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="49" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G92" s="14" t="b">
         <v>0</v>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -1422,9 +1422,6 @@
     <t>Option 1 Apply Logic</t>
   </si>
   <si>
-    <t>Insulation Unfinished Attic|Uninsulated, Vented || Insulation Unfinished Attic|Ceiling R-7, Vented || Insulation Unfinished Attic|Ceiling R-13, Vented || Insulation Unfinished Attic|Ceiling R-19, Vented || Insulation Unfinished Attic|Ceiling R-30, Vented</t>
-  </si>
-  <si>
     <t>Triple-Pane Windows Upgrade (If Single-Pane)</t>
   </si>
   <si>
@@ -1435,6 +1432,9 @@
   </si>
   <si>
     <t>Option 2 Apply Logic</t>
+  </si>
+  <si>
+    <t>!Insulation Unfinished Attic|Ceiling R-38, Vented &amp;&amp; !Insulation Unfinished Attic|Ceiling R-49, Vented &amp;&amp; !Insulation Unfinished Attic|Ceiling R-60, Vented</t>
   </si>
 </sst>
 </file>
@@ -6019,7 +6019,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6374,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>269</v>
@@ -6499,7 +6501,7 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -6524,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>269</v>
@@ -6649,7 +6651,7 @@
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -6910,7 +6912,7 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -6976,7 +6978,7 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E24" s="10" t="str">
         <f t="shared" si="2"/>
@@ -6988,7 +6990,7 @@
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="467">
   <si>
     <t>type</t>
   </si>
@@ -849,42 +849,15 @@
     <t>Insulation Unfinished Attic</t>
   </si>
   <si>
-    <t>Ceiling R-60, Vented</t>
-  </si>
-  <si>
-    <t>R60 Attic Insulation Upgrade</t>
-  </si>
-  <si>
-    <t>Apply Logic</t>
-  </si>
-  <si>
-    <t>apply_logic</t>
-  </si>
-  <si>
-    <t>FIXME</t>
-  </si>
-  <si>
     <t>discrete</t>
   </si>
   <si>
     <t>Windows</t>
   </si>
   <si>
-    <t>Low-E, Triple, Non-metal, Air, L-Gain</t>
-  </si>
-  <si>
     <t>Lighting</t>
   </si>
   <si>
-    <t>100% LED</t>
-  </si>
-  <si>
-    <t>Attic+Windows+Lighting Package</t>
-  </si>
-  <si>
-    <t>Triple-Pane Windows Upgrade</t>
-  </si>
-  <si>
     <t>LED Lighting Upgrade</t>
   </si>
   <si>
@@ -1083,9 +1056,6 @@
     <t>Mechanical Ventilation</t>
   </si>
   <si>
-    <t>building_id</t>
-  </si>
-  <si>
     <t>Simulation Output Report</t>
   </si>
   <si>
@@ -1353,24 +1323,6 @@
     <t>0 or 1 (defines whether to run upgrade and existing building simulations, or only upgrade simulations)</t>
   </si>
   <si>
-    <t>Insulation Unfinished Attic|Windows|Lighting</t>
-  </si>
-  <si>
-    <t>Ceiling R-60, Vented|Low-E, Triple, Non-metal, Air, L-Gain|100% LED</t>
-  </si>
-  <si>
-    <t>parameter_names</t>
-  </si>
-  <si>
-    <t>option_names</t>
-  </si>
-  <si>
-    <t>Parameter Names</t>
-  </si>
-  <si>
-    <t>Option Names</t>
-  </si>
-  <si>
     <t>integer_sequence</t>
   </si>
   <si>
@@ -1431,9 +1383,6 @@
     <t>Always Run</t>
   </si>
   <si>
-    <t>always_run</t>
-  </si>
-  <si>
     <t>[1]</t>
   </si>
   <si>
@@ -1447,6 +1396,45 @@
   </si>
   <si>
     <t>building_characteristics_report.Location Cooling Region</t>
+  </si>
+  <si>
+    <t>Option 1</t>
+  </si>
+  <si>
+    <t>Windows|Low-E, Triple, Non-metal, Air, L-Gain</t>
+  </si>
+  <si>
+    <t>Lighting|100% LED</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>Option 3</t>
+  </si>
+  <si>
+    <t>Option 1 Apply Logic</t>
+  </si>
+  <si>
+    <t>Triple-Pane Windows Upgrade (If Single-Pane)</t>
+  </si>
+  <si>
+    <t>Windows|Clear, Single, Metal || Windows|Clear, Single, Non-metal</t>
+  </si>
+  <si>
+    <t>Option 2 Apply Logic</t>
+  </si>
+  <si>
+    <t>R13 Wall Insulation Upgrade (If Uninsulated)</t>
+  </si>
+  <si>
+    <t>Insulation Wall|Wood Stud, R-13</t>
+  </si>
+  <si>
+    <t>Insulation Wall|Wood Stud, Uninsulated</t>
+  </si>
+  <si>
+    <t>Walls+Windows+Lighting Package</t>
   </si>
 </sst>
 </file>
@@ -5585,7 +5573,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>154</v>
@@ -5696,7 +5684,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
@@ -5718,7 +5706,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>155</v>
@@ -5812,19 +5800,19 @@
         <v>1000</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B25" s="21">
         <v>1</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="22"/>
@@ -5976,10 +5964,10 @@
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C45" s="2" t="str">
         <f>"['pnw'," &amp; B24 &amp; "]"</f>
@@ -6029,16 +6017,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
@@ -6215,13 +6201,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>40</v>
@@ -6253,10 +6239,11 @@
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>349</v>
+        <v>279</v>
+      </c>
+      <c r="E5" s="53" t="str">
+        <f>LOWER(SUBSTITUTE(D5," ","_"))</f>
+        <v>building_id</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="45" t="s">
@@ -6284,7 +6271,7 @@
       <c r="P5" s="45"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="45" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="S5" s="45"/>
       <c r="T5" s="45"/>
@@ -6298,16 +6285,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
@@ -6338,10 +6325,11 @@
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53" t="s">
-        <v>464</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>465</v>
+        <v>448</v>
+      </c>
+      <c r="E7" s="53" t="str">
+        <f>LOWER(SUBSTITUTE(D7," ","_"))</f>
+        <v>always_run</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53" t="s">
@@ -6366,11 +6354,11 @@
       </c>
       <c r="O7" s="53"/>
       <c r="P7" s="53" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="Q7" s="53"/>
       <c r="R7" s="53" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="S7" s="53"/>
       <c r="T7" s="53"/>
@@ -6381,76 +6369,76 @@
       <c r="Y7" s="54"/>
       <c r="Z7" s="54"/>
     </row>
-    <row r="8" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="C8" s="39" t="s">
+    <row r="8" spans="1:26" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="C8" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-    </row>
-    <row r="9" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+    </row>
+    <row r="9" spans="1:26" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="D9" s="45" t="str">
+      <c r="D9" s="53" t="str">
         <f>"Run " &amp; B8</f>
-        <v>Run R60 Attic Insulation Upgrade</v>
-      </c>
-      <c r="E9" s="45" t="s">
+        <v>Run R13 Wall Insulation Upgrade (If Uninsulated)</v>
+      </c>
+      <c r="E9" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="53">
         <v>1</v>
       </c>
-      <c r="K9" s="45">
-        <v>0</v>
-      </c>
-      <c r="L9" s="45">
+      <c r="K9" s="53">
+        <v>0</v>
+      </c>
+      <c r="L9" s="53">
         <v>1</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="53">
         <v>1</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="53">
         <v>1</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="P9" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="R9" s="45" t="s">
-        <v>276</v>
+      <c r="R9" s="53" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6460,10 +6448,11 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>441</v>
+        <v>454</v>
+      </c>
+      <c r="E10" s="10" t="str">
+        <f t="shared" ref="E10:E11" si="0">LOWER(SUBSTITUTE(D10," ","_"))</f>
+        <v>option_1</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
@@ -6471,7 +6460,7 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>270</v>
+        <v>464</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -6498,10 +6487,11 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>442</v>
+        <v>459</v>
+      </c>
+      <c r="E11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>option_1_apply_logic</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
@@ -6509,7 +6499,7 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>271</v>
+        <v>465</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -6529,115 +6519,116 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+    </row>
+    <row r="13" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="45" t="str">
+        <f>"Run " &amp; B12</f>
+        <v>Run Triple-Pane Windows Upgrade (If Single-Pane)</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="I13" s="45">
+        <v>1</v>
+      </c>
+      <c r="K13" s="45">
+        <v>0</v>
+      </c>
+      <c r="L13" s="45">
+        <v>1</v>
+      </c>
+      <c r="M13" s="45">
+        <v>1</v>
+      </c>
+      <c r="N13" s="45">
+        <v>1</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="R13" s="45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E14" s="10" t="str">
+        <f>LOWER(SUBSTITUTE(D14," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-    </row>
-    <row r="13" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-    </row>
-    <row r="14" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="45" t="str">
-        <f>"Run " &amp; B13</f>
-        <v>Run Triple-Pane Windows Upgrade</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="I14" s="45">
-        <v>1</v>
-      </c>
-      <c r="K14" s="45">
-        <v>0</v>
-      </c>
-      <c r="L14" s="45">
-        <v>1</v>
-      </c>
-      <c r="M14" s="45">
-        <v>1</v>
-      </c>
-      <c r="N14" s="45">
-        <v>1</v>
-      </c>
-      <c r="P14" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="R14" s="45" t="s">
-        <v>276</v>
-      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
@@ -6646,10 +6637,11 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>441</v>
+        <v>459</v>
+      </c>
+      <c r="E15" s="10" t="str">
+        <f t="shared" ref="E15" si="1">LOWER(SUBSTITUTE(D15," ","_"))</f>
+        <v>option_1_apply_logic</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
@@ -6657,7 +6649,7 @@
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>277</v>
+        <v>461</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -6677,191 +6669,188 @@
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+    </row>
+    <row r="17" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="45" t="str">
+        <f>"Run " &amp; B16</f>
+        <v>Run LED Lighting Upgrade</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="I17" s="45">
+        <v>1</v>
+      </c>
+      <c r="K17" s="45">
+        <v>0</v>
+      </c>
+      <c r="L17" s="45">
+        <v>1</v>
+      </c>
+      <c r="M17" s="45">
+        <v>1</v>
+      </c>
+      <c r="N17" s="45">
+        <v>1</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="R17" s="45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E18" s="10" t="str">
+        <f>LOWER(SUBSTITUTE(D18," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-    </row>
-    <row r="17" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-    </row>
-    <row r="18" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="C18" s="39" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+    </row>
+    <row r="19" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>466</v>
+      </c>
+      <c r="C19" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D19" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E19" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-    </row>
-    <row r="19" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="s">
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+    </row>
+    <row r="20" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="45" t="str">
-        <f>"Run " &amp; B18</f>
-        <v>Run LED Lighting Upgrade</v>
-      </c>
-      <c r="E19" s="45" t="s">
+      <c r="D20" s="45" t="str">
+        <f>"Run " &amp; B19</f>
+        <v>Run Walls+Windows+Lighting Package</v>
+      </c>
+      <c r="E20" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G20" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I20" s="45">
         <v>1</v>
       </c>
-      <c r="K19" s="45">
-        <v>0</v>
-      </c>
-      <c r="L19" s="45">
+      <c r="K20" s="45">
+        <v>0</v>
+      </c>
+      <c r="L20" s="45">
         <v>1</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M20" s="45">
         <v>1</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N20" s="45">
         <v>1</v>
       </c>
-      <c r="P19" s="45" t="s">
+      <c r="P20" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="R19" s="45" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
+      <c r="R20" s="45" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="21" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -6870,10 +6859,11 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>442</v>
+        <v>454</v>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f t="shared" ref="E21:E25" si="2">LOWER(SUBSTITUTE(D21," ","_"))</f>
+        <v>option_1</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
@@ -6881,7 +6871,7 @@
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10" t="s">
-        <v>280</v>
+        <v>464</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -6908,10 +6898,11 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>274</v>
+        <v>459</v>
+      </c>
+      <c r="E22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>option_1_apply_logic</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
@@ -6919,7 +6910,7 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>275</v>
+        <v>465</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -6939,77 +6930,83 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
     </row>
-    <row r="23" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-    </row>
-    <row r="24" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D24" s="45" t="str">
-        <f>"Run " &amp; B23</f>
-        <v>Run Attic+Windows+Lighting Package</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="G24" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="I24" s="45">
-        <v>1</v>
-      </c>
-      <c r="K24" s="45">
-        <v>0</v>
-      </c>
-      <c r="L24" s="45">
-        <v>1</v>
-      </c>
-      <c r="M24" s="45">
-        <v>1</v>
-      </c>
-      <c r="N24" s="45">
-        <v>1</v>
-      </c>
-      <c r="P24" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="R24" s="45" t="s">
-        <v>276</v>
-      </c>
+    <row r="23" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="E23" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>option_2</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+    </row>
+    <row r="24" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="E24" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>option_2_apply_logic</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
     </row>
     <row r="25" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
@@ -7018,10 +7015,11 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>441</v>
+        <v>458</v>
+      </c>
+      <c r="E25" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>option_3</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
@@ -7029,7 +7027,7 @@
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -7049,94 +7047,90 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-    </row>
-    <row r="27" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
+    <row r="26" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+    </row>
+    <row r="27" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
     </row>
     <row r="28" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="b">
         <v>1</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>371</v>
+        <v>238</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>372</v>
+        <v>237</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>372</v>
+        <v>237</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>236</v>
@@ -7161,83 +7155,11 @@
       <c r="W28" s="40"/>
       <c r="X28" s="40"/>
     </row>
-    <row r="29" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-    </row>
-    <row r="30" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="50"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B30" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>
@@ -7371,12 +7293,12 @@
     </row>
     <row r="4" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48" t="s">
@@ -7398,12 +7320,12 @@
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48" t="s">
@@ -7425,12 +7347,12 @@
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="48" t="s">
@@ -7452,12 +7374,12 @@
     </row>
     <row r="7" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48" t="s">
@@ -7479,12 +7401,12 @@
     </row>
     <row r="8" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48" t="s">
@@ -7506,12 +7428,12 @@
     </row>
     <row r="9" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48" t="s">
@@ -7533,12 +7455,12 @@
     </row>
     <row r="10" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
@@ -7560,12 +7482,12 @@
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48" t="s">
@@ -7587,12 +7509,12 @@
     </row>
     <row r="12" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48" t="s">
@@ -7614,12 +7536,12 @@
     </row>
     <row r="13" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48" t="s">
@@ -7641,12 +7563,12 @@
     </row>
     <row r="14" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48" t="s">
@@ -7668,12 +7590,12 @@
     </row>
     <row r="15" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
@@ -7695,12 +7617,12 @@
     </row>
     <row r="16" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
@@ -7722,12 +7644,12 @@
     </row>
     <row r="17" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
@@ -7749,10 +7671,10 @@
     </row>
     <row r="18" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F18" s="48" t="s">
         <v>244</v>
@@ -7769,10 +7691,10 @@
     </row>
     <row r="19" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F19" s="48" t="s">
         <v>244</v>
@@ -7789,12 +7711,12 @@
     </row>
     <row r="20" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
@@ -7821,7 +7743,7 @@
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
@@ -7843,12 +7765,12 @@
     </row>
     <row r="22" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
@@ -7870,12 +7792,12 @@
     </row>
     <row r="23" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
@@ -7897,12 +7819,12 @@
     </row>
     <row r="24" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
@@ -7924,10 +7846,10 @@
     </row>
     <row r="25" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F25" s="48" t="s">
         <v>244</v>
@@ -7944,10 +7866,10 @@
     </row>
     <row r="26" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="F26" s="48" t="s">
         <v>244</v>
@@ -7964,10 +7886,10 @@
     </row>
     <row r="27" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F27" s="48" t="s">
         <v>244</v>
@@ -7984,10 +7906,10 @@
     </row>
     <row r="28" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="F28" s="48" t="s">
         <v>244</v>
@@ -8004,10 +7926,10 @@
     </row>
     <row r="29" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F29" s="48" t="s">
         <v>244</v>
@@ -8024,10 +7946,10 @@
     </row>
     <row r="30" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F30" s="48" t="s">
         <v>244</v>
@@ -8044,10 +7966,10 @@
     </row>
     <row r="31" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F31" s="48" t="s">
         <v>244</v>
@@ -8064,10 +7986,10 @@
     </row>
     <row r="32" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F32" s="48" t="s">
         <v>244</v>
@@ -8084,10 +8006,10 @@
     </row>
     <row r="33" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F33" s="48" t="s">
         <v>244</v>
@@ -8104,10 +8026,10 @@
     </row>
     <row r="34" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="F34" s="48" t="s">
         <v>244</v>
@@ -8124,10 +8046,10 @@
     </row>
     <row r="35" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F35" s="48" t="s">
         <v>244</v>
@@ -8144,10 +8066,10 @@
     </row>
     <row r="36" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="F36" s="48" t="s">
         <v>244</v>
@@ -8164,10 +8086,10 @@
     </row>
     <row r="37" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F37" s="48" t="s">
         <v>244</v>
@@ -8184,10 +8106,10 @@
     </row>
     <row r="38" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="F38" s="48" t="s">
         <v>244</v>
@@ -8204,10 +8126,10 @@
     </row>
     <row r="39" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F39" s="48" t="s">
         <v>244</v>
@@ -8224,10 +8146,10 @@
     </row>
     <row r="40" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="F40" s="48" t="s">
         <v>244</v>
@@ -8244,10 +8166,10 @@
     </row>
     <row r="41" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F41" s="48" t="s">
         <v>244</v>
@@ -8264,10 +8186,10 @@
     </row>
     <row r="42" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="F42" s="48" t="s">
         <v>244</v>
@@ -8284,10 +8206,10 @@
     </row>
     <row r="43" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F43" s="48" t="s">
         <v>244</v>
@@ -8304,10 +8226,10 @@
     </row>
     <row r="44" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F44" s="48" t="s">
         <v>244</v>
@@ -8324,10 +8246,10 @@
     </row>
     <row r="45" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="F45" s="48" t="s">
         <v>244</v>
@@ -8344,10 +8266,10 @@
     </row>
     <row r="46" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F46" s="48" t="s">
         <v>244</v>
@@ -8364,10 +8286,10 @@
     </row>
     <row r="47" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F47" s="48" t="s">
         <v>244</v>
@@ -8384,10 +8306,10 @@
     </row>
     <row r="48" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F48" s="48" t="s">
         <v>244</v>
@@ -8404,10 +8326,10 @@
     </row>
     <row r="49" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F49" s="48" t="s">
         <v>244</v>
@@ -8424,10 +8346,10 @@
     </row>
     <row r="50" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F50" s="48" t="s">
         <v>244</v>
@@ -8444,10 +8366,10 @@
     </row>
     <row r="51" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F51" s="48" t="s">
         <v>244</v>
@@ -8464,10 +8386,10 @@
     </row>
     <row r="52" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F52" s="48" t="s">
         <v>244</v>
@@ -8484,10 +8406,10 @@
     </row>
     <row r="53" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="F53" s="48" t="s">
         <v>244</v>
@@ -8504,10 +8426,10 @@
     </row>
     <row r="54" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F54" s="48" t="s">
         <v>244</v>
@@ -8524,10 +8446,10 @@
     </row>
     <row r="55" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="F55" s="48" t="s">
         <v>244</v>
@@ -8544,10 +8466,10 @@
     </row>
     <row r="56" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F56" s="48" t="s">
         <v>244</v>
@@ -8564,10 +8486,10 @@
     </row>
     <row r="57" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D57" s="48" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F57" s="48" t="s">
         <v>244</v>
@@ -8584,10 +8506,10 @@
     </row>
     <row r="58" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F58" s="48" t="s">
         <v>244</v>
@@ -8604,10 +8526,10 @@
     </row>
     <row r="59" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="F59" s="48" t="s">
         <v>244</v>
@@ -8624,10 +8546,10 @@
     </row>
     <row r="60" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F60" s="48" t="s">
         <v>244</v>
@@ -8644,10 +8566,10 @@
     </row>
     <row r="61" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="F61" s="48" t="s">
         <v>244</v>
@@ -8664,10 +8586,10 @@
     </row>
     <row r="62" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F62" s="48" t="s">
         <v>244</v>
@@ -8684,10 +8606,10 @@
     </row>
     <row r="63" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="F63" s="48" t="s">
         <v>244</v>
@@ -8704,10 +8626,10 @@
     </row>
     <row r="64" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F64" s="48" t="s">
         <v>244</v>
@@ -8724,10 +8646,10 @@
     </row>
     <row r="65" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F65" s="48" t="s">
         <v>244</v>
@@ -8744,10 +8666,10 @@
     </row>
     <row r="66" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F66" s="48" t="s">
         <v>244</v>
@@ -8764,10 +8686,10 @@
     </row>
     <row r="67" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="F67" s="48" t="s">
         <v>244</v>
@@ -8784,10 +8706,10 @@
     </row>
     <row r="68" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F68" s="48" t="s">
         <v>244</v>
@@ -8804,10 +8726,10 @@
     </row>
     <row r="69" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D69" s="48" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>244</v>
@@ -8824,10 +8746,10 @@
     </row>
     <row r="70" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D70" s="48" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>244</v>
@@ -8847,10 +8769,10 @@
         <v>245</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G71" s="14" t="b">
         <v>0</v>
@@ -8867,10 +8789,10 @@
         <v>246</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G72" s="14" t="b">
         <v>0</v>
@@ -8887,10 +8809,10 @@
         <v>247</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G73" s="14" t="b">
         <v>0</v>
@@ -8907,10 +8829,10 @@
         <v>248</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G74" s="14" t="b">
         <v>0</v>
@@ -8927,10 +8849,10 @@
         <v>249</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G75" s="14" t="b">
         <v>0</v>
@@ -8947,10 +8869,10 @@
         <v>250</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G76" s="14" t="b">
         <v>0</v>
@@ -8967,10 +8889,10 @@
         <v>251</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G77" s="14" t="b">
         <v>0</v>
@@ -8987,10 +8909,10 @@
         <v>252</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G78" s="14" t="b">
         <v>0</v>
@@ -9007,10 +8929,10 @@
         <v>253</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G79" s="14" t="b">
         <v>0</v>
@@ -9027,10 +8949,10 @@
         <v>254</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G80" s="14" t="b">
         <v>0</v>
@@ -9047,10 +8969,10 @@
         <v>255</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G81" s="14" t="b">
         <v>0</v>
@@ -9067,10 +8989,10 @@
         <v>256</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G82" s="14" t="b">
         <v>0</v>
@@ -9087,10 +9009,10 @@
         <v>257</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G83" s="14" t="b">
         <v>0</v>
@@ -9107,10 +9029,10 @@
         <v>258</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G84" s="14" t="b">
         <v>0</v>
@@ -9127,10 +9049,10 @@
         <v>259</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G85" s="14" t="b">
         <v>0</v>
@@ -9147,10 +9069,10 @@
         <v>260</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G86" s="14" t="b">
         <v>0</v>
@@ -9167,10 +9089,10 @@
         <v>261</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G87" s="14" t="b">
         <v>0</v>
@@ -9187,10 +9109,10 @@
         <v>262</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G88" s="14" t="b">
         <v>0</v>
@@ -9204,13 +9126,13 @@
     </row>
     <row r="89" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G89" s="14" t="b">
         <v>0</v>
@@ -9228,13 +9150,13 @@
     </row>
     <row r="90" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G90" s="14" t="b">
         <v>0</v>
@@ -9252,13 +9174,13 @@
     </row>
     <row r="91" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="49" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G91" s="14" t="b">
         <v>0</v>
@@ -9272,13 +9194,13 @@
     </row>
     <row r="92" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="49" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G92" s="14" t="b">
         <v>0</v>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="470">
   <si>
     <t>type</t>
   </si>
@@ -1434,7 +1434,16 @@
     <t>Insulation Wall|Wood Stud, Uninsulated</t>
   </si>
   <si>
-    <t>Walls+Windows+Lighting Package</t>
+    <t>Upgrade Package (Allow Individual Options)</t>
+  </si>
+  <si>
+    <t>Upgrade Package (All or None)</t>
+  </si>
+  <si>
+    <t>Package Apply Logic</t>
+  </si>
+  <si>
+    <t>Insulation Wall|Wood Stud, Uninsulated &amp;&amp; (Windows|Clear, Single, Metal || Windows|Clear, Single, Non-metal)</t>
   </si>
 </sst>
 </file>
@@ -6017,7 +6026,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -6822,7 +6831,7 @@
       </c>
       <c r="D20" s="45" t="str">
         <f>"Run " &amp; B19</f>
-        <v>Run Walls+Windows+Lighting Package</v>
+        <v>Run Upgrade Package (Allow Individual Options)</v>
       </c>
       <c r="E20" s="45" t="s">
         <v>266</v>
@@ -7047,119 +7056,347 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="b">
+    <row r="26" spans="1:26" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+    </row>
+    <row r="27" spans="1:26" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="53" t="str">
+        <f>"Run " &amp; B26</f>
+        <v>Run Upgrade Package (All or None)</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="I27" s="53">
+        <v>1</v>
+      </c>
+      <c r="K27" s="53">
+        <v>0</v>
+      </c>
+      <c r="L27" s="53">
+        <v>1</v>
+      </c>
+      <c r="M27" s="53">
+        <v>1</v>
+      </c>
+      <c r="N27" s="53">
+        <v>1</v>
+      </c>
+      <c r="P27" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="R27" s="53" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E28" s="10" t="str">
+        <f t="shared" ref="E28:E31" si="3">LOWER(SUBSTITUTE(D28," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+    </row>
+    <row r="29" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="E29" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>option_2</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+    </row>
+    <row r="30" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="E30" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>option_3</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+    </row>
+    <row r="31" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="E31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>package_apply_logic</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+    </row>
+    <row r="32" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B32" s="40" t="s">
         <v>361</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C32" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D32" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E32" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-    </row>
-    <row r="27" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="b">
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+    </row>
+    <row r="33" spans="1:24" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B33" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C33" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D33" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E33" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-    </row>
-    <row r="28" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="b">
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+    </row>
+    <row r="34" spans="1:24" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B34" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C34" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D34" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E34" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B35" s="50"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B36" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="472">
   <si>
     <t>type</t>
   </si>
@@ -1444,6 +1444,12 @@
   </si>
   <si>
     <t>Insulation Wall|Wood Stud, Uninsulated &amp;&amp; (Windows|Clear, Single, Metal || Windows|Clear, Single, Non-metal)</t>
+  </si>
+  <si>
+    <t>Geometry Heated Basement</t>
+  </si>
+  <si>
+    <t>building_characteristics_report.Geometry Heated Basement</t>
   </si>
 </sst>
 </file>
@@ -7410,7 +7416,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -7719,12 +7725,12 @@
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>285</v>
+        <v>470</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48" t="s">
-        <v>368</v>
+        <v>471</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48" t="s">
@@ -7746,12 +7752,12 @@
     </row>
     <row r="12" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48" t="s">
@@ -7773,12 +7779,12 @@
     </row>
     <row r="13" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48" t="s">
@@ -7800,12 +7806,12 @@
     </row>
     <row r="14" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>438</v>
+        <v>287</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48" t="s">
@@ -7827,12 +7833,12 @@
     </row>
     <row r="15" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>288</v>
+        <v>438</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
-        <v>371</v>
+        <v>439</v>
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
@@ -7854,12 +7860,12 @@
     </row>
     <row r="16" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
@@ -7881,12 +7887,12 @@
     </row>
     <row r="17" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
@@ -7908,11 +7914,14 @@
     </row>
     <row r="18" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>291</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="48" t="s">
-        <v>374</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="E18" s="48"/>
       <c r="F18" s="48" t="s">
         <v>244</v>
       </c>
@@ -7925,13 +7934,17 @@
       <c r="I18" s="48" t="b">
         <v>0</v>
       </c>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
     </row>
     <row r="19" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F19" s="48" t="s">
         <v>244</v>
@@ -7948,14 +7961,11 @@
     </row>
     <row r="20" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
+        <v>292</v>
+      </c>
       <c r="D20" s="48" t="s">
-        <v>376</v>
-      </c>
-      <c r="E20" s="48"/>
+        <v>375</v>
+      </c>
       <c r="F20" s="48" t="s">
         <v>244</v>
       </c>
@@ -7968,19 +7978,15 @@
       <c r="I20" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
     </row>
     <row r="21" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
@@ -8002,12 +8008,12 @@
     </row>
     <row r="22" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
@@ -8029,12 +8035,12 @@
     </row>
     <row r="23" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
@@ -8056,12 +8062,12 @@
     </row>
     <row r="24" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
@@ -8083,11 +8089,14 @@
     </row>
     <row r="25" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>297</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
-        <v>381</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="E25" s="48"/>
       <c r="F25" s="48" t="s">
         <v>244</v>
       </c>
@@ -8100,13 +8109,17 @@
       <c r="I25" s="48" t="b">
         <v>0</v>
       </c>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
     </row>
     <row r="26" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F26" s="48" t="s">
         <v>244</v>
@@ -8123,10 +8136,10 @@
     </row>
     <row r="27" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F27" s="48" t="s">
         <v>244</v>
@@ -8143,10 +8156,10 @@
     </row>
     <row r="28" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F28" s="48" t="s">
         <v>244</v>
@@ -8163,10 +8176,10 @@
     </row>
     <row r="29" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F29" s="48" t="s">
         <v>244</v>
@@ -8183,10 +8196,10 @@
     </row>
     <row r="30" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F30" s="48" t="s">
         <v>244</v>
@@ -8203,10 +8216,10 @@
     </row>
     <row r="31" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F31" s="48" t="s">
         <v>244</v>
@@ -8223,10 +8236,10 @@
     </row>
     <row r="32" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F32" s="48" t="s">
         <v>244</v>
@@ -8243,10 +8256,10 @@
     </row>
     <row r="33" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F33" s="48" t="s">
         <v>244</v>
@@ -8263,10 +8276,10 @@
     </row>
     <row r="34" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F34" s="48" t="s">
         <v>244</v>
@@ -8283,10 +8296,10 @@
     </row>
     <row r="35" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F35" s="48" t="s">
         <v>244</v>
@@ -8303,10 +8316,10 @@
     </row>
     <row r="36" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F36" s="48" t="s">
         <v>244</v>
@@ -8323,10 +8336,10 @@
     </row>
     <row r="37" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F37" s="48" t="s">
         <v>244</v>
@@ -8343,10 +8356,10 @@
     </row>
     <row r="38" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F38" s="48" t="s">
         <v>244</v>
@@ -8363,10 +8376,10 @@
     </row>
     <row r="39" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F39" s="48" t="s">
         <v>244</v>
@@ -8383,10 +8396,10 @@
     </row>
     <row r="40" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F40" s="48" t="s">
         <v>244</v>
@@ -8403,10 +8416,10 @@
     </row>
     <row r="41" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F41" s="48" t="s">
         <v>244</v>
@@ -8423,10 +8436,10 @@
     </row>
     <row r="42" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F42" s="48" t="s">
         <v>244</v>
@@ -8443,10 +8456,10 @@
     </row>
     <row r="43" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F43" s="48" t="s">
         <v>244</v>
@@ -8463,10 +8476,10 @@
     </row>
     <row r="44" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F44" s="48" t="s">
         <v>244</v>
@@ -8483,10 +8496,10 @@
     </row>
     <row r="45" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>431</v>
+        <v>315</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="F45" s="48" t="s">
         <v>244</v>
@@ -8503,10 +8516,10 @@
     </row>
     <row r="46" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>316</v>
+        <v>431</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="F46" s="48" t="s">
         <v>244</v>
@@ -8523,10 +8536,10 @@
     </row>
     <row r="47" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F47" s="48" t="s">
         <v>244</v>
@@ -8543,10 +8556,10 @@
     </row>
     <row r="48" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F48" s="48" t="s">
         <v>244</v>
@@ -8563,10 +8576,10 @@
     </row>
     <row r="49" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F49" s="48" t="s">
         <v>244</v>
@@ -8583,10 +8596,10 @@
     </row>
     <row r="50" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F50" s="48" t="s">
         <v>244</v>
@@ -8603,10 +8616,10 @@
     </row>
     <row r="51" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F51" s="48" t="s">
         <v>244</v>
@@ -8623,10 +8636,10 @@
     </row>
     <row r="52" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F52" s="48" t="s">
         <v>244</v>
@@ -8643,10 +8656,10 @@
     </row>
     <row r="53" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F53" s="48" t="s">
         <v>244</v>
@@ -8663,10 +8676,10 @@
     </row>
     <row r="54" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F54" s="48" t="s">
         <v>244</v>
@@ -8683,10 +8696,10 @@
     </row>
     <row r="55" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F55" s="48" t="s">
         <v>244</v>
@@ -8703,10 +8716,10 @@
     </row>
     <row r="56" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F56" s="48" t="s">
         <v>244</v>
@@ -8723,10 +8736,10 @@
     </row>
     <row r="57" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="D57" s="48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F57" s="48" t="s">
         <v>244</v>
@@ -8743,10 +8756,10 @@
     </row>
     <row r="58" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F58" s="48" t="s">
         <v>244</v>
@@ -8763,10 +8776,10 @@
     </row>
     <row r="59" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F59" s="48" t="s">
         <v>244</v>
@@ -8783,10 +8796,10 @@
     </row>
     <row r="60" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F60" s="48" t="s">
         <v>244</v>
@@ -8803,10 +8816,10 @@
     </row>
     <row r="61" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F61" s="48" t="s">
         <v>244</v>
@@ -8823,10 +8836,10 @@
     </row>
     <row r="62" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F62" s="48" t="s">
         <v>244</v>
@@ -8843,10 +8856,10 @@
     </row>
     <row r="63" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F63" s="48" t="s">
         <v>244</v>
@@ -8863,10 +8876,10 @@
     </row>
     <row r="64" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F64" s="48" t="s">
         <v>244</v>
@@ -8883,10 +8896,10 @@
     </row>
     <row r="65" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F65" s="48" t="s">
         <v>244</v>
@@ -8903,10 +8916,10 @@
     </row>
     <row r="66" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F66" s="48" t="s">
         <v>244</v>
@@ -8923,10 +8936,10 @@
     </row>
     <row r="67" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F67" s="48" t="s">
         <v>244</v>
@@ -8943,10 +8956,10 @@
     </row>
     <row r="68" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F68" s="48" t="s">
         <v>244</v>
@@ -8963,10 +8976,10 @@
     </row>
     <row r="69" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D69" s="48" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>244</v>
@@ -8983,10 +8996,10 @@
     </row>
     <row r="70" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D70" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>244</v>
@@ -9001,32 +9014,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="G71" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" s="14" t="b">
+    <row r="71" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="D71" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="F71" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G71" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" s="48" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>426</v>
@@ -9043,10 +9056,10 @@
     </row>
     <row r="73" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>426</v>
@@ -9063,10 +9076,10 @@
     </row>
     <row r="74" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F74" s="14" t="s">
         <v>426</v>
@@ -9083,10 +9096,10 @@
     </row>
     <row r="75" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>426</v>
@@ -9103,10 +9116,10 @@
     </row>
     <row r="76" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>426</v>
@@ -9123,10 +9136,10 @@
     </row>
     <row r="77" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F77" s="14" t="s">
         <v>426</v>
@@ -9143,10 +9156,10 @@
     </row>
     <row r="78" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F78" s="14" t="s">
         <v>426</v>
@@ -9163,10 +9176,10 @@
     </row>
     <row r="79" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F79" s="14" t="s">
         <v>426</v>
@@ -9183,10 +9196,10 @@
     </row>
     <row r="80" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F80" s="14" t="s">
         <v>426</v>
@@ -9203,10 +9216,10 @@
     </row>
     <row r="81" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F81" s="14" t="s">
         <v>426</v>
@@ -9223,10 +9236,10 @@
     </row>
     <row r="82" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F82" s="14" t="s">
         <v>426</v>
@@ -9242,11 +9255,11 @@
       </c>
     </row>
     <row r="83" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>257</v>
+      <c r="A83" s="49" t="s">
+        <v>256</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F83" s="14" t="s">
         <v>426</v>
@@ -9263,10 +9276,10 @@
     </row>
     <row r="84" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F84" s="14" t="s">
         <v>426</v>
@@ -9283,10 +9296,10 @@
     </row>
     <row r="85" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F85" s="14" t="s">
         <v>426</v>
@@ -9303,10 +9316,10 @@
     </row>
     <row r="86" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F86" s="14" t="s">
         <v>426</v>
@@ -9323,10 +9336,10 @@
     </row>
     <row r="87" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F87" s="14" t="s">
         <v>426</v>
@@ -9343,10 +9356,10 @@
     </row>
     <row r="88" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F88" s="14" t="s">
         <v>426</v>
@@ -9363,10 +9376,10 @@
     </row>
     <row r="89" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>434</v>
+        <v>262</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>435</v>
+        <v>359</v>
       </c>
       <c r="F89" s="14" t="s">
         <v>426</v>
@@ -9380,17 +9393,13 @@
       <c r="I89" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="J89" s="49"/>
-      <c r="K89" s="49"/>
-      <c r="L89" s="49"/>
-      <c r="M89" s="49"/>
     </row>
     <row r="90" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F90" s="14" t="s">
         <v>426</v>
@@ -9410,11 +9419,11 @@
       <c r="M90" s="49"/>
     </row>
     <row r="91" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="49" t="s">
-        <v>440</v>
+      <c r="A91" s="14" t="s">
+        <v>436</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F91" s="14" t="s">
         <v>426</v>
@@ -9428,13 +9437,17 @@
       <c r="I91" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="49"/>
     </row>
     <row r="92" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="49" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F92" s="14" t="s">
         <v>426</v>
@@ -9449,14 +9462,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="B93" s="21"/>
-      <c r="D93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
+    <row r="93" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="49" t="s">
+        <v>441</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="G93" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
@@ -9710,12 +9734,10 @@
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="21"/>
-      <c r="C122" s="22"/>
       <c r="D122" s="15"/>
-      <c r="E122" s="22"/>
       <c r="F122" s="15"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
@@ -9775,6 +9797,17 @@
       <c r="G127" s="15"/>
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="15"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="480">
   <si>
     <t>type</t>
   </si>
@@ -990,9 +990,6 @@
     <t>HVAC System Combined</t>
   </si>
   <si>
-    <t>HVAC System Heating</t>
-  </si>
-  <si>
     <t>HVAC System Cooling</t>
   </si>
   <si>
@@ -1245,9 +1242,6 @@
     <t>building_characteristics_report.HVAC System Combined</t>
   </si>
   <si>
-    <t>building_characteristics_report.HVAC System Heating</t>
-  </si>
-  <si>
     <t>building_characteristics_report.HVAC System Cooling</t>
   </si>
   <si>
@@ -1450,6 +1444,36 @@
   </si>
   <si>
     <t>building_characteristics_report.Geometry Heated Basement</t>
+  </si>
+  <si>
+    <t>HVAC System Heating Electricity</t>
+  </si>
+  <si>
+    <t>building_characteristics_report.HVAC System Heating Electricity</t>
+  </si>
+  <si>
+    <t>HVAC System Heating Fuel Oil</t>
+  </si>
+  <si>
+    <t>building_characteristics_report.HVAC System Heating Fuel Oil</t>
+  </si>
+  <si>
+    <t>HVAC System Heating Natural Gas</t>
+  </si>
+  <si>
+    <t>building_characteristics_report.HVAC System Heating Natural Gas</t>
+  </si>
+  <si>
+    <t>HVAC System Heating Propane</t>
+  </si>
+  <si>
+    <t>building_characteristics_report.HVAC System Heating Propane</t>
+  </si>
+  <si>
+    <t>HVAC System Heating Wood</t>
+  </si>
+  <si>
+    <t>building_characteristics_report.HVAC System Heating Wood</t>
   </si>
 </sst>
 </file>
@@ -5588,7 +5612,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>154</v>
@@ -5699,7 +5723,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
@@ -5721,7 +5745,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>155</v>
@@ -5815,19 +5839,19 @@
         <v>1000</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B25" s="21">
         <v>1</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="22"/>
@@ -6034,7 +6058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6286,7 +6312,7 @@
       <c r="P5" s="45"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="45" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="S5" s="45"/>
       <c r="T5" s="45"/>
@@ -6300,16 +6326,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="E6" s="52" t="s">
         <v>445</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>446</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>446</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>447</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
@@ -6340,7 +6366,7 @@
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E7" s="53" t="str">
         <f>LOWER(SUBSTITUTE(D7," ","_"))</f>
@@ -6369,7 +6395,7 @@
       </c>
       <c r="O7" s="53"/>
       <c r="P7" s="53" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q7" s="53"/>
       <c r="R7" s="53" t="s">
@@ -6389,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>269</v>
@@ -6463,7 +6489,7 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E10" s="10" t="str">
         <f t="shared" ref="E10:E11" si="0">LOWER(SUBSTITUTE(D10," ","_"))</f>
@@ -6475,7 +6501,7 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -6502,7 +6528,7 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E11" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6514,7 +6540,7 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -6539,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>269</v>
@@ -6613,7 +6639,7 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E14" s="10" t="str">
         <f>LOWER(SUBSTITUTE(D14," ","_"))</f>
@@ -6625,7 +6651,7 @@
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -6652,7 +6678,7 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E15" s="10" t="str">
         <f t="shared" ref="E15" si="1">LOWER(SUBSTITUTE(D15," ","_"))</f>
@@ -6664,7 +6690,7 @@
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -6763,7 +6789,7 @@
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E18" s="10" t="str">
         <f>LOWER(SUBSTITUTE(D18," ","_"))</f>
@@ -6775,7 +6801,7 @@
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -6800,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>269</v>
@@ -6874,7 +6900,7 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E21" s="10" t="str">
         <f t="shared" ref="E21:E25" si="2">LOWER(SUBSTITUTE(D21," ","_"))</f>
@@ -6886,7 +6912,7 @@
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -6913,7 +6939,7 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E22" s="10" t="str">
         <f t="shared" si="2"/>
@@ -6925,7 +6951,7 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -6952,7 +6978,7 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E23" s="10" t="str">
         <f t="shared" si="2"/>
@@ -6964,7 +6990,7 @@
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -6991,7 +7017,7 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E24" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7003,7 +7029,7 @@
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -7030,7 +7056,7 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E25" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7042,7 +7068,7 @@
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -7067,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C26" s="52" t="s">
         <v>269</v>
@@ -7141,7 +7167,7 @@
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E28" s="10" t="str">
         <f t="shared" ref="E28:E31" si="3">LOWER(SUBSTITUTE(D28," ","_"))</f>
@@ -7153,7 +7179,7 @@
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -7180,7 +7206,7 @@
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E29" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7192,7 +7218,7 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -7219,7 +7245,7 @@
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E30" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7231,7 +7257,7 @@
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -7258,7 +7284,7 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E31" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7270,7 +7296,7 @@
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -7295,13 +7321,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>361</v>
       </c>
-      <c r="C32" s="40" t="s">
-        <v>362</v>
-      </c>
       <c r="D32" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E32" s="40" t="s">
         <v>236</v>
@@ -7331,13 +7357,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="C33" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="C33" s="40" t="s">
-        <v>341</v>
-      </c>
       <c r="D33" s="40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>236</v>
@@ -7416,11 +7442,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7536,12 +7562,12 @@
     </row>
     <row r="4" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48" t="s">
@@ -7563,12 +7589,12 @@
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48" t="s">
@@ -7595,7 +7621,7 @@
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="48" t="s">
@@ -7622,7 +7648,7 @@
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48" t="s">
@@ -7649,7 +7675,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48" t="s">
@@ -7676,7 +7702,7 @@
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48" t="s">
@@ -7703,7 +7729,7 @@
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
@@ -7725,12 +7751,12 @@
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48" t="s">
@@ -7757,7 +7783,7 @@
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48" t="s">
@@ -7784,7 +7810,7 @@
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48" t="s">
@@ -7811,7 +7837,7 @@
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48" t="s">
@@ -7833,12 +7859,12 @@
     </row>
     <row r="15" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
@@ -7865,7 +7891,7 @@
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
@@ -7892,7 +7918,7 @@
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
@@ -7919,7 +7945,7 @@
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
       <c r="D18" s="48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48" t="s">
@@ -7944,7 +7970,7 @@
         <v>291</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F19" s="48" t="s">
         <v>244</v>
@@ -7964,7 +7990,7 @@
         <v>292</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F20" s="48" t="s">
         <v>244</v>
@@ -7986,7 +8012,7 @@
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
@@ -8013,7 +8039,7 @@
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
@@ -8040,7 +8066,7 @@
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
@@ -8067,7 +8093,7 @@
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
@@ -8094,7 +8120,7 @@
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="48" t="s">
@@ -8119,7 +8145,7 @@
         <v>297</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F26" s="48" t="s">
         <v>244</v>
@@ -8139,7 +8165,7 @@
         <v>298</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F27" s="48" t="s">
         <v>244</v>
@@ -8159,7 +8185,7 @@
         <v>299</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F28" s="48" t="s">
         <v>244</v>
@@ -8179,7 +8205,7 @@
         <v>300</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F29" s="48" t="s">
         <v>244</v>
@@ -8199,7 +8225,7 @@
         <v>301</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F30" s="48" t="s">
         <v>244</v>
@@ -8219,7 +8245,7 @@
         <v>302</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F31" s="48" t="s">
         <v>244</v>
@@ -8239,7 +8265,7 @@
         <v>303</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F32" s="48" t="s">
         <v>244</v>
@@ -8259,7 +8285,7 @@
         <v>304</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F33" s="48" t="s">
         <v>244</v>
@@ -8279,7 +8305,7 @@
         <v>305</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F34" s="48" t="s">
         <v>244</v>
@@ -8299,7 +8325,7 @@
         <v>306</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F35" s="48" t="s">
         <v>244</v>
@@ -8319,7 +8345,7 @@
         <v>307</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F36" s="48" t="s">
         <v>244</v>
@@ -8339,7 +8365,7 @@
         <v>308</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F37" s="48" t="s">
         <v>244</v>
@@ -8359,7 +8385,7 @@
         <v>309</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F38" s="48" t="s">
         <v>244</v>
@@ -8379,7 +8405,7 @@
         <v>310</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F39" s="48" t="s">
         <v>244</v>
@@ -8399,7 +8425,7 @@
         <v>311</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F40" s="48" t="s">
         <v>244</v>
@@ -8419,7 +8445,7 @@
         <v>312</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F41" s="48" t="s">
         <v>244</v>
@@ -8439,7 +8465,7 @@
         <v>313</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F42" s="48" t="s">
         <v>244</v>
@@ -8459,7 +8485,7 @@
         <v>272</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F43" s="48" t="s">
         <v>244</v>
@@ -8479,7 +8505,7 @@
         <v>314</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F44" s="48" t="s">
         <v>244</v>
@@ -8499,7 +8525,7 @@
         <v>315</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F45" s="48" t="s">
         <v>244</v>
@@ -8516,10 +8542,10 @@
     </row>
     <row r="46" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F46" s="48" t="s">
         <v>244</v>
@@ -8539,7 +8565,7 @@
         <v>316</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F47" s="48" t="s">
         <v>244</v>
@@ -8559,7 +8585,7 @@
         <v>317</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F48" s="48" t="s">
         <v>244</v>
@@ -8576,10 +8602,10 @@
     </row>
     <row r="49" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>318</v>
+        <v>470</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>403</v>
+        <v>471</v>
       </c>
       <c r="F49" s="48" t="s">
         <v>244</v>
@@ -8596,10 +8622,10 @@
     </row>
     <row r="50" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>319</v>
+        <v>472</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>404</v>
+        <v>473</v>
       </c>
       <c r="F50" s="48" t="s">
         <v>244</v>
@@ -8616,10 +8642,10 @@
     </row>
     <row r="51" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>320</v>
+        <v>474</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="F51" s="48" t="s">
         <v>244</v>
@@ -8636,10 +8662,10 @@
     </row>
     <row r="52" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>321</v>
+        <v>476</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>406</v>
+        <v>477</v>
       </c>
       <c r="F52" s="48" t="s">
         <v>244</v>
@@ -8656,10 +8682,10 @@
     </row>
     <row r="53" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>322</v>
+        <v>478</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>407</v>
+        <v>479</v>
       </c>
       <c r="F53" s="48" t="s">
         <v>244</v>
@@ -8676,10 +8702,10 @@
     </row>
     <row r="54" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F54" s="48" t="s">
         <v>244</v>
@@ -8696,10 +8722,10 @@
     </row>
     <row r="55" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F55" s="48" t="s">
         <v>244</v>
@@ -8716,10 +8742,10 @@
     </row>
     <row r="56" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F56" s="48" t="s">
         <v>244</v>
@@ -8736,10 +8762,10 @@
     </row>
     <row r="57" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D57" s="48" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F57" s="48" t="s">
         <v>244</v>
@@ -8756,10 +8782,10 @@
     </row>
     <row r="58" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F58" s="48" t="s">
         <v>244</v>
@@ -8776,10 +8802,10 @@
     </row>
     <row r="59" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F59" s="48" t="s">
         <v>244</v>
@@ -8796,10 +8822,10 @@
     </row>
     <row r="60" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F60" s="48" t="s">
         <v>244</v>
@@ -8816,10 +8842,10 @@
     </row>
     <row r="61" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F61" s="48" t="s">
         <v>244</v>
@@ -8836,10 +8862,10 @@
     </row>
     <row r="62" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F62" s="48" t="s">
         <v>244</v>
@@ -8856,10 +8882,10 @@
     </row>
     <row r="63" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F63" s="48" t="s">
         <v>244</v>
@@ -8876,10 +8902,10 @@
     </row>
     <row r="64" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F64" s="48" t="s">
         <v>244</v>
@@ -8896,10 +8922,10 @@
     </row>
     <row r="65" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F65" s="48" t="s">
         <v>244</v>
@@ -8916,10 +8942,10 @@
     </row>
     <row r="66" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F66" s="48" t="s">
         <v>244</v>
@@ -8936,10 +8962,10 @@
     </row>
     <row r="67" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F67" s="48" t="s">
         <v>244</v>
@@ -8956,10 +8982,10 @@
     </row>
     <row r="68" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F68" s="48" t="s">
         <v>244</v>
@@ -8976,10 +9002,10 @@
     </row>
     <row r="69" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D69" s="48" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>244</v>
@@ -8996,10 +9022,10 @@
     </row>
     <row r="70" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D70" s="48" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>244</v>
@@ -9016,10 +9042,10 @@
     </row>
     <row r="71" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D71" s="48" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>244</v>
@@ -9034,95 +9060,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="G72" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="G73" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="G74" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="G75" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" s="14" t="b">
+    <row r="72" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="D72" s="48" t="s">
+        <v>420</v>
+      </c>
+      <c r="F72" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G72" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="D73" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="F73" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G73" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="D74" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="F74" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G74" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D75" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="F75" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G75" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" s="48" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G76" s="14" t="b">
         <v>0</v>
@@ -9136,13 +9162,13 @@
     </row>
     <row r="77" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G77" s="14" t="b">
         <v>0</v>
@@ -9156,13 +9182,13 @@
     </row>
     <row r="78" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G78" s="14" t="b">
         <v>0</v>
@@ -9176,13 +9202,13 @@
     </row>
     <row r="79" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G79" s="14" t="b">
         <v>0</v>
@@ -9196,13 +9222,13 @@
     </row>
     <row r="80" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G80" s="14" t="b">
         <v>0</v>
@@ -9216,13 +9242,13 @@
     </row>
     <row r="81" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G81" s="14" t="b">
         <v>0</v>
@@ -9236,13 +9262,13 @@
     </row>
     <row r="82" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G82" s="14" t="b">
         <v>0</v>
@@ -9256,93 +9282,93 @@
     </row>
     <row r="83" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="G83" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="G84" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="G85" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="G86" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="D83" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="G83" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="G84" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="G85" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="G86" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
-        <v>260</v>
-      </c>
       <c r="D87" s="14" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G87" s="14" t="b">
         <v>0</v>
@@ -9356,13 +9382,13 @@
     </row>
     <row r="88" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G88" s="14" t="b">
         <v>0</v>
@@ -9376,13 +9402,13 @@
     </row>
     <row r="89" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G89" s="14" t="b">
         <v>0</v>
@@ -9396,13 +9422,13 @@
     </row>
     <row r="90" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>434</v>
+        <v>259</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>435</v>
+        <v>355</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G90" s="14" t="b">
         <v>0</v>
@@ -9413,20 +9439,16 @@
       <c r="I90" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="J90" s="49"/>
-      <c r="K90" s="49"/>
-      <c r="L90" s="49"/>
-      <c r="M90" s="49"/>
     </row>
     <row r="91" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>436</v>
+        <v>260</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>437</v>
+        <v>356</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G91" s="14" t="b">
         <v>0</v>
@@ -9437,86 +9459,134 @@
       <c r="I91" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="J91" s="49"/>
-      <c r="K91" s="49"/>
-      <c r="L91" s="49"/>
-      <c r="M91" s="49"/>
     </row>
     <row r="92" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="49" t="s">
+      <c r="A92" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="G92" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="G93" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="G94" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
+    </row>
+    <row r="95" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="G95" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="49"/>
+    </row>
+    <row r="96" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="D96" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="D92" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="G92" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="49" t="s">
+      <c r="F96" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="G96" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="D97" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="D93" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="G93" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="B94" s="21"/>
-      <c r="D94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-    </row>
-    <row r="95" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
-      <c r="B95" s="21"/>
-      <c r="D95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-    </row>
-    <row r="96" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
-      <c r="B96" s="21"/>
-      <c r="D96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-    </row>
-    <row r="97" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="B97" s="21"/>
-      <c r="D97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
+      <c r="F97" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="G97" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" s="14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
@@ -9743,45 +9813,37 @@
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
       <c r="B123" s="21"/>
-      <c r="C123" s="22"/>
       <c r="D123" s="15"/>
-      <c r="E123" s="22"/>
       <c r="F123" s="15"/>
       <c r="G123" s="15"/>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
       <c r="B124" s="21"/>
-      <c r="C124" s="22"/>
       <c r="D124" s="15"/>
-      <c r="E124" s="22"/>
       <c r="F124" s="15"/>
       <c r="G124" s="15"/>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
       <c r="B125" s="21"/>
-      <c r="C125" s="22"/>
       <c r="D125" s="15"/>
-      <c r="E125" s="22"/>
       <c r="F125" s="15"/>
       <c r="G125" s="15"/>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="B126" s="21"/>
-      <c r="C126" s="22"/>
       <c r="D126" s="15"/>
-      <c r="E126" s="22"/>
       <c r="F126" s="15"/>
       <c r="G126" s="15"/>
       <c r="H126" s="15"/>
@@ -9808,6 +9870,50 @@
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="15"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="15"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="15"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="15"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="407">
   <si>
     <t>type</t>
   </si>
@@ -921,9 +921,6 @@
     <t>Insulation Wall</t>
   </si>
   <si>
-    <t>Insulation Interzonal Wall</t>
-  </si>
-  <si>
     <t>Insulation Slab</t>
   </si>
   <si>
@@ -1122,192 +1119,6 @@
     <t>BuildingCharacteristicsReport</t>
   </si>
   <si>
-    <t>building_characteristics_report.Location EPW</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Vintage</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Heating Fuel</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Usage Level</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Geometry Foundation Type</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Geometry House Size</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Geometry Stories</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Geometry Garage</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Orientation</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Eaves</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Overhangs</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Door Area</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Window Areas</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Neighbors</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Insulation Unfinished Attic</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Insulation Wall</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Insulation Interzonal Wall</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Insulation Slab</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Insulation Crawlspace</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Insulation Unfinished Basement</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Insulation Finished Basement</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Insulation Interzonal Floor</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Uninsulated Surfaces</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Roof Sheathing</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Wall Sheathing</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Floor Sheathing</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Exterior Finish</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Roof Material</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Floor Covering</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Thermal Mass Floor</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Thermal Mass Exterior Wall</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Thermal Mass Partition Wall</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Thermal Mass Ceiling</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Thermal Mass Furniture</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Doors</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Windows</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Water Heater</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Hot Water Fixtures</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.HVAC System Is Combined</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.HVAC System Combined</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.HVAC System Cooling</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Heating Setpoint</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Cooling Setpoint</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Refrigerator</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Cooking Range</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Dishwasher</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Clothes Washer</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Clothes Dryer</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Lighting</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Plug Loads</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Misc Extra Refrigerator</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Misc Freezer</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Misc Gas Fireplace</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Misc Gas Grill</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Misc Gas Lighting</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Misc Hot Tub Spa</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Misc Pool</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Misc Well Pump</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Ducts</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Infiltration</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Natural Ventilation</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Mechanical Ventilation</t>
-  </si>
-  <si>
     <t>Double</t>
   </si>
   <si>
@@ -1326,9 +1137,6 @@
     <t>Hot Water Distribution</t>
   </si>
   <si>
-    <t>building_characteristics_report.Hot Water Distribution</t>
-  </si>
-  <si>
     <t>../analysis_results</t>
   </si>
   <si>
@@ -1347,9 +1155,6 @@
     <t>Occupants</t>
   </si>
   <si>
-    <t>building_characteristics_report.Occupants</t>
-  </si>
-  <si>
     <t>HVAC Cooling Capacity W</t>
   </si>
   <si>
@@ -1383,15 +1188,9 @@
     <t>Location Heating Region</t>
   </si>
   <si>
-    <t>building_characteristics_report.Location Heating Region</t>
-  </si>
-  <si>
     <t>Location Cooling Region</t>
   </si>
   <si>
-    <t>building_characteristics_report.Location Cooling Region</t>
-  </si>
-  <si>
     <t>Option 1</t>
   </si>
   <si>
@@ -1443,37 +1242,19 @@
     <t>Geometry Heated Basement</t>
   </si>
   <si>
-    <t>building_characteristics_report.Geometry Heated Basement</t>
-  </si>
-  <si>
     <t>HVAC System Heating Electricity</t>
   </si>
   <si>
-    <t>building_characteristics_report.HVAC System Heating Electricity</t>
-  </si>
-  <si>
     <t>HVAC System Heating Fuel Oil</t>
   </si>
   <si>
-    <t>building_characteristics_report.HVAC System Heating Fuel Oil</t>
-  </si>
-  <si>
     <t>HVAC System Heating Natural Gas</t>
   </si>
   <si>
-    <t>building_characteristics_report.HVAC System Heating Natural Gas</t>
-  </si>
-  <si>
     <t>HVAC System Heating Propane</t>
   </si>
   <si>
-    <t>building_characteristics_report.HVAC System Heating Propane</t>
-  </si>
-  <si>
     <t>HVAC System Heating Wood</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.HVAC System Heating Wood</t>
   </si>
 </sst>
 </file>
@@ -5612,7 +5393,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>442</v>
+        <v>377</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>154</v>
@@ -5723,7 +5504,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
@@ -5745,7 +5526,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>155</v>
@@ -5839,19 +5620,19 @@
         <v>1000</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>425</v>
+        <v>362</v>
       </c>
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>428</v>
+        <v>365</v>
       </c>
       <c r="B25" s="21">
         <v>1</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>426</v>
+        <v>363</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="22"/>
@@ -6059,7 +5840,7 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6312,7 +6093,7 @@
       <c r="P5" s="45"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="45" t="s">
-        <v>427</v>
+        <v>364</v>
       </c>
       <c r="S5" s="45"/>
       <c r="T5" s="45"/>
@@ -6326,16 +6107,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>443</v>
+        <v>378</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>444</v>
+        <v>379</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>444</v>
+        <v>379</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
@@ -6366,7 +6147,7 @@
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53" t="s">
-        <v>446</v>
+        <v>381</v>
       </c>
       <c r="E7" s="53" t="str">
         <f>LOWER(SUBSTITUTE(D7," ","_"))</f>
@@ -6395,7 +6176,7 @@
       </c>
       <c r="O7" s="53"/>
       <c r="P7" s="53" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="Q7" s="53"/>
       <c r="R7" s="53" t="s">
@@ -6415,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>269</v>
@@ -6489,7 +6270,7 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="E10" s="10" t="str">
         <f t="shared" ref="E10:E11" si="0">LOWER(SUBSTITUTE(D10," ","_"))</f>
@@ -6501,7 +6282,7 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>462</v>
+        <v>395</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -6528,7 +6309,7 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>457</v>
+        <v>390</v>
       </c>
       <c r="E11" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6540,7 +6321,7 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>463</v>
+        <v>396</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -6565,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>269</v>
@@ -6639,7 +6420,7 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="E14" s="10" t="str">
         <f>LOWER(SUBSTITUTE(D14," ","_"))</f>
@@ -6651,7 +6432,7 @@
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -6678,7 +6459,7 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>457</v>
+        <v>390</v>
       </c>
       <c r="E15" s="10" t="str">
         <f t="shared" ref="E15" si="1">LOWER(SUBSTITUTE(D15," ","_"))</f>
@@ -6690,7 +6471,7 @@
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -6789,7 +6570,7 @@
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="E18" s="10" t="str">
         <f>LOWER(SUBSTITUTE(D18," ","_"))</f>
@@ -6801,7 +6582,7 @@
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -6826,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>464</v>
+        <v>397</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>269</v>
@@ -6900,7 +6681,7 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="E21" s="10" t="str">
         <f t="shared" ref="E21:E25" si="2">LOWER(SUBSTITUTE(D21," ","_"))</f>
@@ -6912,7 +6693,7 @@
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10" t="s">
-        <v>462</v>
+        <v>395</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -6939,7 +6720,7 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>457</v>
+        <v>390</v>
       </c>
       <c r="E22" s="10" t="str">
         <f t="shared" si="2"/>
@@ -6951,7 +6732,7 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>463</v>
+        <v>396</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -6978,7 +6759,7 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="E23" s="10" t="str">
         <f t="shared" si="2"/>
@@ -6990,7 +6771,7 @@
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -7017,7 +6798,7 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
-        <v>460</v>
+        <v>393</v>
       </c>
       <c r="E24" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7029,7 +6810,7 @@
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -7056,7 +6837,7 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="E25" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7068,7 +6849,7 @@
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -7093,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>465</v>
+        <v>398</v>
       </c>
       <c r="C26" s="52" t="s">
         <v>269</v>
@@ -7167,7 +6948,7 @@
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="E28" s="10" t="str">
         <f t="shared" ref="E28:E31" si="3">LOWER(SUBSTITUTE(D28," ","_"))</f>
@@ -7179,7 +6960,7 @@
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10" t="s">
-        <v>462</v>
+        <v>395</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -7206,7 +6987,7 @@
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="E29" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7218,7 +6999,7 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -7245,7 +7026,7 @@
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="E30" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7257,7 +7038,7 @@
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -7284,7 +7065,7 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
-        <v>466</v>
+        <v>399</v>
       </c>
       <c r="E31" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7296,7 +7077,7 @@
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -7321,13 +7102,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>360</v>
       </c>
-      <c r="C32" s="40" t="s">
-        <v>361</v>
-      </c>
       <c r="D32" s="40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E32" s="40" t="s">
         <v>236</v>
@@ -7357,13 +7138,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="C33" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="C33" s="40" t="s">
-        <v>340</v>
-      </c>
       <c r="D33" s="40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>236</v>
@@ -7442,7 +7223,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -7562,12 +7343,13 @@
     </row>
     <row r="4" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
-      <c r="D4" s="48" t="s">
-        <v>449</v>
+      <c r="D4" s="48" t="str">
+        <f>"building_characteristics_report."&amp;A4</f>
+        <v>building_characteristics_report.Location Heating Region</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48" t="s">
@@ -7589,12 +7371,13 @@
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
-      <c r="D5" s="48" t="s">
-        <v>451</v>
+      <c r="D5" s="48" t="str">
+        <f t="shared" ref="D5:D68" si="0">"building_characteristics_report."&amp;A5</f>
+        <v>building_characteristics_report.Location Cooling Region</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48" t="s">
@@ -7620,8 +7403,9 @@
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
-      <c r="D6" s="48" t="s">
-        <v>362</v>
+      <c r="D6" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Location EPW</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="48" t="s">
@@ -7647,8 +7431,9 @@
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
-      <c r="D7" s="48" t="s">
-        <v>363</v>
+      <c r="D7" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Vintage</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48" t="s">
@@ -7674,8 +7459,9 @@
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
-      <c r="D8" s="48" t="s">
-        <v>364</v>
+      <c r="D8" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Heating Fuel</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48" t="s">
@@ -7701,8 +7487,9 @@
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
-      <c r="D9" s="48" t="s">
-        <v>365</v>
+      <c r="D9" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Usage Level</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48" t="s">
@@ -7728,8 +7515,9 @@
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
-      <c r="D10" s="48" t="s">
-        <v>366</v>
+      <c r="D10" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Geometry Foundation Type</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
@@ -7751,12 +7539,13 @@
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>468</v>
+        <v>401</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
-      <c r="D11" s="48" t="s">
-        <v>469</v>
+      <c r="D11" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Geometry Heated Basement</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48" t="s">
@@ -7782,8 +7571,9 @@
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
-      <c r="D12" s="48" t="s">
-        <v>367</v>
+      <c r="D12" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Geometry House Size</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48" t="s">
@@ -7809,8 +7599,9 @@
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
-      <c r="D13" s="48" t="s">
-        <v>368</v>
+      <c r="D13" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Geometry Stories</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48" t="s">
@@ -7836,8 +7627,9 @@
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
-      <c r="D14" s="48" t="s">
-        <v>369</v>
+      <c r="D14" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Geometry Garage</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48" t="s">
@@ -7859,12 +7651,13 @@
     </row>
     <row r="15" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>436</v>
+        <v>372</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
-      <c r="D15" s="48" t="s">
-        <v>437</v>
+      <c r="D15" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Occupants</v>
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
@@ -7890,8 +7683,9 @@
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="48" t="s">
-        <v>370</v>
+      <c r="D16" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Orientation</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
@@ -7917,8 +7711,9 @@
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
-      <c r="D17" s="48" t="s">
-        <v>371</v>
+      <c r="D17" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Eaves</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
@@ -7944,8 +7739,9 @@
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
-      <c r="D18" s="48" t="s">
-        <v>372</v>
+      <c r="D18" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Overhangs</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48" t="s">
@@ -7969,8 +7765,9 @@
       <c r="A19" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D19" s="48" t="s">
-        <v>373</v>
+      <c r="D19" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Door Area</v>
       </c>
       <c r="F19" s="48" t="s">
         <v>244</v>
@@ -7989,8 +7786,9 @@
       <c r="A20" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D20" s="48" t="s">
-        <v>374</v>
+      <c r="D20" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Window Areas</v>
       </c>
       <c r="F20" s="48" t="s">
         <v>244</v>
@@ -8011,8 +7809,9 @@
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
-      <c r="D21" s="48" t="s">
-        <v>375</v>
+      <c r="D21" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Neighbors</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
@@ -8038,8 +7837,9 @@
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
-      <c r="D22" s="48" t="s">
-        <v>376</v>
+      <c r="D22" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Insulation Unfinished Attic</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
@@ -8065,8 +7865,9 @@
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
-      <c r="D23" s="48" t="s">
-        <v>377</v>
+      <c r="D23" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Insulation Wall</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
@@ -8092,8 +7893,9 @@
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="48" t="s">
-        <v>378</v>
+      <c r="D24" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Insulation Slab</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
@@ -8117,12 +7919,10 @@
       <c r="A25" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="E25" s="48"/>
+      <c r="D25" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Insulation Crawlspace</v>
+      </c>
       <c r="F25" s="48" t="s">
         <v>244</v>
       </c>
@@ -8135,17 +7935,14 @@
       <c r="I25" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
     </row>
     <row r="26" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D26" s="48" t="s">
-        <v>380</v>
+      <c r="D26" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Insulation Unfinished Basement</v>
       </c>
       <c r="F26" s="48" t="s">
         <v>244</v>
@@ -8164,8 +7961,9 @@
       <c r="A27" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D27" s="48" t="s">
-        <v>381</v>
+      <c r="D27" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Insulation Finished Basement</v>
       </c>
       <c r="F27" s="48" t="s">
         <v>244</v>
@@ -8184,8 +7982,9 @@
       <c r="A28" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D28" s="48" t="s">
-        <v>382</v>
+      <c r="D28" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Insulation Interzonal Floor</v>
       </c>
       <c r="F28" s="48" t="s">
         <v>244</v>
@@ -8204,8 +8003,9 @@
       <c r="A29" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D29" s="48" t="s">
-        <v>383</v>
+      <c r="D29" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Uninsulated Surfaces</v>
       </c>
       <c r="F29" s="48" t="s">
         <v>244</v>
@@ -8224,8 +8024,9 @@
       <c r="A30" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D30" s="48" t="s">
-        <v>384</v>
+      <c r="D30" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Roof Sheathing</v>
       </c>
       <c r="F30" s="48" t="s">
         <v>244</v>
@@ -8244,8 +8045,9 @@
       <c r="A31" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D31" s="48" t="s">
-        <v>385</v>
+      <c r="D31" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Wall Sheathing</v>
       </c>
       <c r="F31" s="48" t="s">
         <v>244</v>
@@ -8264,8 +8066,9 @@
       <c r="A32" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D32" s="48" t="s">
-        <v>386</v>
+      <c r="D32" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Floor Sheathing</v>
       </c>
       <c r="F32" s="48" t="s">
         <v>244</v>
@@ -8284,8 +8087,9 @@
       <c r="A33" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D33" s="48" t="s">
-        <v>387</v>
+      <c r="D33" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Exterior Finish</v>
       </c>
       <c r="F33" s="48" t="s">
         <v>244</v>
@@ -8304,8 +8108,9 @@
       <c r="A34" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="D34" s="48" t="s">
-        <v>388</v>
+      <c r="D34" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Roof Material</v>
       </c>
       <c r="F34" s="48" t="s">
         <v>244</v>
@@ -8324,8 +8129,9 @@
       <c r="A35" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="D35" s="48" t="s">
-        <v>389</v>
+      <c r="D35" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Floor Covering</v>
       </c>
       <c r="F35" s="48" t="s">
         <v>244</v>
@@ -8344,8 +8150,9 @@
       <c r="A36" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="D36" s="48" t="s">
-        <v>390</v>
+      <c r="D36" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Thermal Mass Floor</v>
       </c>
       <c r="F36" s="48" t="s">
         <v>244</v>
@@ -8364,8 +8171,9 @@
       <c r="A37" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="D37" s="48" t="s">
-        <v>391</v>
+      <c r="D37" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Thermal Mass Exterior Wall</v>
       </c>
       <c r="F37" s="48" t="s">
         <v>244</v>
@@ -8384,8 +8192,9 @@
       <c r="A38" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="D38" s="48" t="s">
-        <v>392</v>
+      <c r="D38" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Thermal Mass Partition Wall</v>
       </c>
       <c r="F38" s="48" t="s">
         <v>244</v>
@@ -8404,8 +8213,9 @@
       <c r="A39" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="D39" s="48" t="s">
-        <v>393</v>
+      <c r="D39" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Thermal Mass Ceiling</v>
       </c>
       <c r="F39" s="48" t="s">
         <v>244</v>
@@ -8424,8 +8234,9 @@
       <c r="A40" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="D40" s="48" t="s">
-        <v>394</v>
+      <c r="D40" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Thermal Mass Furniture</v>
       </c>
       <c r="F40" s="48" t="s">
         <v>244</v>
@@ -8444,8 +8255,9 @@
       <c r="A41" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="D41" s="48" t="s">
-        <v>395</v>
+      <c r="D41" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Doors</v>
       </c>
       <c r="F41" s="48" t="s">
         <v>244</v>
@@ -8462,10 +8274,11 @@
     </row>
     <row r="42" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>313</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>396</v>
+        <v>272</v>
+      </c>
+      <c r="D42" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Windows</v>
       </c>
       <c r="F42" s="48" t="s">
         <v>244</v>
@@ -8482,10 +8295,11 @@
     </row>
     <row r="43" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="D43" s="48" t="s">
-        <v>397</v>
+        <v>313</v>
+      </c>
+      <c r="D43" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Water Heater</v>
       </c>
       <c r="F43" s="48" t="s">
         <v>244</v>
@@ -8504,8 +8318,9 @@
       <c r="A44" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="D44" s="48" t="s">
-        <v>398</v>
+      <c r="D44" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Hot Water Fixtures</v>
       </c>
       <c r="F44" s="48" t="s">
         <v>244</v>
@@ -8522,10 +8337,11 @@
     </row>
     <row r="45" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>399</v>
+        <v>366</v>
+      </c>
+      <c r="D45" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Hot Water Distribution</v>
       </c>
       <c r="F45" s="48" t="s">
         <v>244</v>
@@ -8542,10 +8358,11 @@
     </row>
     <row r="46" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="D46" s="48" t="s">
-        <v>430</v>
+        <v>315</v>
+      </c>
+      <c r="D46" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.HVAC System Is Combined</v>
       </c>
       <c r="F46" s="48" t="s">
         <v>244</v>
@@ -8564,8 +8381,9 @@
       <c r="A47" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="D47" s="48" t="s">
-        <v>400</v>
+      <c r="D47" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.HVAC System Combined</v>
       </c>
       <c r="F47" s="48" t="s">
         <v>244</v>
@@ -8582,10 +8400,11 @@
     </row>
     <row r="48" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="D48" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.HVAC System Heating Electricity</v>
       </c>
       <c r="F48" s="48" t="s">
         <v>244</v>
@@ -8602,10 +8421,11 @@
     </row>
     <row r="49" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="D49" s="48" t="s">
-        <v>471</v>
+        <v>403</v>
+      </c>
+      <c r="D49" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.HVAC System Heating Fuel Oil</v>
       </c>
       <c r="F49" s="48" t="s">
         <v>244</v>
@@ -8622,10 +8442,11 @@
     </row>
     <row r="50" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>473</v>
+        <v>404</v>
+      </c>
+      <c r="D50" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.HVAC System Heating Natural Gas</v>
       </c>
       <c r="F50" s="48" t="s">
         <v>244</v>
@@ -8642,10 +8463,11 @@
     </row>
     <row r="51" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="D51" s="48" t="s">
-        <v>475</v>
+        <v>405</v>
+      </c>
+      <c r="D51" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.HVAC System Heating Propane</v>
       </c>
       <c r="F51" s="48" t="s">
         <v>244</v>
@@ -8662,10 +8484,11 @@
     </row>
     <row r="52" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="D52" s="48" t="s">
-        <v>477</v>
+        <v>406</v>
+      </c>
+      <c r="D52" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.HVAC System Heating Wood</v>
       </c>
       <c r="F52" s="48" t="s">
         <v>244</v>
@@ -8682,10 +8505,11 @@
     </row>
     <row r="53" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>478</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>479</v>
+        <v>317</v>
+      </c>
+      <c r="D53" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.HVAC System Cooling</v>
       </c>
       <c r="F53" s="48" t="s">
         <v>244</v>
@@ -8704,8 +8528,9 @@
       <c r="A54" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="D54" s="48" t="s">
-        <v>402</v>
+      <c r="D54" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Heating Setpoint</v>
       </c>
       <c r="F54" s="48" t="s">
         <v>244</v>
@@ -8724,8 +8549,9 @@
       <c r="A55" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="D55" s="48" t="s">
-        <v>403</v>
+      <c r="D55" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Cooling Setpoint</v>
       </c>
       <c r="F55" s="48" t="s">
         <v>244</v>
@@ -8744,8 +8570,9 @@
       <c r="A56" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="D56" s="48" t="s">
-        <v>404</v>
+      <c r="D56" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Refrigerator</v>
       </c>
       <c r="F56" s="48" t="s">
         <v>244</v>
@@ -8764,8 +8591,9 @@
       <c r="A57" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="D57" s="48" t="s">
-        <v>405</v>
+      <c r="D57" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Cooking Range</v>
       </c>
       <c r="F57" s="48" t="s">
         <v>244</v>
@@ -8784,8 +8612,9 @@
       <c r="A58" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="D58" s="48" t="s">
-        <v>406</v>
+      <c r="D58" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Dishwasher</v>
       </c>
       <c r="F58" s="48" t="s">
         <v>244</v>
@@ -8804,8 +8633,9 @@
       <c r="A59" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="D59" s="48" t="s">
-        <v>407</v>
+      <c r="D59" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Clothes Washer</v>
       </c>
       <c r="F59" s="48" t="s">
         <v>244</v>
@@ -8824,8 +8654,9 @@
       <c r="A60" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="D60" s="48" t="s">
-        <v>408</v>
+      <c r="D60" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Clothes Dryer</v>
       </c>
       <c r="F60" s="48" t="s">
         <v>244</v>
@@ -8842,10 +8673,11 @@
     </row>
     <row r="61" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="D61" s="48" t="s">
-        <v>409</v>
+        <v>273</v>
+      </c>
+      <c r="D61" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Lighting</v>
       </c>
       <c r="F61" s="48" t="s">
         <v>244</v>
@@ -8862,10 +8694,11 @@
     </row>
     <row r="62" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="D62" s="48" t="s">
-        <v>410</v>
+        <v>325</v>
+      </c>
+      <c r="D62" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Plug Loads</v>
       </c>
       <c r="F62" s="48" t="s">
         <v>244</v>
@@ -8884,8 +8717,9 @@
       <c r="A63" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="D63" s="48" t="s">
-        <v>411</v>
+      <c r="D63" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Misc Extra Refrigerator</v>
       </c>
       <c r="F63" s="48" t="s">
         <v>244</v>
@@ -8904,8 +8738,9 @@
       <c r="A64" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="D64" s="48" t="s">
-        <v>412</v>
+      <c r="D64" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Misc Freezer</v>
       </c>
       <c r="F64" s="48" t="s">
         <v>244</v>
@@ -8924,8 +8759,9 @@
       <c r="A65" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="D65" s="48" t="s">
-        <v>413</v>
+      <c r="D65" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Misc Gas Fireplace</v>
       </c>
       <c r="F65" s="48" t="s">
         <v>244</v>
@@ -8944,8 +8780,9 @@
       <c r="A66" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="D66" s="48" t="s">
-        <v>414</v>
+      <c r="D66" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Misc Gas Grill</v>
       </c>
       <c r="F66" s="48" t="s">
         <v>244</v>
@@ -8964,8 +8801,9 @@
       <c r="A67" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="D67" s="48" t="s">
-        <v>415</v>
+      <c r="D67" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Misc Gas Lighting</v>
       </c>
       <c r="F67" s="48" t="s">
         <v>244</v>
@@ -8984,8 +8822,9 @@
       <c r="A68" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="D68" s="48" t="s">
-        <v>416</v>
+      <c r="D68" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Misc Hot Tub Spa</v>
       </c>
       <c r="F68" s="48" t="s">
         <v>244</v>
@@ -9004,8 +8843,9 @@
       <c r="A69" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="D69" s="48" t="s">
-        <v>417</v>
+      <c r="D69" s="48" t="str">
+        <f t="shared" ref="D69:D74" si="1">"building_characteristics_report."&amp;A69</f>
+        <v>building_characteristics_report.Misc Pool</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>244</v>
@@ -9024,8 +8864,9 @@
       <c r="A70" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="D70" s="48" t="s">
-        <v>418</v>
+      <c r="D70" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.Misc Well Pump</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>244</v>
@@ -9044,8 +8885,9 @@
       <c r="A71" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="D71" s="48" t="s">
-        <v>419</v>
+      <c r="D71" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.Ducts</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>244</v>
@@ -9064,8 +8906,9 @@
       <c r="A72" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="D72" s="48" t="s">
-        <v>420</v>
+      <c r="D72" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.Infiltration</v>
       </c>
       <c r="F72" s="48" t="s">
         <v>244</v>
@@ -9084,8 +8927,9 @@
       <c r="A73" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="D73" s="48" t="s">
-        <v>421</v>
+      <c r="D73" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.Natural Ventilation</v>
       </c>
       <c r="F73" s="48" t="s">
         <v>244</v>
@@ -9104,8 +8948,9 @@
       <c r="A74" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="D74" s="48" t="s">
-        <v>422</v>
+      <c r="D74" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.Mechanical Ventilation</v>
       </c>
       <c r="F74" s="48" t="s">
         <v>244</v>
@@ -9120,35 +8965,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>423</v>
-      </c>
-      <c r="F75" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G75" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" s="48" t="b">
+    <row r="75" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="G75" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" s="14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>341</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G76" s="14" t="b">
         <v>0</v>
@@ -9162,13 +9007,13 @@
     </row>
     <row r="77" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>342</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G77" s="14" t="b">
         <v>0</v>
@@ -9182,13 +9027,13 @@
     </row>
     <row r="78" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>343</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G78" s="14" t="b">
         <v>0</v>
@@ -9202,13 +9047,13 @@
     </row>
     <row r="79" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>344</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G79" s="14" t="b">
         <v>0</v>
@@ -9222,13 +9067,13 @@
     </row>
     <row r="80" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>345</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G80" s="14" t="b">
         <v>0</v>
@@ -9242,13 +9087,13 @@
     </row>
     <row r="81" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>346</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G81" s="14" t="b">
         <v>0</v>
@@ -9262,13 +9107,13 @@
     </row>
     <row r="82" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>347</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G82" s="14" t="b">
         <v>0</v>
@@ -9282,13 +9127,13 @@
     </row>
     <row r="83" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>348</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G83" s="14" t="b">
         <v>0</v>
@@ -9302,13 +9147,13 @@
     </row>
     <row r="84" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="49" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>349</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G84" s="14" t="b">
         <v>0</v>
@@ -9322,13 +9167,13 @@
     </row>
     <row r="85" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>350</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G85" s="14" t="b">
         <v>0</v>
@@ -9342,13 +9187,13 @@
     </row>
     <row r="86" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>351</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G86" s="14" t="b">
         <v>0</v>
@@ -9361,14 +9206,14 @@
       </c>
     </row>
     <row r="87" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="49" t="s">
-        <v>256</v>
+      <c r="A87" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>352</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G87" s="14" t="b">
         <v>0</v>
@@ -9382,13 +9227,13 @@
     </row>
     <row r="88" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>353</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G88" s="14" t="b">
         <v>0</v>
@@ -9402,13 +9247,13 @@
     </row>
     <row r="89" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>354</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G89" s="14" t="b">
         <v>0</v>
@@ -9422,13 +9267,13 @@
     </row>
     <row r="90" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>355</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G90" s="14" t="b">
         <v>0</v>
@@ -9442,13 +9287,13 @@
     </row>
     <row r="91" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>356</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G91" s="14" t="b">
         <v>0</v>
@@ -9462,13 +9307,13 @@
     </row>
     <row r="92" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>357</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G92" s="14" t="b">
         <v>0</v>
@@ -9482,13 +9327,13 @@
     </row>
     <row r="93" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>262</v>
+        <v>368</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G93" s="14" t="b">
         <v>0</v>
@@ -9499,16 +9344,20 @@
       <c r="I93" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
     </row>
     <row r="94" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>433</v>
+        <v>371</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G94" s="14" t="b">
         <v>0</v>
@@ -9525,14 +9374,14 @@
       <c r="M94" s="49"/>
     </row>
     <row r="95" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
-        <v>434</v>
+      <c r="A95" s="49" t="s">
+        <v>373</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>435</v>
+        <v>375</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G95" s="14" t="b">
         <v>0</v>
@@ -9543,20 +9392,16 @@
       <c r="I95" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="J95" s="49"/>
-      <c r="K95" s="49"/>
-      <c r="L95" s="49"/>
-      <c r="M95" s="49"/>
     </row>
     <row r="96" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="49" t="s">
-        <v>438</v>
+        <v>374</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>440</v>
+        <v>376</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G96" s="14" t="b">
         <v>0</v>
@@ -9568,25 +9413,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="G97" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" s="14" t="b">
-        <v>0</v>
-      </c>
+    <row r="97" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+      <c r="B97" s="21"/>
+      <c r="D97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
@@ -9840,10 +9674,12 @@
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
     </row>
-    <row r="126" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="B126" s="21"/>
+      <c r="C126" s="22"/>
       <c r="D126" s="15"/>
+      <c r="E126" s="22"/>
       <c r="F126" s="15"/>
       <c r="G126" s="15"/>
       <c r="H126" s="15"/>
@@ -9903,17 +9739,6 @@
       <c r="G131" s="15"/>
       <c r="H131" s="15"/>
       <c r="I131" s="15"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="15"/>
-      <c r="B132" s="21"/>
-      <c r="C132" s="22"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -5617,7 +5617,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="21">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>362</v>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="C45" s="2" t="str">
         <f>"['pnw'," &amp; B24 &amp; "]"</f>
-        <v>['pnw',1000]</v>
+        <v>['pnw',10000]</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="L5" s="45">
         <f>Setup!B24</f>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="M5" s="45">
         <v>1</v>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -5334,7 +5334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5461,7 +5463,7 @@
         <v>66</v>
       </c>
       <c r="B9" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="23" t="s">
@@ -5469,7 +5471,7 @@
       </c>
       <c r="E9" s="23" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$5.04/hour</v>
+        <v>$10.08/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>201</v>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="386">
   <si>
     <t>type</t>
   </si>
@@ -1056,60 +1056,6 @@
     <t>SimulationOutputReport</t>
   </si>
   <si>
-    <t>simulation_output_report.Total Site Energy MBtu</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Total Site Electricity kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Total Site Natural Gas therm</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Total Site Other Fuel MBtu</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Electricity Heating kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Electricity Cooling kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Electricity Interior Lighting kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Electricity Exterior Lighting kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Electricity Interior Equipment kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Electricity Fans kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Electricity Pumps kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Electricity Water Systems kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Natural Gas Heating therm</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Natural Gas Interior Equipment therm</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Natural Gas Water Systems therm</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Other Fuel Heating MBtu</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Other Fuel Interior Equipment MBtu</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Other Fuel Water Systems MBtu</t>
-  </si>
-  <si>
     <t>ResStock_PNW</t>
   </si>
   <si>
@@ -1143,15 +1089,9 @@
     <t>Hours Heating Setpoint Not Met</t>
   </si>
   <si>
-    <t>simulation_output_report.Hours Heating Setpoint Not Met</t>
-  </si>
-  <si>
     <t>Hours Cooling Setpoint Not Met</t>
   </si>
   <si>
-    <t>simulation_output_report.Hours Cooling Setpoint Not Met</t>
-  </si>
-  <si>
     <t>Occupants</t>
   </si>
   <si>
@@ -1161,15 +1101,6 @@
     <t>HVAC Heating Capacity W</t>
   </si>
   <si>
-    <t>simulation_output_report.HVAC Cooling Capacity W</t>
-  </si>
-  <si>
-    <t>simulation_output_report.HVAC Heating Capacity W</t>
-  </si>
-  <si>
-    <t>1.20.1</t>
-  </si>
-  <si>
     <t>Build Existing Models EnergyPlus</t>
   </si>
   <si>
@@ -1255,6 +1186,12 @@
   </si>
   <si>
     <t>HVAC System Heating Wood</t>
+  </si>
+  <si>
+    <t>1.21.14</t>
+  </si>
+  <si>
+    <t>Ceiling Fan</t>
   </si>
 </sst>
 </file>
@@ -5334,9 +5271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5395,7 +5330,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>154</v>
@@ -5463,7 +5398,7 @@
         <v>66</v>
       </c>
       <c r="B9" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="23" t="s">
@@ -5471,7 +5406,7 @@
       </c>
       <c r="E9" s="23" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$10.08/hour</v>
+        <v>$5.04/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>201</v>
@@ -5506,7 +5441,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
@@ -5528,7 +5463,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>155</v>
@@ -5619,22 +5554,22 @@
         <v>3</v>
       </c>
       <c r="B24" s="21">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="B25" s="21">
         <v>1</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="22"/>
@@ -5793,7 +5728,7 @@
       </c>
       <c r="C45" s="2" t="str">
         <f>"['pnw'," &amp; B24 &amp; "]"</f>
-        <v>['pnw',10000]</v>
+        <v>['pnw',1000]</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
@@ -5842,7 +5777,7 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6083,7 +6018,7 @@
       </c>
       <c r="L5" s="45">
         <f>Setup!B24</f>
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="M5" s="45">
         <v>1</v>
@@ -6095,7 +6030,7 @@
       <c r="P5" s="45"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="45" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="S5" s="45"/>
       <c r="T5" s="45"/>
@@ -6109,16 +6044,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
@@ -6149,7 +6084,7 @@
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="E7" s="53" t="str">
         <f>LOWER(SUBSTITUTE(D7," ","_"))</f>
@@ -6178,7 +6113,7 @@
       </c>
       <c r="O7" s="53"/>
       <c r="P7" s="53" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="53"/>
       <c r="R7" s="53" t="s">
@@ -6195,10 +6130,10 @@
     </row>
     <row r="8" spans="1:26" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>269</v>
@@ -6272,7 +6207,7 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="E10" s="10" t="str">
         <f t="shared" ref="E10:E11" si="0">LOWER(SUBSTITUTE(D10," ","_"))</f>
@@ -6284,7 +6219,7 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -6311,7 +6246,7 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="E11" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6323,7 +6258,7 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -6345,10 +6280,10 @@
     </row>
     <row r="12" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>269</v>
@@ -6422,7 +6357,7 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="E14" s="10" t="str">
         <f>LOWER(SUBSTITUTE(D14," ","_"))</f>
@@ -6434,7 +6369,7 @@
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -6461,7 +6396,7 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="E15" s="10" t="str">
         <f t="shared" ref="E15" si="1">LOWER(SUBSTITUTE(D15," ","_"))</f>
@@ -6473,7 +6408,7 @@
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -6495,7 +6430,7 @@
     </row>
     <row r="16" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="39" t="s">
         <v>274</v>
@@ -6572,7 +6507,7 @@
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="E18" s="10" t="str">
         <f>LOWER(SUBSTITUTE(D18," ","_"))</f>
@@ -6584,7 +6519,7 @@
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -6606,10 +6541,10 @@
     </row>
     <row r="19" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>269</v>
@@ -6683,7 +6618,7 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="E21" s="10" t="str">
         <f t="shared" ref="E21:E25" si="2">LOWER(SUBSTITUTE(D21," ","_"))</f>
@@ -6695,7 +6630,7 @@
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -6722,7 +6657,7 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="E22" s="10" t="str">
         <f t="shared" si="2"/>
@@ -6734,7 +6669,7 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -6761,7 +6696,7 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="E23" s="10" t="str">
         <f t="shared" si="2"/>
@@ -6773,7 +6708,7 @@
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -6800,7 +6735,7 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="E24" s="10" t="str">
         <f t="shared" si="2"/>
@@ -6812,7 +6747,7 @@
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -6839,7 +6774,7 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="E25" s="10" t="str">
         <f t="shared" si="2"/>
@@ -6851,7 +6786,7 @@
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -6873,10 +6808,10 @@
     </row>
     <row r="26" spans="1:26" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="C26" s="52" t="s">
         <v>269</v>
@@ -6950,7 +6885,7 @@
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="E28" s="10" t="str">
         <f t="shared" ref="E28:E31" si="3">LOWER(SUBSTITUTE(D28," ","_"))</f>
@@ -6962,7 +6897,7 @@
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -6989,7 +6924,7 @@
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="E29" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7001,7 +6936,7 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -7028,7 +6963,7 @@
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="E30" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7040,7 +6975,7 @@
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -7067,7 +7002,7 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="E31" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7079,7 +7014,7 @@
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -7104,13 +7039,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="E32" s="40" t="s">
         <v>236</v>
@@ -7225,11 +7160,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7237,7 +7172,7 @@
     <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
@@ -7345,13 +7280,13 @@
     </row>
     <row r="4" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="str">
-        <f>"building_characteristics_report."&amp;A4</f>
-        <v>building_characteristics_report.Location Heating Region</v>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A4," ","_"))</f>
+        <v>building_characteristics_report.location_heating_region</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48" t="s">
@@ -7373,13 +7308,13 @@
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="str">
-        <f t="shared" ref="D5:D68" si="0">"building_characteristics_report."&amp;A5</f>
-        <v>building_characteristics_report.Location Cooling Region</v>
+        <f t="shared" ref="D5:D68" si="0">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A5," ","_"))</f>
+        <v>building_characteristics_report.location_cooling_region</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48" t="s">
@@ -7407,7 +7342,7 @@
       <c r="C6" s="48"/>
       <c r="D6" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Location EPW</v>
+        <v>building_characteristics_report.location_epw</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="48" t="s">
@@ -7435,7 +7370,7 @@
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Vintage</v>
+        <v>building_characteristics_report.vintage</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48" t="s">
@@ -7463,7 +7398,7 @@
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Heating Fuel</v>
+        <v>building_characteristics_report.heating_fuel</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48" t="s">
@@ -7491,7 +7426,7 @@
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Usage Level</v>
+        <v>building_characteristics_report.usage_level</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48" t="s">
@@ -7519,7 +7454,7 @@
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Geometry Foundation Type</v>
+        <v>building_characteristics_report.geometry_foundation_type</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
@@ -7541,13 +7476,13 @@
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Geometry Heated Basement</v>
+        <v>building_characteristics_report.geometry_heated_basement</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48" t="s">
@@ -7575,7 +7510,7 @@
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Geometry House Size</v>
+        <v>building_characteristics_report.geometry_house_size</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48" t="s">
@@ -7603,7 +7538,7 @@
       <c r="C13" s="48"/>
       <c r="D13" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Geometry Stories</v>
+        <v>building_characteristics_report.geometry_stories</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48" t="s">
@@ -7631,7 +7566,7 @@
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Geometry Garage</v>
+        <v>building_characteristics_report.geometry_garage</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48" t="s">
@@ -7653,13 +7588,13 @@
     </row>
     <row r="15" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Occupants</v>
+        <v>building_characteristics_report.occupants</v>
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
@@ -7687,7 +7622,7 @@
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Orientation</v>
+        <v>building_characteristics_report.orientation</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48" t="s">
@@ -7715,7 +7650,7 @@
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Eaves</v>
+        <v>building_characteristics_report.eaves</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48" t="s">
@@ -7743,7 +7678,7 @@
       <c r="C18" s="48"/>
       <c r="D18" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Overhangs</v>
+        <v>building_characteristics_report.overhangs</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48" t="s">
@@ -7769,7 +7704,7 @@
       </c>
       <c r="D19" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Door Area</v>
+        <v>building_characteristics_report.door_area</v>
       </c>
       <c r="F19" s="48" t="s">
         <v>244</v>
@@ -7790,7 +7725,7 @@
       </c>
       <c r="D20" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Window Areas</v>
+        <v>building_characteristics_report.window_areas</v>
       </c>
       <c r="F20" s="48" t="s">
         <v>244</v>
@@ -7813,7 +7748,7 @@
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Neighbors</v>
+        <v>building_characteristics_report.neighbors</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
@@ -7841,7 +7776,7 @@
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Insulation Unfinished Attic</v>
+        <v>building_characteristics_report.insulation_unfinished_attic</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
@@ -7869,7 +7804,7 @@
       <c r="C23" s="48"/>
       <c r="D23" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Insulation Wall</v>
+        <v>building_characteristics_report.insulation_wall</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
@@ -7897,7 +7832,7 @@
       <c r="C24" s="48"/>
       <c r="D24" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Insulation Slab</v>
+        <v>building_characteristics_report.insulation_slab</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
@@ -7923,7 +7858,7 @@
       </c>
       <c r="D25" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Insulation Crawlspace</v>
+        <v>building_characteristics_report.insulation_crawlspace</v>
       </c>
       <c r="F25" s="48" t="s">
         <v>244</v>
@@ -7944,7 +7879,7 @@
       </c>
       <c r="D26" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Insulation Unfinished Basement</v>
+        <v>building_characteristics_report.insulation_unfinished_basement</v>
       </c>
       <c r="F26" s="48" t="s">
         <v>244</v>
@@ -7965,7 +7900,7 @@
       </c>
       <c r="D27" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Insulation Finished Basement</v>
+        <v>building_characteristics_report.insulation_finished_basement</v>
       </c>
       <c r="F27" s="48" t="s">
         <v>244</v>
@@ -7986,7 +7921,7 @@
       </c>
       <c r="D28" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Insulation Interzonal Floor</v>
+        <v>building_characteristics_report.insulation_interzonal_floor</v>
       </c>
       <c r="F28" s="48" t="s">
         <v>244</v>
@@ -8007,7 +7942,7 @@
       </c>
       <c r="D29" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Uninsulated Surfaces</v>
+        <v>building_characteristics_report.uninsulated_surfaces</v>
       </c>
       <c r="F29" s="48" t="s">
         <v>244</v>
@@ -8028,7 +7963,7 @@
       </c>
       <c r="D30" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Roof Sheathing</v>
+        <v>building_characteristics_report.roof_sheathing</v>
       </c>
       <c r="F30" s="48" t="s">
         <v>244</v>
@@ -8049,7 +7984,7 @@
       </c>
       <c r="D31" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Wall Sheathing</v>
+        <v>building_characteristics_report.wall_sheathing</v>
       </c>
       <c r="F31" s="48" t="s">
         <v>244</v>
@@ -8070,7 +8005,7 @@
       </c>
       <c r="D32" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Floor Sheathing</v>
+        <v>building_characteristics_report.floor_sheathing</v>
       </c>
       <c r="F32" s="48" t="s">
         <v>244</v>
@@ -8091,7 +8026,7 @@
       </c>
       <c r="D33" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Exterior Finish</v>
+        <v>building_characteristics_report.exterior_finish</v>
       </c>
       <c r="F33" s="48" t="s">
         <v>244</v>
@@ -8112,7 +8047,7 @@
       </c>
       <c r="D34" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Roof Material</v>
+        <v>building_characteristics_report.roof_material</v>
       </c>
       <c r="F34" s="48" t="s">
         <v>244</v>
@@ -8133,7 +8068,7 @@
       </c>
       <c r="D35" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Floor Covering</v>
+        <v>building_characteristics_report.floor_covering</v>
       </c>
       <c r="F35" s="48" t="s">
         <v>244</v>
@@ -8154,7 +8089,7 @@
       </c>
       <c r="D36" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Thermal Mass Floor</v>
+        <v>building_characteristics_report.thermal_mass_floor</v>
       </c>
       <c r="F36" s="48" t="s">
         <v>244</v>
@@ -8175,7 +8110,7 @@
       </c>
       <c r="D37" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Thermal Mass Exterior Wall</v>
+        <v>building_characteristics_report.thermal_mass_exterior_wall</v>
       </c>
       <c r="F37" s="48" t="s">
         <v>244</v>
@@ -8196,7 +8131,7 @@
       </c>
       <c r="D38" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Thermal Mass Partition Wall</v>
+        <v>building_characteristics_report.thermal_mass_partition_wall</v>
       </c>
       <c r="F38" s="48" t="s">
         <v>244</v>
@@ -8217,7 +8152,7 @@
       </c>
       <c r="D39" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Thermal Mass Ceiling</v>
+        <v>building_characteristics_report.thermal_mass_ceiling</v>
       </c>
       <c r="F39" s="48" t="s">
         <v>244</v>
@@ -8238,7 +8173,7 @@
       </c>
       <c r="D40" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Thermal Mass Furniture</v>
+        <v>building_characteristics_report.thermal_mass_furniture</v>
       </c>
       <c r="F40" s="48" t="s">
         <v>244</v>
@@ -8259,7 +8194,7 @@
       </c>
       <c r="D41" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Doors</v>
+        <v>building_characteristics_report.doors</v>
       </c>
       <c r="F41" s="48" t="s">
         <v>244</v>
@@ -8280,7 +8215,7 @@
       </c>
       <c r="D42" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Windows</v>
+        <v>building_characteristics_report.windows</v>
       </c>
       <c r="F42" s="48" t="s">
         <v>244</v>
@@ -8301,7 +8236,7 @@
       </c>
       <c r="D43" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Water Heater</v>
+        <v>building_characteristics_report.water_heater</v>
       </c>
       <c r="F43" s="48" t="s">
         <v>244</v>
@@ -8322,7 +8257,7 @@
       </c>
       <c r="D44" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Hot Water Fixtures</v>
+        <v>building_characteristics_report.hot_water_fixtures</v>
       </c>
       <c r="F44" s="48" t="s">
         <v>244</v>
@@ -8339,11 +8274,11 @@
     </row>
     <row r="45" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="D45" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Hot Water Distribution</v>
+        <v>building_characteristics_report.hot_water_distribution</v>
       </c>
       <c r="F45" s="48" t="s">
         <v>244</v>
@@ -8364,7 +8299,7 @@
       </c>
       <c r="D46" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.HVAC System Is Combined</v>
+        <v>building_characteristics_report.hvac_system_is_combined</v>
       </c>
       <c r="F46" s="48" t="s">
         <v>244</v>
@@ -8385,7 +8320,7 @@
       </c>
       <c r="D47" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.HVAC System Combined</v>
+        <v>building_characteristics_report.hvac_system_combined</v>
       </c>
       <c r="F47" s="48" t="s">
         <v>244</v>
@@ -8402,11 +8337,11 @@
     </row>
     <row r="48" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="D48" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.HVAC System Heating Electricity</v>
+        <v>building_characteristics_report.hvac_system_heating_electricity</v>
       </c>
       <c r="F48" s="48" t="s">
         <v>244</v>
@@ -8423,11 +8358,11 @@
     </row>
     <row r="49" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="D49" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.HVAC System Heating Fuel Oil</v>
+        <v>building_characteristics_report.hvac_system_heating_fuel_oil</v>
       </c>
       <c r="F49" s="48" t="s">
         <v>244</v>
@@ -8444,11 +8379,11 @@
     </row>
     <row r="50" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="D50" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.HVAC System Heating Natural Gas</v>
+        <v>building_characteristics_report.hvac_system_heating_natural_gas</v>
       </c>
       <c r="F50" s="48" t="s">
         <v>244</v>
@@ -8465,11 +8400,11 @@
     </row>
     <row r="51" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="D51" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.HVAC System Heating Propane</v>
+        <v>building_characteristics_report.hvac_system_heating_propane</v>
       </c>
       <c r="F51" s="48" t="s">
         <v>244</v>
@@ -8486,11 +8421,11 @@
     </row>
     <row r="52" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D52" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.HVAC System Heating Wood</v>
+        <v>building_characteristics_report.hvac_system_heating_wood</v>
       </c>
       <c r="F52" s="48" t="s">
         <v>244</v>
@@ -8511,7 +8446,7 @@
       </c>
       <c r="D53" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.HVAC System Cooling</v>
+        <v>building_characteristics_report.hvac_system_cooling</v>
       </c>
       <c r="F53" s="48" t="s">
         <v>244</v>
@@ -8532,7 +8467,7 @@
       </c>
       <c r="D54" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Heating Setpoint</v>
+        <v>building_characteristics_report.heating_setpoint</v>
       </c>
       <c r="F54" s="48" t="s">
         <v>244</v>
@@ -8553,7 +8488,7 @@
       </c>
       <c r="D55" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Cooling Setpoint</v>
+        <v>building_characteristics_report.cooling_setpoint</v>
       </c>
       <c r="F55" s="48" t="s">
         <v>244</v>
@@ -8570,11 +8505,11 @@
     </row>
     <row r="56" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="D56" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Refrigerator</v>
+        <v>building_characteristics_report.ceiling_fan</v>
       </c>
       <c r="F56" s="48" t="s">
         <v>244</v>
@@ -8591,11 +8526,11 @@
     </row>
     <row r="57" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D57" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Cooking Range</v>
+        <v>building_characteristics_report.refrigerator</v>
       </c>
       <c r="F57" s="48" t="s">
         <v>244</v>
@@ -8612,11 +8547,11 @@
     </row>
     <row r="58" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D58" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Dishwasher</v>
+        <v>building_characteristics_report.cooking_range</v>
       </c>
       <c r="F58" s="48" t="s">
         <v>244</v>
@@ -8633,11 +8568,11 @@
     </row>
     <row r="59" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D59" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Clothes Washer</v>
+        <v>building_characteristics_report.dishwasher</v>
       </c>
       <c r="F59" s="48" t="s">
         <v>244</v>
@@ -8654,11 +8589,11 @@
     </row>
     <row r="60" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D60" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Clothes Dryer</v>
+        <v>building_characteristics_report.clothes_washer</v>
       </c>
       <c r="F60" s="48" t="s">
         <v>244</v>
@@ -8675,11 +8610,11 @@
     </row>
     <row r="61" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="D61" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Lighting</v>
+        <v>building_characteristics_report.clothes_dryer</v>
       </c>
       <c r="F61" s="48" t="s">
         <v>244</v>
@@ -8696,11 +8631,11 @@
     </row>
     <row r="62" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="D62" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Plug Loads</v>
+        <v>building_characteristics_report.lighting</v>
       </c>
       <c r="F62" s="48" t="s">
         <v>244</v>
@@ -8717,11 +8652,11 @@
     </row>
     <row r="63" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D63" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Misc Extra Refrigerator</v>
+        <v>building_characteristics_report.plug_loads</v>
       </c>
       <c r="F63" s="48" t="s">
         <v>244</v>
@@ -8738,11 +8673,11 @@
     </row>
     <row r="64" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D64" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Misc Freezer</v>
+        <v>building_characteristics_report.misc_extra_refrigerator</v>
       </c>
       <c r="F64" s="48" t="s">
         <v>244</v>
@@ -8759,11 +8694,11 @@
     </row>
     <row r="65" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D65" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Misc Gas Fireplace</v>
+        <v>building_characteristics_report.misc_freezer</v>
       </c>
       <c r="F65" s="48" t="s">
         <v>244</v>
@@ -8780,11 +8715,11 @@
     </row>
     <row r="66" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D66" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Misc Gas Grill</v>
+        <v>building_characteristics_report.misc_gas_fireplace</v>
       </c>
       <c r="F66" s="48" t="s">
         <v>244</v>
@@ -8801,11 +8736,11 @@
     </row>
     <row r="67" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D67" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Misc Gas Lighting</v>
+        <v>building_characteristics_report.misc_gas_grill</v>
       </c>
       <c r="F67" s="48" t="s">
         <v>244</v>
@@ -8822,11 +8757,11 @@
     </row>
     <row r="68" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D68" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Misc Hot Tub Spa</v>
+        <v>building_characteristics_report.misc_gas_lighting</v>
       </c>
       <c r="F68" s="48" t="s">
         <v>244</v>
@@ -8843,11 +8778,11 @@
     </row>
     <row r="69" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D69" s="48" t="str">
-        <f t="shared" ref="D69:D74" si="1">"building_characteristics_report."&amp;A69</f>
-        <v>building_characteristics_report.Misc Pool</v>
+        <f t="shared" ref="D69:D75" si="1">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A69," ","_"))</f>
+        <v>building_characteristics_report.misc_hot_tub_spa</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>244</v>
@@ -8864,11 +8799,11 @@
     </row>
     <row r="70" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D70" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.Misc Well Pump</v>
+        <v>building_characteristics_report.misc_pool</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>244</v>
@@ -8885,11 +8820,11 @@
     </row>
     <row r="71" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D71" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.Ducts</v>
+        <v>building_characteristics_report.misc_well_pump</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>244</v>
@@ -8906,11 +8841,11 @@
     </row>
     <row r="72" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D72" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.Infiltration</v>
+        <v>building_characteristics_report.ducts</v>
       </c>
       <c r="F72" s="48" t="s">
         <v>244</v>
@@ -8927,11 +8862,11 @@
     </row>
     <row r="73" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D73" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.Natural Ventilation</v>
+        <v>building_characteristics_report.infiltration</v>
       </c>
       <c r="F73" s="48" t="s">
         <v>244</v>
@@ -8948,11 +8883,11 @@
     </row>
     <row r="74" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D74" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.Mechanical Ventilation</v>
+        <v>building_characteristics_report.natural_ventilation</v>
       </c>
       <c r="F74" s="48" t="s">
         <v>244</v>
@@ -8967,35 +8902,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="G75" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" s="14" t="b">
+    <row r="75" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="D75" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.mechanical_ventilation</v>
+      </c>
+      <c r="F75" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G75" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" s="48" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>341</v>
+        <v>245</v>
+      </c>
+      <c r="D76" s="14" t="str">
+        <f>"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A76," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
+        <v>simulation_output_report.total_site_energy_m_btu</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G76" s="14" t="b">
         <v>0</v>
@@ -9009,13 +8946,14 @@
     </row>
     <row r="77" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>342</v>
+        <v>246</v>
+      </c>
+      <c r="D77" s="14" t="str">
+        <f t="shared" ref="D77:D97" si="2">"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A77," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
+        <v>simulation_output_report.total_site_electricity_k_wh</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G77" s="14" t="b">
         <v>0</v>
@@ -9029,13 +8967,14 @@
     </row>
     <row r="78" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="D78" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D78" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.total_site_natural_gas_therm</v>
+      </c>
+      <c r="F78" s="14" t="s">
         <v>343</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>361</v>
       </c>
       <c r="G78" s="14" t="b">
         <v>0</v>
@@ -9049,13 +8988,14 @@
     </row>
     <row r="79" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
-        <v>249</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>344</v>
+        <v>248</v>
+      </c>
+      <c r="D79" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.total_site_other_fuel_m_btu</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G79" s="14" t="b">
         <v>0</v>
@@ -9069,13 +9009,14 @@
     </row>
     <row r="80" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>345</v>
+        <v>249</v>
+      </c>
+      <c r="D80" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.electricity_heating_k_wh</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G80" s="14" t="b">
         <v>0</v>
@@ -9089,13 +9030,14 @@
     </row>
     <row r="81" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49" t="s">
-        <v>251</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>346</v>
+        <v>250</v>
+      </c>
+      <c r="D81" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.electricity_cooling_k_wh</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G81" s="14" t="b">
         <v>0</v>
@@ -9109,13 +9051,14 @@
     </row>
     <row r="82" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>347</v>
+        <v>251</v>
+      </c>
+      <c r="D82" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.electricity_interior_lighting_k_wh</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G82" s="14" t="b">
         <v>0</v>
@@ -9129,13 +9072,14 @@
     </row>
     <row r="83" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>348</v>
+        <v>252</v>
+      </c>
+      <c r="D83" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.electricity_exterior_lighting_k_wh</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G83" s="14" t="b">
         <v>0</v>
@@ -9149,13 +9093,14 @@
     </row>
     <row r="84" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>349</v>
+        <v>253</v>
+      </c>
+      <c r="D84" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.electricity_interior_equipment_k_wh</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G84" s="14" t="b">
         <v>0</v>
@@ -9169,13 +9114,14 @@
     </row>
     <row r="85" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>350</v>
+        <v>254</v>
+      </c>
+      <c r="D85" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.electricity_fans_k_wh</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G85" s="14" t="b">
         <v>0</v>
@@ -9189,33 +9135,35 @@
     </row>
     <row r="86" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D86" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.electricity_pumps_k_wh</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G86" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="G86" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>352</v>
+      <c r="D87" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.electricity_water_systems_k_wh</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G87" s="14" t="b">
         <v>0</v>
@@ -9229,13 +9177,14 @@
     </row>
     <row r="88" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>353</v>
+        <v>257</v>
+      </c>
+      <c r="D88" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.natural_gas_heating_therm</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G88" s="14" t="b">
         <v>0</v>
@@ -9249,13 +9198,14 @@
     </row>
     <row r="89" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>354</v>
+        <v>258</v>
+      </c>
+      <c r="D89" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.natural_gas_interior_equipment_therm</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G89" s="14" t="b">
         <v>0</v>
@@ -9269,13 +9219,14 @@
     </row>
     <row r="90" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>355</v>
+        <v>259</v>
+      </c>
+      <c r="D90" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.natural_gas_water_systems_therm</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G90" s="14" t="b">
         <v>0</v>
@@ -9289,13 +9240,14 @@
     </row>
     <row r="91" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>356</v>
+        <v>260</v>
+      </c>
+      <c r="D91" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.other_fuel_heating_m_btu</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G91" s="14" t="b">
         <v>0</v>
@@ -9309,13 +9261,14 @@
     </row>
     <row r="92" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>357</v>
+        <v>261</v>
+      </c>
+      <c r="D92" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.other_fuel_interior_equipment_m_btu</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G92" s="14" t="b">
         <v>0</v>
@@ -9329,13 +9282,14 @@
     </row>
     <row r="93" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>369</v>
+        <v>262</v>
+      </c>
+      <c r="D93" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.other_fuel_water_systems_m_btu</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G93" s="14" t="b">
         <v>0</v>
@@ -9346,20 +9300,17 @@
       <c r="I93" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49"/>
-      <c r="L93" s="49"/>
-      <c r="M93" s="49"/>
     </row>
     <row r="94" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>371</v>
+        <v>350</v>
+      </c>
+      <c r="D94" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.hours_heating_setpoint_not_met</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G94" s="14" t="b">
         <v>0</v>
@@ -9376,14 +9327,15 @@
       <c r="M94" s="49"/>
     </row>
     <row r="95" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="49" t="s">
-        <v>373</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>375</v>
+      <c r="A95" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="D95" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.hours_cooling_setpoint_not_met</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G95" s="14" t="b">
         <v>0</v>
@@ -9394,16 +9346,21 @@
       <c r="I95" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="49"/>
     </row>
     <row r="96" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="49" t="s">
-        <v>374</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>376</v>
+        <v>353</v>
+      </c>
+      <c r="D96" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.hvac_cooling_capacity_w</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G96" s="14" t="b">
         <v>0</v>
@@ -9415,14 +9372,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="B97" s="21"/>
-      <c r="D97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
+    <row r="97" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="D97" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.hvac_heating_capacity_w</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G97" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" s="14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
@@ -9676,12 +9645,10 @@
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="B126" s="21"/>
-      <c r="C126" s="22"/>
       <c r="D126" s="15"/>
-      <c r="E126" s="22"/>
       <c r="F126" s="15"/>
       <c r="G126" s="15"/>
       <c r="H126" s="15"/>
@@ -9741,6 +9708,17 @@
       <c r="G131" s="15"/>
       <c r="H131" s="15"/>
       <c r="I131" s="15"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="15"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="396">
   <si>
     <t>type</t>
   </si>
@@ -1192,6 +1192,36 @@
   </si>
   <si>
     <t>Ceiling Fan</t>
+  </si>
+  <si>
+    <t>Option 1 Cost 1 Multiplier</t>
+  </si>
+  <si>
+    <t>Option 1 Cost 1 Value</t>
+  </si>
+  <si>
+    <t>Above-Grade Conditioned Wall Area (ft^2)</t>
+  </si>
+  <si>
+    <t>Window Area (ft^2)</t>
+  </si>
+  <si>
+    <t>Lighting Floor Area (ft^2)</t>
+  </si>
+  <si>
+    <t>Option 2 Cost 1 Value</t>
+  </si>
+  <si>
+    <t>Option 2 Cost 1 Multiplier</t>
+  </si>
+  <si>
+    <t>Option 3 Cost 1 Value</t>
+  </si>
+  <si>
+    <t>Option 3 Cost 1 Multiplier</t>
+  </si>
+  <si>
+    <t>Upgrade Cost</t>
   </si>
 </sst>
 </file>
@@ -3320,7 +3350,7 @@
     <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3422,6 +3452,9 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5398,7 +5431,7 @@
         <v>66</v>
       </c>
       <c r="B9" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="23" t="s">
@@ -5406,7 +5439,7 @@
       </c>
       <c r="E9" s="23" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$5.04/hour</v>
+        <v>$8.4/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>201</v>
@@ -5774,18 +5807,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="22" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
@@ -5797,7 +5828,8 @@
     <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" style="1"/>
-    <col min="17" max="18" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" style="1"/>
     <col min="20" max="20" width="46.140625" style="1" customWidth="1"/>
     <col min="21" max="23" width="11.42578125" style="1"/>
@@ -5832,14 +5864,14 @@
       <c r="R1" s="30"/>
       <c r="S1" s="27"/>
       <c r="T1" s="27"/>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -6130,7 +6162,7 @@
     </row>
     <row r="8" spans="1:26" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="52" t="s">
         <v>371</v>
@@ -6210,7 +6242,7 @@
         <v>362</v>
       </c>
       <c r="E10" s="10" t="str">
-        <f t="shared" ref="E10:E11" si="0">LOWER(SUBSTITUTE(D10," ","_"))</f>
+        <f t="shared" ref="E10:E13" si="0">LOWER(SUBSTITUTE(D10," ","_"))</f>
         <v>option_1</v>
       </c>
       <c r="F10" s="10"/>
@@ -6278,227 +6310,233 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="39" t="s">
+    <row r="12" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>option_1_cost_1_value</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="55">
+        <v>2.21</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+    </row>
+    <row r="13" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>option_1_cost_1_multiplier</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+    </row>
+    <row r="14" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C14" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D14" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E14" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-    </row>
-    <row r="13" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+    </row>
+    <row r="15" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="D13" s="45" t="str">
-        <f>"Run " &amp; B12</f>
+      <c r="D15" s="45" t="str">
+        <f>"Run " &amp; B14</f>
         <v>Run Triple-Pane Windows Upgrade (If Single-Pane)</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E15" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G15" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I15" s="45">
         <v>1</v>
       </c>
-      <c r="K13" s="45">
-        <v>0</v>
-      </c>
-      <c r="L13" s="45">
+      <c r="K15" s="45">
+        <v>0</v>
+      </c>
+      <c r="L15" s="45">
         <v>1</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M15" s="45">
         <v>1</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N15" s="45">
         <v>1</v>
       </c>
-      <c r="P13" s="45" t="s">
+      <c r="P15" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="R13" s="45" t="s">
+      <c r="R15" s="45" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
+    <row r="16" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="E14" s="10" t="str">
-        <f>LOWER(SUBSTITUTE(D14," ","_"))</f>
+      <c r="E16" s="10" t="str">
+        <f>LOWER(SUBSTITUTE(D16," ","_"))</f>
         <v>option_1</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-    </row>
-    <row r="15" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10" t="s">
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+    </row>
+    <row r="17" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="E15" s="10" t="str">
-        <f t="shared" ref="E15" si="1">LOWER(SUBSTITUTE(D15," ","_"))</f>
+      <c r="E17" s="10" t="str">
+        <f t="shared" ref="E17:E19" si="1">LOWER(SUBSTITUTE(D17," ","_"))</f>
         <v>option_1_apply_logic</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-    </row>
-    <row r="16" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-    </row>
-    <row r="17" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="45" t="str">
-        <f>"Run " &amp; B16</f>
-        <v>Run LED Lighting Upgrade</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="I17" s="45">
-        <v>1</v>
-      </c>
-      <c r="K17" s="45">
-        <v>0</v>
-      </c>
-      <c r="L17" s="45">
-        <v>1</v>
-      </c>
-      <c r="M17" s="45">
-        <v>1</v>
-      </c>
-      <c r="N17" s="45">
-        <v>1</v>
-      </c>
-      <c r="P17" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="R17" s="45" t="s">
-        <v>271</v>
-      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
     </row>
     <row r="18" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -6507,19 +6545,19 @@
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="E18" s="10" t="str">
-        <f>LOWER(SUBSTITUTE(D18," ","_"))</f>
-        <v>option_1</v>
+        <f t="shared" si="1"/>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H18" s="10"/>
-      <c r="I18" s="10" t="s">
-        <v>364</v>
+      <c r="I18" s="55">
+        <v>39.54</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -6539,116 +6577,116 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="C19" s="39" t="s">
+    <row r="19" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>option_1_cost_1_multiplier</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+    </row>
+    <row r="20" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D20" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E20" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-    </row>
-    <row r="20" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+    </row>
+    <row r="21" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="D20" s="45" t="str">
-        <f>"Run " &amp; B19</f>
-        <v>Run Upgrade Package (Allow Individual Options)</v>
-      </c>
-      <c r="E20" s="45" t="s">
+      <c r="D21" s="45" t="str">
+        <f>"Run " &amp; B20</f>
+        <v>Run LED Lighting Upgrade</v>
+      </c>
+      <c r="E21" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G21" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I21" s="45">
         <v>1</v>
       </c>
-      <c r="K20" s="45">
-        <v>0</v>
-      </c>
-      <c r="L20" s="45">
+      <c r="K21" s="45">
+        <v>0</v>
+      </c>
+      <c r="L21" s="45">
         <v>1</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M21" s="45">
         <v>1</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N21" s="45">
         <v>1</v>
       </c>
-      <c r="P20" s="45" t="s">
+      <c r="P21" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="R20" s="45" t="s">
+      <c r="R21" s="45" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="E21" s="10" t="str">
-        <f t="shared" ref="E21:E25" si="2">LOWER(SUBSTITUTE(D21," ","_"))</f>
-        <v>option_1</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -6657,11 +6695,11 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E22" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>option_1_apply_logic</v>
+        <f>LOWER(SUBSTITUTE(D22," ","_"))</f>
+        <v>option_1</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
@@ -6669,7 +6707,7 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -6696,19 +6734,19 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="E23" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>option_2</v>
+        <f t="shared" ref="E23:E24" si="2">LOWER(SUBSTITUTE(D23," ","_"))</f>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H23" s="10"/>
-      <c r="I23" s="10" t="s">
-        <v>363</v>
+      <c r="I23" s="55">
+        <v>0.09</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -6735,11 +6773,11 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="E24" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>option_2_apply_logic</v>
+        <v>option_1_cost_1_multiplier</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
@@ -6747,7 +6785,7 @@
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -6767,116 +6805,116 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10" t="s">
+    <row r="25" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+    </row>
+    <row r="26" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="45" t="str">
+        <f>"Run " &amp; B25</f>
+        <v>Run Upgrade Package (Allow Individual Options)</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="I26" s="45">
+        <v>1</v>
+      </c>
+      <c r="K26" s="45">
+        <v>0</v>
+      </c>
+      <c r="L26" s="45">
+        <v>1</v>
+      </c>
+      <c r="M26" s="45">
+        <v>1</v>
+      </c>
+      <c r="N26" s="45">
+        <v>1</v>
+      </c>
+      <c r="P26" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="R26" s="45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="E25" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>option_3</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E27" s="10" t="str">
+        <f t="shared" ref="E27:E37" si="3">LOWER(SUBSTITUTE(D27," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-    </row>
-    <row r="26" spans="1:26" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-    </row>
-    <row r="27" spans="1:26" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" s="53" t="str">
-        <f>"Run " &amp; B26</f>
-        <v>Run Upgrade Package (All or None)</v>
-      </c>
-      <c r="E27" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="I27" s="53">
-        <v>1</v>
-      </c>
-      <c r="K27" s="53">
-        <v>0</v>
-      </c>
-      <c r="L27" s="53">
-        <v>1</v>
-      </c>
-      <c r="M27" s="53">
-        <v>1</v>
-      </c>
-      <c r="N27" s="53">
-        <v>1</v>
-      </c>
-      <c r="P27" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="R27" s="53" t="s">
-        <v>271</v>
-      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
@@ -6885,11 +6923,11 @@
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E28" s="10" t="str">
-        <f t="shared" ref="E28:E31" si="3">LOWER(SUBSTITUTE(D28," ","_"))</f>
-        <v>option_1</v>
+        <f t="shared" si="3"/>
+        <v>option_1_apply_logic</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
@@ -6897,7 +6935,7 @@
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -6924,19 +6962,19 @@
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="E29" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>option_2</v>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H29" s="10"/>
-      <c r="I29" s="10" t="s">
-        <v>363</v>
+      <c r="I29" s="55">
+        <v>2.21</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -6963,11 +7001,11 @@
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="E30" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>option_3</v>
+        <v>option_1_cost_1_multiplier</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
@@ -6975,7 +7013,7 @@
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -7002,11 +7040,11 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="E31" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>package_apply_logic</v>
+        <v>option_2</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
@@ -7014,7 +7052,7 @@
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -7034,119 +7072,815 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="b">
+    <row r="32" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="E32" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>option_2_apply_logic</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+    </row>
+    <row r="33" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="E33" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>option_2_cost_1_value</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="55">
+        <v>39.54</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+    </row>
+    <row r="34" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E34" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>option_2_cost_1_multiplier</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+    </row>
+    <row r="35" spans="1:26" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E35" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>option_3</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+    </row>
+    <row r="36" spans="1:26" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E36" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>option_3_cost_1_value</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="55">
+        <v>0.09</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+    </row>
+    <row r="37" spans="1:26" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="E37" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>option_3_cost_1_multiplier</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+    </row>
+    <row r="38" spans="1:26" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B38" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+    </row>
+    <row r="39" spans="1:26" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" s="53" t="str">
+        <f>"Run " &amp; B38</f>
+        <v>Run Upgrade Package (All or None)</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="I39" s="53">
+        <v>1</v>
+      </c>
+      <c r="K39" s="53">
+        <v>0</v>
+      </c>
+      <c r="L39" s="53">
+        <v>1</v>
+      </c>
+      <c r="M39" s="53">
+        <v>1</v>
+      </c>
+      <c r="N39" s="53">
+        <v>1</v>
+      </c>
+      <c r="P39" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="R39" s="53" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E40" s="10" t="str">
+        <f t="shared" ref="E40:E49" si="4">LOWER(SUBSTITUTE(D40," ","_"))</f>
+        <v>option_1</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+    </row>
+    <row r="41" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E41" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>option_1_cost_1_value</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="55">
+        <v>2.21</v>
+      </c>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+    </row>
+    <row r="42" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E42" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>option_1_cost_1_multiplier</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+    </row>
+    <row r="43" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E43" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>option_2</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+    </row>
+    <row r="44" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="E44" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>option_2_cost_1_value</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H44" s="10"/>
+      <c r="I44" s="55">
+        <v>39.54</v>
+      </c>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+    </row>
+    <row r="45" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E45" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>option_2_cost_1_multiplier</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+    </row>
+    <row r="46" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E46" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>option_3</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+    </row>
+    <row r="47" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E47" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>option_3_cost_1_value</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="55">
+        <v>0.09</v>
+      </c>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+    </row>
+    <row r="48" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="E48" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>option_3_cost_1_multiplier</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+    </row>
+    <row r="49" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E49" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>package_apply_logic</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+    </row>
+    <row r="50" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+    </row>
+    <row r="51" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B51" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C51" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D51" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E51" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-    </row>
-    <row r="33" spans="1:24" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="b">
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+    </row>
+    <row r="52" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="B33" s="40" t="s">
-        <v>338</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="E33" s="40" t="s">
+      <c r="B52" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-    </row>
-    <row r="34" spans="1:24" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B35" s="50"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B36" s="50"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B53" s="50"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B54" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>
@@ -7278,630 +8012,508 @@
       </c>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>360</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48" t="str">
-        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A4," ","_"))</f>
-        <v>building_characteristics_report.location_heating_region</v>
-      </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48" t="s">
+    <row r="4" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" s="14" t="str">
+        <f t="shared" ref="D4" si="0">"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A4," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
+        <v>simulation_output_report.upgrade_cost</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="G4" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-    </row>
-    <row r="5" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48" t="str">
-        <f t="shared" ref="D5:D68" si="0">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A5," ","_"))</f>
-        <v>building_characteristics_report.location_cooling_region</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G5" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-    </row>
-    <row r="6" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.location_epw</v>
-      </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G6" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-    </row>
-    <row r="7" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.vintage</v>
-      </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G7" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-    </row>
-    <row r="8" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.heating_fuel</v>
-      </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G8" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-    </row>
-    <row r="9" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.usage_level</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-    </row>
-    <row r="10" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.geometry_foundation_type</v>
-      </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G10" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-    </row>
-    <row r="11" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.geometry_heated_basement</v>
-      </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G11" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-    </row>
-    <row r="12" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.geometry_house_size</v>
-      </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G12" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-    </row>
-    <row r="13" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.geometry_stories</v>
-      </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G13" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-    </row>
-    <row r="14" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.geometry_garage</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G14" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-    </row>
-    <row r="15" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.occupants</v>
-      </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G15" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-    </row>
-    <row r="16" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.orientation</v>
-      </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G16" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-    </row>
-    <row r="17" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>289</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.eaves</v>
-      </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G17" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-    </row>
-    <row r="18" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.overhangs</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G18" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-    </row>
-    <row r="19" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="D19" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.door_area</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G19" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="D20" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.window_areas</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G20" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.neighbors</v>
-      </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G21" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-    </row>
-    <row r="22" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.insulation_unfinished_attic</v>
-      </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G22" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-    </row>
-    <row r="23" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.insulation_wall</v>
-      </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G23" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-    </row>
-    <row r="24" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.insulation_slab</v>
-      </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G24" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-    </row>
-    <row r="25" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="D25" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.insulation_crawlspace</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G25" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="D26" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.insulation_unfinished_basement</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G26" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="48" t="b">
+      <c r="G4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="14" t="str">
+        <f>"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A5," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
+        <v>simulation_output_report.total_site_energy_m_btu</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="14" t="str">
+        <f t="shared" ref="D6:D26" si="1">"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A6," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
+        <v>simulation_output_report.total_site_electricity_k_wh</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.total_site_natural_gas_therm</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.total_site_other_fuel_m_btu</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.electricity_heating_k_wh</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G9" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.electricity_cooling_k_wh</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.electricity_interior_lighting_k_wh</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.electricity_exterior_lighting_k_wh</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.electricity_interior_equipment_k_wh</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.electricity_fans_k_wh</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.electricity_pumps_k_wh</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.electricity_water_systems_k_wh</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.natural_gas_heating_therm</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G17" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.natural_gas_interior_equipment_therm</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G18" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.natural_gas_water_systems_therm</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G19" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.other_fuel_heating_m_btu</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G20" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.other_fuel_interior_equipment_m_btu</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G21" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.other_fuel_water_systems_m_btu</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G22" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.hours_heating_setpoint_not_met</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G23" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+    </row>
+    <row r="24" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.hours_cooling_setpoint_not_met</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G24" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+    </row>
+    <row r="25" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="D25" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.hvac_cooling_capacity_w</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G25" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="D26" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>simulation_output_report.hvac_heating_capacity_w</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G26" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
-        <v>298</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.insulation_finished_basement</v>
-      </c>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A27," ","_"))</f>
+        <v>building_characteristics_report.location_heating_region</v>
+      </c>
+      <c r="E27" s="48"/>
       <c r="F27" s="48" t="s">
         <v>244</v>
       </c>
@@ -7914,15 +8526,22 @@
       <c r="I27" s="48" t="b">
         <v>0</v>
       </c>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
     </row>
     <row r="28" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
-        <v>299</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.insulation_interzonal_floor</v>
-      </c>
+        <f t="shared" ref="D28:D91" si="2">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A28," ","_"))</f>
+        <v>building_characteristics_report.location_cooling_region</v>
+      </c>
+      <c r="E28" s="48"/>
       <c r="F28" s="48" t="s">
         <v>244</v>
       </c>
@@ -7935,15 +8554,22 @@
       <c r="I28" s="48" t="b">
         <v>0</v>
       </c>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
     </row>
     <row r="29" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.uninsulated_surfaces</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.location_epw</v>
+      </c>
+      <c r="E29" s="48"/>
       <c r="F29" s="48" t="s">
         <v>244</v>
       </c>
@@ -7956,15 +8582,22 @@
       <c r="I29" s="48" t="b">
         <v>0</v>
       </c>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
     </row>
     <row r="30" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>301</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.roof_sheathing</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.vintage</v>
+      </c>
+      <c r="E30" s="48"/>
       <c r="F30" s="48" t="s">
         <v>244</v>
       </c>
@@ -7977,15 +8610,22 @@
       <c r="I30" s="48" t="b">
         <v>0</v>
       </c>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
     </row>
     <row r="31" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
-        <v>302</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.wall_sheathing</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.heating_fuel</v>
+      </c>
+      <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
         <v>244</v>
       </c>
@@ -7998,15 +8638,22 @@
       <c r="I31" s="48" t="b">
         <v>0</v>
       </c>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
     </row>
     <row r="32" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>303</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.floor_sheathing</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.usage_level</v>
+      </c>
+      <c r="E32" s="48"/>
       <c r="F32" s="48" t="s">
         <v>244</v>
       </c>
@@ -8019,15 +8666,22 @@
       <c r="I32" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+    </row>
+    <row r="33" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.exterior_finish</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.geometry_foundation_type</v>
+      </c>
+      <c r="E33" s="48"/>
       <c r="F33" s="48" t="s">
         <v>244</v>
       </c>
@@ -8040,15 +8694,22 @@
       <c r="I33" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+    </row>
+    <row r="34" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>305</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.roof_material</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.geometry_heated_basement</v>
+      </c>
+      <c r="E34" s="48"/>
       <c r="F34" s="48" t="s">
         <v>244</v>
       </c>
@@ -8061,15 +8722,22 @@
       <c r="I34" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+    </row>
+    <row r="35" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>306</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.floor_covering</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.geometry_house_size</v>
+      </c>
+      <c r="E35" s="48"/>
       <c r="F35" s="48" t="s">
         <v>244</v>
       </c>
@@ -8082,15 +8750,22 @@
       <c r="I35" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+    </row>
+    <row r="36" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>307</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.thermal_mass_floor</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.geometry_stories</v>
+      </c>
+      <c r="E36" s="48"/>
       <c r="F36" s="48" t="s">
         <v>244</v>
       </c>
@@ -8103,15 +8778,22 @@
       <c r="I36" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+    </row>
+    <row r="37" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>308</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.thermal_mass_exterior_wall</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.geometry_garage</v>
+      </c>
+      <c r="E37" s="48"/>
       <c r="F37" s="48" t="s">
         <v>244</v>
       </c>
@@ -8124,15 +8806,22 @@
       <c r="I37" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+    </row>
+    <row r="38" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>309</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.thermal_mass_partition_wall</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.occupants</v>
+      </c>
+      <c r="E38" s="48"/>
       <c r="F38" s="48" t="s">
         <v>244</v>
       </c>
@@ -8145,15 +8834,22 @@
       <c r="I38" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+    </row>
+    <row r="39" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>310</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.thermal_mass_ceiling</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.orientation</v>
+      </c>
+      <c r="E39" s="48"/>
       <c r="F39" s="48" t="s">
         <v>244</v>
       </c>
@@ -8166,15 +8862,22 @@
       <c r="I39" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+    </row>
+    <row r="40" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
-        <v>311</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.thermal_mass_furniture</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.eaves</v>
+      </c>
+      <c r="E40" s="48"/>
       <c r="F40" s="48" t="s">
         <v>244</v>
       </c>
@@ -8187,15 +8890,22 @@
       <c r="I40" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+    </row>
+    <row r="41" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>312</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.doors</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.overhangs</v>
+      </c>
+      <c r="E41" s="48"/>
       <c r="F41" s="48" t="s">
         <v>244</v>
       </c>
@@ -8208,14 +8918,18 @@
       <c r="I41" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+    </row>
+    <row r="42" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="D42" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.windows</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.door_area</v>
       </c>
       <c r="F42" s="48" t="s">
         <v>244</v>
@@ -8230,13 +8944,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="D43" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.water_heater</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.window_areas</v>
       </c>
       <c r="F43" s="48" t="s">
         <v>244</v>
@@ -8251,14 +8965,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>314</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
       <c r="D44" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hot_water_fixtures</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.neighbors</v>
+      </c>
+      <c r="E44" s="48"/>
       <c r="F44" s="48" t="s">
         <v>244</v>
       </c>
@@ -8271,15 +8988,22 @@
       <c r="I44" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+    </row>
+    <row r="45" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>348</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hot_water_distribution</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.insulation_unfinished_attic</v>
+      </c>
+      <c r="E45" s="48"/>
       <c r="F45" s="48" t="s">
         <v>244</v>
       </c>
@@ -8292,15 +9016,22 @@
       <c r="I45" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+    </row>
+    <row r="46" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>315</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hvac_system_is_combined</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.insulation_wall</v>
+      </c>
+      <c r="E46" s="48"/>
       <c r="F46" s="48" t="s">
         <v>244</v>
       </c>
@@ -8313,15 +9044,22 @@
       <c r="I46" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+    </row>
+    <row r="47" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>316</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
       <c r="D47" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hvac_system_combined</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.insulation_slab</v>
+      </c>
+      <c r="E47" s="48"/>
       <c r="F47" s="48" t="s">
         <v>244</v>
       </c>
@@ -8334,14 +9072,18 @@
       <c r="I47" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+    </row>
+    <row r="48" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>379</v>
+        <v>296</v>
       </c>
       <c r="D48" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hvac_system_heating_electricity</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.insulation_crawlspace</v>
       </c>
       <c r="F48" s="48" t="s">
         <v>244</v>
@@ -8358,11 +9100,11 @@
     </row>
     <row r="49" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="D49" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hvac_system_heating_fuel_oil</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.insulation_unfinished_basement</v>
       </c>
       <c r="F49" s="48" t="s">
         <v>244</v>
@@ -8379,11 +9121,11 @@
     </row>
     <row r="50" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>381</v>
+        <v>298</v>
       </c>
       <c r="D50" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hvac_system_heating_natural_gas</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.insulation_finished_basement</v>
       </c>
       <c r="F50" s="48" t="s">
         <v>244</v>
@@ -8400,11 +9142,11 @@
     </row>
     <row r="51" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="D51" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hvac_system_heating_propane</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.insulation_interzonal_floor</v>
       </c>
       <c r="F51" s="48" t="s">
         <v>244</v>
@@ -8421,11 +9163,11 @@
     </row>
     <row r="52" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>383</v>
+        <v>300</v>
       </c>
       <c r="D52" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hvac_system_heating_wood</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.uninsulated_surfaces</v>
       </c>
       <c r="F52" s="48" t="s">
         <v>244</v>
@@ -8442,11 +9184,11 @@
     </row>
     <row r="53" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D53" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hvac_system_cooling</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.roof_sheathing</v>
       </c>
       <c r="F53" s="48" t="s">
         <v>244</v>
@@ -8463,11 +9205,11 @@
     </row>
     <row r="54" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="D54" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.heating_setpoint</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.wall_sheathing</v>
       </c>
       <c r="F54" s="48" t="s">
         <v>244</v>
@@ -8484,11 +9226,11 @@
     </row>
     <row r="55" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D55" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.cooling_setpoint</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.floor_sheathing</v>
       </c>
       <c r="F55" s="48" t="s">
         <v>244</v>
@@ -8505,11 +9247,11 @@
     </row>
     <row r="56" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>385</v>
+        <v>304</v>
       </c>
       <c r="D56" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.ceiling_fan</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.exterior_finish</v>
       </c>
       <c r="F56" s="48" t="s">
         <v>244</v>
@@ -8526,11 +9268,11 @@
     </row>
     <row r="57" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D57" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.refrigerator</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.roof_material</v>
       </c>
       <c r="F57" s="48" t="s">
         <v>244</v>
@@ -8547,11 +9289,11 @@
     </row>
     <row r="58" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D58" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.cooking_range</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.floor_covering</v>
       </c>
       <c r="F58" s="48" t="s">
         <v>244</v>
@@ -8568,11 +9310,11 @@
     </row>
     <row r="59" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="D59" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.dishwasher</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.thermal_mass_floor</v>
       </c>
       <c r="F59" s="48" t="s">
         <v>244</v>
@@ -8589,11 +9331,11 @@
     </row>
     <row r="60" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D60" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.clothes_washer</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.thermal_mass_exterior_wall</v>
       </c>
       <c r="F60" s="48" t="s">
         <v>244</v>
@@ -8610,11 +9352,11 @@
     </row>
     <row r="61" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="D61" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.clothes_dryer</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.thermal_mass_partition_wall</v>
       </c>
       <c r="F61" s="48" t="s">
         <v>244</v>
@@ -8631,11 +9373,11 @@
     </row>
     <row r="62" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="D62" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.lighting</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.thermal_mass_ceiling</v>
       </c>
       <c r="F62" s="48" t="s">
         <v>244</v>
@@ -8652,11 +9394,11 @@
     </row>
     <row r="63" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D63" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.plug_loads</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.thermal_mass_furniture</v>
       </c>
       <c r="F63" s="48" t="s">
         <v>244</v>
@@ -8673,11 +9415,11 @@
     </row>
     <row r="64" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D64" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.misc_extra_refrigerator</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.doors</v>
       </c>
       <c r="F64" s="48" t="s">
         <v>244</v>
@@ -8694,11 +9436,11 @@
     </row>
     <row r="65" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="D65" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.misc_freezer</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.windows</v>
       </c>
       <c r="F65" s="48" t="s">
         <v>244</v>
@@ -8715,11 +9457,11 @@
     </row>
     <row r="66" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="D66" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.misc_gas_fireplace</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.water_heater</v>
       </c>
       <c r="F66" s="48" t="s">
         <v>244</v>
@@ -8736,11 +9478,11 @@
     </row>
     <row r="67" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="D67" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.misc_gas_grill</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.hot_water_fixtures</v>
       </c>
       <c r="F67" s="48" t="s">
         <v>244</v>
@@ -8757,11 +9499,11 @@
     </row>
     <row r="68" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="D68" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.misc_gas_lighting</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.hot_water_distribution</v>
       </c>
       <c r="F68" s="48" t="s">
         <v>244</v>
@@ -8778,11 +9520,11 @@
     </row>
     <row r="69" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="D69" s="48" t="str">
-        <f t="shared" ref="D69:D75" si="1">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A69," ","_"))</f>
-        <v>building_characteristics_report.misc_hot_tub_spa</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.hvac_system_is_combined</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>244</v>
@@ -8799,11 +9541,11 @@
     </row>
     <row r="70" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D70" s="48" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_pool</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.hvac_system_combined</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>244</v>
@@ -8820,11 +9562,11 @@
     </row>
     <row r="71" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="D71" s="48" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_well_pump</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.hvac_system_heating_electricity</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>244</v>
@@ -8841,11 +9583,11 @@
     </row>
     <row r="72" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="D72" s="48" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.ducts</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.hvac_system_heating_fuel_oil</v>
       </c>
       <c r="F72" s="48" t="s">
         <v>244</v>
@@ -8862,11 +9604,11 @@
     </row>
     <row r="73" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="D73" s="48" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.infiltration</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.hvac_system_heating_natural_gas</v>
       </c>
       <c r="F73" s="48" t="s">
         <v>244</v>
@@ -8883,11 +9625,11 @@
     </row>
     <row r="74" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="D74" s="48" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.natural_ventilation</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.hvac_system_heating_propane</v>
       </c>
       <c r="F74" s="48" t="s">
         <v>244</v>
@@ -8904,11 +9646,11 @@
     </row>
     <row r="75" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="D75" s="48" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.mechanical_ventilation</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.hvac_system_heating_wood</v>
       </c>
       <c r="F75" s="48" t="s">
         <v>244</v>
@@ -8923,484 +9665,488 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="D76" s="14" t="str">
-        <f>"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A76," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
-        <v>simulation_output_report.total_site_energy_m_btu</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G76" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="D77" s="14" t="str">
-        <f t="shared" ref="D77:D97" si="2">"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A77," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
-        <v>simulation_output_report.total_site_electricity_k_wh</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G77" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="D78" s="14" t="str">
+    <row r="76" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="D76" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.total_site_natural_gas_therm</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G78" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="D79" s="14" t="str">
+        <v>building_characteristics_report.hvac_system_cooling</v>
+      </c>
+      <c r="F76" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G76" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="D77" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.total_site_other_fuel_m_btu</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G79" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="49" t="s">
-        <v>249</v>
-      </c>
-      <c r="D80" s="14" t="str">
+        <v>building_characteristics_report.heating_setpoint</v>
+      </c>
+      <c r="F77" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G77" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="D78" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.electricity_heating_k_wh</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G80" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="D81" s="14" t="str">
+        <v>building_characteristics_report.cooling_setpoint</v>
+      </c>
+      <c r="F78" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G78" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="D79" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.electricity_cooling_k_wh</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G81" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="49" t="s">
-        <v>251</v>
-      </c>
-      <c r="D82" s="14" t="str">
+        <v>building_characteristics_report.ceiling_fan</v>
+      </c>
+      <c r="F79" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G79" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="D80" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.electricity_interior_lighting_k_wh</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G82" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="D83" s="14" t="str">
+        <v>building_characteristics_report.refrigerator</v>
+      </c>
+      <c r="F80" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G80" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="D81" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.electricity_exterior_lighting_k_wh</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G83" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="D84" s="14" t="str">
+        <v>building_characteristics_report.cooking_range</v>
+      </c>
+      <c r="F81" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G81" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="D82" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.electricity_interior_equipment_k_wh</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G84" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="D85" s="14" t="str">
+        <v>building_characteristics_report.dishwasher</v>
+      </c>
+      <c r="F82" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G82" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="D83" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.electricity_fans_k_wh</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G85" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="D86" s="14" t="str">
+        <v>building_characteristics_report.clothes_washer</v>
+      </c>
+      <c r="F83" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G83" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="D84" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.electricity_pumps_k_wh</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G86" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="D87" s="14" t="str">
+        <v>building_characteristics_report.clothes_dryer</v>
+      </c>
+      <c r="F84" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G84" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D85" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.electricity_water_systems_k_wh</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G87" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D88" s="14" t="str">
+        <v>building_characteristics_report.lighting</v>
+      </c>
+      <c r="F85" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G85" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="D86" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.natural_gas_heating_therm</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G88" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="D89" s="14" t="str">
+        <v>building_characteristics_report.plug_loads</v>
+      </c>
+      <c r="F86" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G86" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="D87" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.natural_gas_interior_equipment_therm</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G89" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="D90" s="14" t="str">
+        <v>building_characteristics_report.misc_extra_refrigerator</v>
+      </c>
+      <c r="F87" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G87" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="D88" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.natural_gas_water_systems_therm</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G90" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="D91" s="14" t="str">
+        <v>building_characteristics_report.misc_freezer</v>
+      </c>
+      <c r="F88" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G88" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="D89" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.other_fuel_heating_m_btu</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G91" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="D92" s="14" t="str">
+        <v>building_characteristics_report.misc_gas_fireplace</v>
+      </c>
+      <c r="F89" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G89" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.other_fuel_interior_equipment_m_btu</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G92" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="D93" s="14" t="str">
+        <v>building_characteristics_report.misc_gas_grill</v>
+      </c>
+      <c r="F90" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G90" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D91" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.other_fuel_water_systems_m_btu</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G93" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="D94" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.hours_heating_setpoint_not_met</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G94" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" s="49"/>
-      <c r="K94" s="49"/>
-      <c r="L94" s="49"/>
-      <c r="M94" s="49"/>
-    </row>
-    <row r="95" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="D95" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.hours_cooling_setpoint_not_met</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G95" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="49"/>
-      <c r="K95" s="49"/>
-      <c r="L95" s="49"/>
-      <c r="M95" s="49"/>
-    </row>
-    <row r="96" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="49" t="s">
-        <v>353</v>
-      </c>
-      <c r="D96" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.hvac_cooling_capacity_w</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G96" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="49" t="s">
-        <v>354</v>
-      </c>
-      <c r="D97" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.hvac_heating_capacity_w</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G97" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
-      <c r="B98" s="21"/>
-      <c r="D98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
+        <v>building_characteristics_report.misc_gas_lighting</v>
+      </c>
+      <c r="F91" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G91" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="D92" s="48" t="str">
+        <f t="shared" ref="D92:D98" si="3">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A92," ","_"))</f>
+        <v>building_characteristics_report.misc_hot_tub_spa</v>
+      </c>
+      <c r="F92" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G92" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="D93" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>building_characteristics_report.misc_pool</v>
+      </c>
+      <c r="F93" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G93" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D94" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>building_characteristics_report.misc_well_pump</v>
+      </c>
+      <c r="F94" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G94" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D95" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>building_characteristics_report.ducts</v>
+      </c>
+      <c r="F95" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G95" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="D96" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>building_characteristics_report.infiltration</v>
+      </c>
+      <c r="F96" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G96" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="D97" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>building_characteristics_report.natural_ventilation</v>
+      </c>
+      <c r="F97" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G97" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="D98" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>building_characteristics_report.mechanical_ventilation</v>
+      </c>
+      <c r="F98" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G98" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" s="48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="398">
   <si>
     <t>type</t>
   </si>
@@ -1222,6 +1222,12 @@
   </si>
   <si>
     <t>Upgrade Cost</t>
+  </si>
+  <si>
+    <t>Number of Buildings Represented</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
 </sst>
 </file>
@@ -5431,7 +5437,7 @@
         <v>66</v>
       </c>
       <c r="B9" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="23" t="s">
@@ -5439,7 +5445,7 @@
       </c>
       <c r="E9" s="23" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$8.4/hour</v>
+        <v>$1.68/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>201</v>
@@ -5807,7 +5813,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -6071,205 +6077,205 @@
       <c r="W5" s="45"/>
       <c r="X5" s="45"/>
     </row>
-    <row r="6" spans="1:26" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="b">
+    <row r="6" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f t="shared" ref="E6" si="0">LOWER(SUBSTITUTE(D6," ","_"))</f>
+        <v>number_of_buildings_represented</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="55">
+        <v>4000000</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+    </row>
+    <row r="7" spans="1:26" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B7" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C7" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D7" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E7" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-    </row>
-    <row r="7" spans="1:26" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53" t="s">
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+    </row>
+    <row r="8" spans="1:26" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="E7" s="53" t="str">
-        <f>LOWER(SUBSTITUTE(D7," ","_"))</f>
+      <c r="E8" s="53" t="str">
+        <f>LOWER(SUBSTITUTE(D8," ","_"))</f>
         <v>always_run</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="F8" s="53"/>
+      <c r="G8" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53">
+      <c r="H8" s="53"/>
+      <c r="I8" s="53">
         <v>1</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53">
+      <c r="J8" s="53"/>
+      <c r="K8" s="53">
         <v>1</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L8" s="53">
         <v>1</v>
       </c>
-      <c r="M7" s="53">
+      <c r="M8" s="53">
         <v>1</v>
       </c>
-      <c r="N7" s="53">
+      <c r="N8" s="53">
         <v>1</v>
       </c>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53" t="s">
+      <c r="O8" s="53"/>
+      <c r="P8" s="53" t="s">
         <v>359</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53" t="s">
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-    </row>
-    <row r="8" spans="1:26" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="b">
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+    </row>
+    <row r="9" spans="1:26" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B9" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C9" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D9" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-    </row>
-    <row r="9" spans="1:26" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+    </row>
+    <row r="10" spans="1:26" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="D9" s="53" t="str">
-        <f>"Run " &amp; B8</f>
+      <c r="D10" s="53" t="str">
+        <f>"Run " &amp; B9</f>
         <v>Run R13 Wall Insulation Upgrade (If Uninsulated)</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E10" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G10" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I10" s="53">
         <v>1</v>
       </c>
-      <c r="K9" s="53">
-        <v>0</v>
-      </c>
-      <c r="L9" s="53">
+      <c r="K10" s="53">
+        <v>0</v>
+      </c>
+      <c r="L10" s="53">
         <v>1</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M10" s="53">
         <v>1</v>
       </c>
-      <c r="N9" s="53">
+      <c r="N10" s="53">
         <v>1</v>
       </c>
-      <c r="P9" s="53" t="s">
+      <c r="P10" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="R9" s="53" t="s">
+      <c r="R10" s="53" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="E10" s="10" t="str">
-        <f t="shared" ref="E10:E13" si="0">LOWER(SUBSTITUTE(D10," ","_"))</f>
-        <v>option_1</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
     </row>
     <row r="11" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
@@ -6278,11 +6284,11 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>option_1_apply_logic</v>
+        <f t="shared" ref="E11:E14" si="1">LOWER(SUBSTITUTE(D11," ","_"))</f>
+        <v>option_1</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
@@ -6290,7 +6296,7 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -6317,19 +6323,19 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="E12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>option_1_cost_1_value</v>
+        <f t="shared" si="1"/>
+        <v>option_1_apply_logic</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="55">
-        <v>2.21</v>
+      <c r="I12" s="10" t="s">
+        <v>373</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -6356,19 +6362,19 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>option_1_cost_1_multiplier</v>
+        <f t="shared" si="1"/>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="10" t="s">
-        <v>388</v>
+      <c r="I13" s="55">
+        <v>2.21</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -6388,116 +6394,116 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="b">
+    <row r="14" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>option_1_cost_1_multiplier</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+    </row>
+    <row r="15" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B15" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C15" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D15" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-    </row>
-    <row r="15" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+    </row>
+    <row r="16" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="D15" s="45" t="str">
-        <f>"Run " &amp; B14</f>
+      <c r="D16" s="45" t="str">
+        <f>"Run " &amp; B15</f>
         <v>Run Triple-Pane Windows Upgrade (If Single-Pane)</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E16" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G16" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I16" s="45">
         <v>1</v>
       </c>
-      <c r="K15" s="45">
-        <v>0</v>
-      </c>
-      <c r="L15" s="45">
+      <c r="K16" s="45">
+        <v>0</v>
+      </c>
+      <c r="L16" s="45">
         <v>1</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M16" s="45">
         <v>1</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N16" s="45">
         <v>1</v>
       </c>
-      <c r="P15" s="45" t="s">
+      <c r="P16" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="R16" s="45" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="E16" s="10" t="str">
-        <f>LOWER(SUBSTITUTE(D16," ","_"))</f>
-        <v>option_1</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -6506,11 +6512,11 @@
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E17" s="10" t="str">
-        <f t="shared" ref="E17:E19" si="1">LOWER(SUBSTITUTE(D17," ","_"))</f>
-        <v>option_1_apply_logic</v>
+        <f>LOWER(SUBSTITUTE(D17," ","_"))</f>
+        <v>option_1</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
@@ -6518,7 +6524,7 @@
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -6545,19 +6551,19 @@
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="E18" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>option_1_cost_1_value</v>
+        <f t="shared" ref="E18:E20" si="2">LOWER(SUBSTITUTE(D18," ","_"))</f>
+        <v>option_1_apply_logic</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H18" s="10"/>
-      <c r="I18" s="55">
-        <v>39.54</v>
+      <c r="I18" s="10" t="s">
+        <v>369</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -6584,19 +6590,19 @@
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E19" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>option_1_cost_1_multiplier</v>
+        <f t="shared" si="2"/>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H19" s="10"/>
-      <c r="I19" s="10" t="s">
-        <v>389</v>
+      <c r="I19" s="55">
+        <v>39.54</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -6616,116 +6622,116 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="b">
+    <row r="20" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>option_1_cost_1_multiplier</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+    </row>
+    <row r="21" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B21" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C21" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D21" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E21" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-    </row>
-    <row r="21" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="45" t="s">
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+    </row>
+    <row r="22" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="D21" s="45" t="str">
-        <f>"Run " &amp; B20</f>
+      <c r="D22" s="45" t="str">
+        <f>"Run " &amp; B21</f>
         <v>Run LED Lighting Upgrade</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E22" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G22" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I22" s="45">
         <v>1</v>
       </c>
-      <c r="K21" s="45">
-        <v>0</v>
-      </c>
-      <c r="L21" s="45">
+      <c r="K22" s="45">
+        <v>0</v>
+      </c>
+      <c r="L22" s="45">
         <v>1</v>
       </c>
-      <c r="M21" s="45">
+      <c r="M22" s="45">
         <v>1</v>
       </c>
-      <c r="N21" s="45">
+      <c r="N22" s="45">
         <v>1</v>
       </c>
-      <c r="P21" s="45" t="s">
+      <c r="P22" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="R21" s="45" t="s">
+      <c r="R22" s="45" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="E22" s="10" t="str">
-        <f>LOWER(SUBSTITUTE(D22," ","_"))</f>
-        <v>option_1</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
     </row>
     <row r="23" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
@@ -6734,19 +6740,19 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="E23" s="10" t="str">
-        <f t="shared" ref="E23:E24" si="2">LOWER(SUBSTITUTE(D23," ","_"))</f>
-        <v>option_1_cost_1_value</v>
+        <f>LOWER(SUBSTITUTE(D23," ","_"))</f>
+        <v>option_1</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H23" s="10"/>
-      <c r="I23" s="55">
-        <v>0.09</v>
+      <c r="I23" s="10" t="s">
+        <v>364</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -6773,19 +6779,19 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E24" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>option_1_cost_1_multiplier</v>
+        <f t="shared" ref="E24:E25" si="3">LOWER(SUBSTITUTE(D24," ","_"))</f>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="10" t="s">
-        <v>390</v>
+      <c r="I24" s="55">
+        <v>0.09</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -6805,116 +6811,116 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="b">
+    <row r="25" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>option_1_cost_1_multiplier</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+    </row>
+    <row r="26" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B26" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C26" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D26" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E26" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-    </row>
-    <row r="26" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="45" t="s">
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+    </row>
+    <row r="27" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="45" t="str">
-        <f>"Run " &amp; B25</f>
+      <c r="D27" s="45" t="str">
+        <f>"Run " &amp; B26</f>
         <v>Run Upgrade Package (Allow Individual Options)</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E27" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G27" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I27" s="45">
         <v>1</v>
       </c>
-      <c r="K26" s="45">
-        <v>0</v>
-      </c>
-      <c r="L26" s="45">
+      <c r="K27" s="45">
+        <v>0</v>
+      </c>
+      <c r="L27" s="45">
         <v>1</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M27" s="45">
         <v>1</v>
       </c>
-      <c r="N26" s="45">
+      <c r="N27" s="45">
         <v>1</v>
       </c>
-      <c r="P26" s="45" t="s">
+      <c r="P27" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="R26" s="45" t="s">
+      <c r="R27" s="45" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="E27" s="10" t="str">
-        <f t="shared" ref="E27:E37" si="3">LOWER(SUBSTITUTE(D27," ","_"))</f>
-        <v>option_1</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
@@ -6923,11 +6929,11 @@
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E28" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>option_1_apply_logic</v>
+        <f t="shared" ref="E28:E38" si="4">LOWER(SUBSTITUTE(D28," ","_"))</f>
+        <v>option_1</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
@@ -6935,7 +6941,7 @@
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -6962,19 +6968,19 @@
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="E29" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>option_1_cost_1_value</v>
+        <f t="shared" si="4"/>
+        <v>option_1_apply_logic</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H29" s="10"/>
-      <c r="I29" s="55">
-        <v>2.21</v>
+      <c r="I29" s="10" t="s">
+        <v>373</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -7001,19 +7007,19 @@
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E30" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>option_1_cost_1_multiplier</v>
+        <f t="shared" si="4"/>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H30" s="10"/>
-      <c r="I30" s="10" t="s">
-        <v>388</v>
+      <c r="I30" s="55">
+        <v>2.21</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -7040,11 +7046,11 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="E31" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>option_2</v>
+        <f t="shared" si="4"/>
+        <v>option_1_cost_1_multiplier</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
@@ -7052,7 +7058,7 @@
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -7079,11 +7085,11 @@
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E32" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>option_2_apply_logic</v>
+        <f t="shared" si="4"/>
+        <v>option_2</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
@@ -7091,7 +7097,7 @@
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
@@ -7118,19 +7124,19 @@
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="E33" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>option_2_cost_1_value</v>
+        <f t="shared" si="4"/>
+        <v>option_2_apply_logic</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H33" s="10"/>
-      <c r="I33" s="55">
-        <v>39.54</v>
+      <c r="I33" s="10" t="s">
+        <v>369</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
@@ -7157,19 +7163,19 @@
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E34" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>option_2_cost_1_multiplier</v>
+        <f t="shared" si="4"/>
+        <v>option_2_cost_1_value</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H34" s="10"/>
-      <c r="I34" s="10" t="s">
-        <v>389</v>
+      <c r="I34" s="55">
+        <v>39.54</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
@@ -7189,18 +7195,18 @@
       <c r="Y34" s="15"/>
       <c r="Z34" s="15"/>
     </row>
-    <row r="35" spans="1:26" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="E35" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>option_3</v>
+        <f t="shared" si="4"/>
+        <v>option_2_cost_1_multiplier</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
@@ -7208,7 +7214,7 @@
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -7235,19 +7241,19 @@
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="E36" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>option_3_cost_1_value</v>
+        <f t="shared" si="4"/>
+        <v>option_3</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H36" s="10"/>
-      <c r="I36" s="55">
-        <v>0.09</v>
+      <c r="I36" s="10" t="s">
+        <v>364</v>
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
@@ -7274,19 +7280,19 @@
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E37" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>option_3_cost_1_multiplier</v>
+        <f t="shared" si="4"/>
+        <v>option_3_cost_1_value</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H37" s="10"/>
-      <c r="I37" s="10" t="s">
-        <v>390</v>
+      <c r="I37" s="55">
+        <v>0.09</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
@@ -7306,116 +7312,116 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="b">
+    <row r="38" spans="1:26" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="E38" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>option_3_cost_1_multiplier</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+    </row>
+    <row r="39" spans="1:26" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B39" s="52" t="s">
         <v>375</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C39" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D39" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E39" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-    </row>
-    <row r="39" spans="1:26" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="53" t="s">
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+    </row>
+    <row r="40" spans="1:26" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="D39" s="53" t="str">
-        <f>"Run " &amp; B38</f>
+      <c r="D40" s="53" t="str">
+        <f>"Run " &amp; B39</f>
         <v>Run Upgrade Package (All or None)</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E40" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="G40" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="I39" s="53">
+      <c r="I40" s="53">
         <v>1</v>
       </c>
-      <c r="K39" s="53">
-        <v>0</v>
-      </c>
-      <c r="L39" s="53">
+      <c r="K40" s="53">
+        <v>0</v>
+      </c>
+      <c r="L40" s="53">
         <v>1</v>
       </c>
-      <c r="M39" s="53">
+      <c r="M40" s="53">
         <v>1</v>
       </c>
-      <c r="N39" s="53">
+      <c r="N40" s="53">
         <v>1</v>
       </c>
-      <c r="P39" s="53" t="s">
+      <c r="P40" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="R39" s="53" t="s">
+      <c r="R40" s="53" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="E40" s="10" t="str">
-        <f t="shared" ref="E40:E49" si="4">LOWER(SUBSTITUTE(D40," ","_"))</f>
-        <v>option_1</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
     </row>
     <row r="41" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
@@ -7424,19 +7430,19 @@
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="E41" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>option_1_cost_1_value</v>
+        <f t="shared" ref="E41:E50" si="5">LOWER(SUBSTITUTE(D41," ","_"))</f>
+        <v>option_1</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H41" s="10"/>
-      <c r="I41" s="55">
-        <v>2.21</v>
+      <c r="I41" s="10" t="s">
+        <v>372</v>
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
@@ -7463,19 +7469,19 @@
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E42" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>option_1_cost_1_multiplier</v>
+        <f t="shared" si="5"/>
+        <v>option_1_cost_1_value</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H42" s="10"/>
-      <c r="I42" s="10" t="s">
-        <v>388</v>
+      <c r="I42" s="55">
+        <v>2.21</v>
       </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
@@ -7502,11 +7508,11 @@
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="E43" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>option_2</v>
+        <f t="shared" si="5"/>
+        <v>option_1_cost_1_multiplier</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
@@ -7514,7 +7520,7 @@
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
@@ -7541,19 +7547,19 @@
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="E44" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>option_2_cost_1_value</v>
+        <f t="shared" si="5"/>
+        <v>option_2</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H44" s="10"/>
-      <c r="I44" s="55">
-        <v>39.54</v>
+      <c r="I44" s="10" t="s">
+        <v>363</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
@@ -7580,19 +7586,19 @@
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E45" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>option_2_cost_1_multiplier</v>
+        <f t="shared" si="5"/>
+        <v>option_2_cost_1_value</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H45" s="10"/>
-      <c r="I45" s="10" t="s">
-        <v>389</v>
+      <c r="I45" s="55">
+        <v>39.54</v>
       </c>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
@@ -7619,11 +7625,11 @@
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="E46" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>option_3</v>
+        <f t="shared" si="5"/>
+        <v>option_2_cost_1_multiplier</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
@@ -7631,7 +7637,7 @@
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="10" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -7658,19 +7664,19 @@
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="E47" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>option_3_cost_1_value</v>
+        <f t="shared" si="5"/>
+        <v>option_3</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H47" s="10"/>
-      <c r="I47" s="55">
-        <v>0.09</v>
+      <c r="I47" s="10" t="s">
+        <v>364</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -7697,19 +7703,19 @@
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E48" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>option_3_cost_1_multiplier</v>
+        <f t="shared" si="5"/>
+        <v>option_3_cost_1_value</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="H48" s="10"/>
-      <c r="I48" s="10" t="s">
-        <v>390</v>
+      <c r="I48" s="55">
+        <v>0.09</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -7736,11 +7742,11 @@
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="E49" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>package_apply_logic</v>
+        <f t="shared" si="5"/>
+        <v>option_3_cost_1_multiplier</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10" t="s">
@@ -7748,7 +7754,7 @@
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="10" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
@@ -7768,54 +7774,57 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>338</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="D50" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="40"/>
+    <row r="50" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E50" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>package_apply_logic</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
     </row>
     <row r="51" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="40" t="b">
         <v>1</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E51" s="40" t="s">
         <v>236</v>
@@ -7845,13 +7854,13 @@
         <v>1</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>238</v>
+        <v>341</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>237</v>
+        <v>342</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>237</v>
+        <v>342</v>
       </c>
       <c r="E52" s="40" t="s">
         <v>236</v>
@@ -7876,11 +7885,47 @@
       <c r="W52" s="40"/>
       <c r="X52" s="40"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B53" s="50"/>
+    <row r="53" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="40"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B54" s="50"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B55" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>
@@ -7894,11 +7939,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8014,14 +8059,14 @@
     </row>
     <row r="4" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
-        <v>395</v>
+        <v>245</v>
       </c>
       <c r="D4" s="14" t="str">
-        <f t="shared" ref="D4" si="0">"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A4," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
-        <v>simulation_output_report.upgrade_cost</v>
+        <f>"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A4," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
+        <v>simulation_output_report.total_site_energy_m_btu</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>244</v>
+        <v>343</v>
       </c>
       <c r="G4" s="14" t="b">
         <v>0</v>
@@ -8035,11 +8080,11 @@
     </row>
     <row r="5" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D5" s="14" t="str">
-        <f>"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A5," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
-        <v>simulation_output_report.total_site_energy_m_btu</v>
+        <f t="shared" ref="D5:D25" si="0">"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A5," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
+        <v>simulation_output_report.total_site_electricity_k_wh</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>343</v>
@@ -8056,11 +8101,11 @@
     </row>
     <row r="6" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D6" s="14" t="str">
-        <f t="shared" ref="D6:D26" si="1">"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A6," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
-        <v>simulation_output_report.total_site_electricity_k_wh</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.total_site_natural_gas_therm</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>343</v>
@@ -8077,11 +8122,11 @@
     </row>
     <row r="7" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D7" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.total_site_natural_gas_therm</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.total_site_other_fuel_m_btu</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>343</v>
@@ -8098,11 +8143,11 @@
     </row>
     <row r="8" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D8" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.total_site_other_fuel_m_btu</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.electricity_heating_k_wh</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>343</v>
@@ -8119,11 +8164,11 @@
     </row>
     <row r="9" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D9" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.electricity_heating_k_wh</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.electricity_cooling_k_wh</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>343</v>
@@ -8140,11 +8185,11 @@
     </row>
     <row r="10" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D10" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.electricity_cooling_k_wh</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.electricity_interior_lighting_k_wh</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>343</v>
@@ -8161,11 +8206,11 @@
     </row>
     <row r="11" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D11" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.electricity_interior_lighting_k_wh</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.electricity_exterior_lighting_k_wh</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>343</v>
@@ -8182,11 +8227,11 @@
     </row>
     <row r="12" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D12" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.electricity_exterior_lighting_k_wh</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.electricity_interior_equipment_k_wh</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>343</v>
@@ -8203,11 +8248,11 @@
     </row>
     <row r="13" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D13" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.electricity_interior_equipment_k_wh</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.electricity_fans_k_wh</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>343</v>
@@ -8224,11 +8269,11 @@
     </row>
     <row r="14" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D14" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.electricity_fans_k_wh</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.electricity_pumps_k_wh</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>343</v>
@@ -8245,11 +8290,11 @@
     </row>
     <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D15" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.electricity_pumps_k_wh</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.electricity_water_systems_k_wh</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>343</v>
@@ -8265,12 +8310,12 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
-        <v>256</v>
+      <c r="A16" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="D16" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.electricity_water_systems_k_wh</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.natural_gas_heating_therm</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>343</v>
@@ -8287,11 +8332,11 @@
     </row>
     <row r="17" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D17" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.natural_gas_heating_therm</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.natural_gas_interior_equipment_therm</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>343</v>
@@ -8308,11 +8353,11 @@
     </row>
     <row r="18" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D18" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.natural_gas_interior_equipment_therm</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.natural_gas_water_systems_therm</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>343</v>
@@ -8329,11 +8374,11 @@
     </row>
     <row r="19" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D19" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.natural_gas_water_systems_therm</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.other_fuel_heating_m_btu</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>343</v>
@@ -8350,11 +8395,11 @@
     </row>
     <row r="20" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D20" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.other_fuel_heating_m_btu</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.other_fuel_interior_equipment_m_btu</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>343</v>
@@ -8371,11 +8416,11 @@
     </row>
     <row r="21" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D21" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.other_fuel_interior_equipment_m_btu</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.other_fuel_water_systems_m_btu</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>343</v>
@@ -8392,11 +8437,11 @@
     </row>
     <row r="22" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="D22" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.other_fuel_water_systems_m_btu</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.hours_heating_setpoint_not_met</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>343</v>
@@ -8410,14 +8455,18 @@
       <c r="I22" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
     </row>
     <row r="23" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D23" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.hours_heating_setpoint_not_met</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.hours_cooling_setpoint_not_met</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>343</v>
@@ -8437,12 +8486,12 @@
       <c r="M23" s="49"/>
     </row>
     <row r="24" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>351</v>
+      <c r="A24" s="49" t="s">
+        <v>353</v>
       </c>
       <c r="D24" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.hours_cooling_setpoint_not_met</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.hvac_cooling_capacity_w</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>343</v>
@@ -8456,18 +8505,14 @@
       <c r="I24" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
     </row>
     <row r="25" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D25" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.hvac_cooling_capacity_w</v>
+        <f t="shared" si="0"/>
+        <v>simulation_output_report.hvac_heating_capacity_w</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>343</v>
@@ -8484,62 +8529,55 @@
     </row>
     <row r="26" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="D26" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>simulation_output_report.hvac_heating_capacity_w</v>
+        <f>"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A26," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
+        <v>simulation_output_report.upgrade_cost</v>
       </c>
       <c r="F26" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="D27" s="14" t="str">
+        <f>"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A27," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
+        <v>simulation_output_report.weight</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="G26" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
-        <v>360</v>
-      </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48" t="str">
-        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A27," ","_"))</f>
-        <v>building_characteristics_report.location_heating_region</v>
-      </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G27" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
+      <c r="G27" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="str">
-        <f t="shared" ref="D28:D91" si="2">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A28," ","_"))</f>
-        <v>building_characteristics_report.location_cooling_region</v>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A28," ","_"))</f>
+        <v>building_characteristics_report.location_heating_region</v>
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48" t="s">
@@ -8561,13 +8599,13 @@
     </row>
     <row r="29" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.location_epw</v>
+        <f t="shared" ref="D29:D92" si="1">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A29," ","_"))</f>
+        <v>building_characteristics_report.location_cooling_region</v>
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="48" t="s">
@@ -8589,13 +8627,13 @@
     </row>
     <row r="30" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.vintage</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.location_epw</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="48" t="s">
@@ -8617,13 +8655,13 @@
     </row>
     <row r="31" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="48"/>
       <c r="D31" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.heating_fuel</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.vintage</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
@@ -8645,13 +8683,13 @@
     </row>
     <row r="32" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
       <c r="D32" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.usage_level</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.heating_fuel</v>
       </c>
       <c r="E32" s="48"/>
       <c r="F32" s="48" t="s">
@@ -8673,13 +8711,13 @@
     </row>
     <row r="33" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
       <c r="D33" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.geometry_foundation_type</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.usage_level</v>
       </c>
       <c r="E33" s="48"/>
       <c r="F33" s="48" t="s">
@@ -8701,13 +8739,13 @@
     </row>
     <row r="34" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
       <c r="D34" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.geometry_heated_basement</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.geometry_foundation_type</v>
       </c>
       <c r="E34" s="48"/>
       <c r="F34" s="48" t="s">
@@ -8729,13 +8767,13 @@
     </row>
     <row r="35" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
       <c r="D35" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.geometry_house_size</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.geometry_heated_basement</v>
       </c>
       <c r="E35" s="48"/>
       <c r="F35" s="48" t="s">
@@ -8757,13 +8795,13 @@
     </row>
     <row r="36" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
       <c r="D36" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.geometry_stories</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.geometry_house_size</v>
       </c>
       <c r="E36" s="48"/>
       <c r="F36" s="48" t="s">
@@ -8785,13 +8823,13 @@
     </row>
     <row r="37" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.geometry_garage</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.geometry_stories</v>
       </c>
       <c r="E37" s="48"/>
       <c r="F37" s="48" t="s">
@@ -8813,13 +8851,13 @@
     </row>
     <row r="38" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>352</v>
+        <v>287</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
       <c r="D38" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.occupants</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.geometry_garage</v>
       </c>
       <c r="E38" s="48"/>
       <c r="F38" s="48" t="s">
@@ -8841,13 +8879,13 @@
     </row>
     <row r="39" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
       <c r="D39" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.orientation</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.occupants</v>
       </c>
       <c r="E39" s="48"/>
       <c r="F39" s="48" t="s">
@@ -8869,13 +8907,13 @@
     </row>
     <row r="40" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
       <c r="D40" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.eaves</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.orientation</v>
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="48" t="s">
@@ -8897,13 +8935,13 @@
     </row>
     <row r="41" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
       <c r="D41" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.overhangs</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.eaves</v>
       </c>
       <c r="E41" s="48"/>
       <c r="F41" s="48" t="s">
@@ -8925,12 +8963,15 @@
     </row>
     <row r="42" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>291</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.door_area</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.overhangs</v>
+      </c>
+      <c r="E42" s="48"/>
       <c r="F42" s="48" t="s">
         <v>244</v>
       </c>
@@ -8943,14 +8984,18 @@
       <c r="I42" s="48" t="b">
         <v>0</v>
       </c>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
     </row>
     <row r="43" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D43" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.window_areas</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.door_area</v>
       </c>
       <c r="F43" s="48" t="s">
         <v>244</v>
@@ -8967,15 +9012,12 @@
     </row>
     <row r="44" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
+        <v>292</v>
+      </c>
       <c r="D44" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.neighbors</v>
-      </c>
-      <c r="E44" s="48"/>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.window_areas</v>
+      </c>
       <c r="F44" s="48" t="s">
         <v>244</v>
       </c>
@@ -8988,20 +9030,16 @@
       <c r="I44" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
     </row>
     <row r="45" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
       <c r="D45" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.insulation_unfinished_attic</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.neighbors</v>
       </c>
       <c r="E45" s="48"/>
       <c r="F45" s="48" t="s">
@@ -9023,13 +9061,13 @@
     </row>
     <row r="46" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
       <c r="D46" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.insulation_wall</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.insulation_unfinished_attic</v>
       </c>
       <c r="E46" s="48"/>
       <c r="F46" s="48" t="s">
@@ -9051,13 +9089,13 @@
     </row>
     <row r="47" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
       <c r="D47" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.insulation_slab</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.insulation_wall</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="48" t="s">
@@ -9079,12 +9117,15 @@
     </row>
     <row r="48" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>296</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
       <c r="D48" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.insulation_crawlspace</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.insulation_slab</v>
+      </c>
+      <c r="E48" s="48"/>
       <c r="F48" s="48" t="s">
         <v>244</v>
       </c>
@@ -9097,14 +9138,18 @@
       <c r="I48" s="48" t="b">
         <v>0</v>
       </c>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
     </row>
     <row r="49" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D49" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.insulation_unfinished_basement</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.insulation_crawlspace</v>
       </c>
       <c r="F49" s="48" t="s">
         <v>244</v>
@@ -9121,11 +9166,11 @@
     </row>
     <row r="50" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D50" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.insulation_finished_basement</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.insulation_unfinished_basement</v>
       </c>
       <c r="F50" s="48" t="s">
         <v>244</v>
@@ -9142,11 +9187,11 @@
     </row>
     <row r="51" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D51" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.insulation_interzonal_floor</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.insulation_finished_basement</v>
       </c>
       <c r="F51" s="48" t="s">
         <v>244</v>
@@ -9163,11 +9208,11 @@
     </row>
     <row r="52" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D52" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.uninsulated_surfaces</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.insulation_interzonal_floor</v>
       </c>
       <c r="F52" s="48" t="s">
         <v>244</v>
@@ -9184,11 +9229,11 @@
     </row>
     <row r="53" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D53" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.roof_sheathing</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.uninsulated_surfaces</v>
       </c>
       <c r="F53" s="48" t="s">
         <v>244</v>
@@ -9205,11 +9250,11 @@
     </row>
     <row r="54" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D54" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.wall_sheathing</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.roof_sheathing</v>
       </c>
       <c r="F54" s="48" t="s">
         <v>244</v>
@@ -9226,11 +9271,11 @@
     </row>
     <row r="55" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D55" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.floor_sheathing</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.wall_sheathing</v>
       </c>
       <c r="F55" s="48" t="s">
         <v>244</v>
@@ -9247,11 +9292,11 @@
     </row>
     <row r="56" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D56" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.exterior_finish</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.floor_sheathing</v>
       </c>
       <c r="F56" s="48" t="s">
         <v>244</v>
@@ -9268,11 +9313,11 @@
     </row>
     <row r="57" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D57" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.roof_material</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.exterior_finish</v>
       </c>
       <c r="F57" s="48" t="s">
         <v>244</v>
@@ -9289,11 +9334,11 @@
     </row>
     <row r="58" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D58" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.floor_covering</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.roof_material</v>
       </c>
       <c r="F58" s="48" t="s">
         <v>244</v>
@@ -9310,11 +9355,11 @@
     </row>
     <row r="59" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D59" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.thermal_mass_floor</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.floor_covering</v>
       </c>
       <c r="F59" s="48" t="s">
         <v>244</v>
@@ -9331,11 +9376,11 @@
     </row>
     <row r="60" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D60" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.thermal_mass_exterior_wall</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.thermal_mass_floor</v>
       </c>
       <c r="F60" s="48" t="s">
         <v>244</v>
@@ -9352,11 +9397,11 @@
     </row>
     <row r="61" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D61" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.thermal_mass_partition_wall</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.thermal_mass_exterior_wall</v>
       </c>
       <c r="F61" s="48" t="s">
         <v>244</v>
@@ -9373,11 +9418,11 @@
     </row>
     <row r="62" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D62" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.thermal_mass_ceiling</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.thermal_mass_partition_wall</v>
       </c>
       <c r="F62" s="48" t="s">
         <v>244</v>
@@ -9394,11 +9439,11 @@
     </row>
     <row r="63" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D63" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.thermal_mass_furniture</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.thermal_mass_ceiling</v>
       </c>
       <c r="F63" s="48" t="s">
         <v>244</v>
@@ -9415,11 +9460,11 @@
     </row>
     <row r="64" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D64" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.doors</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.thermal_mass_furniture</v>
       </c>
       <c r="F64" s="48" t="s">
         <v>244</v>
@@ -9436,11 +9481,11 @@
     </row>
     <row r="65" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="D65" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.windows</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.doors</v>
       </c>
       <c r="F65" s="48" t="s">
         <v>244</v>
@@ -9457,11 +9502,11 @@
     </row>
     <row r="66" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="D66" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.water_heater</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.windows</v>
       </c>
       <c r="F66" s="48" t="s">
         <v>244</v>
@@ -9478,11 +9523,11 @@
     </row>
     <row r="67" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D67" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.hot_water_fixtures</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.water_heater</v>
       </c>
       <c r="F67" s="48" t="s">
         <v>244</v>
@@ -9499,11 +9544,11 @@
     </row>
     <row r="68" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="D68" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.hot_water_distribution</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hot_water_fixtures</v>
       </c>
       <c r="F68" s="48" t="s">
         <v>244</v>
@@ -9520,11 +9565,11 @@
     </row>
     <row r="69" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="D69" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.hvac_system_is_combined</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hot_water_distribution</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>244</v>
@@ -9541,11 +9586,11 @@
     </row>
     <row r="70" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D70" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.hvac_system_combined</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hvac_system_is_combined</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>244</v>
@@ -9562,11 +9607,11 @@
     </row>
     <row r="71" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
-        <v>379</v>
+        <v>316</v>
       </c>
       <c r="D71" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.hvac_system_heating_electricity</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hvac_system_combined</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>244</v>
@@ -9583,11 +9628,11 @@
     </row>
     <row r="72" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D72" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.hvac_system_heating_fuel_oil</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hvac_system_heating_electricity</v>
       </c>
       <c r="F72" s="48" t="s">
         <v>244</v>
@@ -9604,11 +9649,11 @@
     </row>
     <row r="73" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D73" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.hvac_system_heating_natural_gas</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hvac_system_heating_fuel_oil</v>
       </c>
       <c r="F73" s="48" t="s">
         <v>244</v>
@@ -9625,11 +9670,11 @@
     </row>
     <row r="74" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D74" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.hvac_system_heating_propane</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hvac_system_heating_natural_gas</v>
       </c>
       <c r="F74" s="48" t="s">
         <v>244</v>
@@ -9646,11 +9691,11 @@
     </row>
     <row r="75" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D75" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.hvac_system_heating_wood</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hvac_system_heating_propane</v>
       </c>
       <c r="F75" s="48" t="s">
         <v>244</v>
@@ -9667,11 +9712,11 @@
     </row>
     <row r="76" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="D76" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.hvac_system_cooling</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hvac_system_heating_wood</v>
       </c>
       <c r="F76" s="48" t="s">
         <v>244</v>
@@ -9688,11 +9733,11 @@
     </row>
     <row r="77" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D77" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.heating_setpoint</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hvac_system_cooling</v>
       </c>
       <c r="F77" s="48" t="s">
         <v>244</v>
@@ -9709,11 +9754,11 @@
     </row>
     <row r="78" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D78" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.cooling_setpoint</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.heating_setpoint</v>
       </c>
       <c r="F78" s="48" t="s">
         <v>244</v>
@@ -9730,11 +9775,11 @@
     </row>
     <row r="79" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="D79" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.ceiling_fan</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.cooling_setpoint</v>
       </c>
       <c r="F79" s="48" t="s">
         <v>244</v>
@@ -9751,11 +9796,11 @@
     </row>
     <row r="80" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="D80" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.refrigerator</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.ceiling_fan</v>
       </c>
       <c r="F80" s="48" t="s">
         <v>244</v>
@@ -9772,11 +9817,11 @@
     </row>
     <row r="81" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D81" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.cooking_range</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.refrigerator</v>
       </c>
       <c r="F81" s="48" t="s">
         <v>244</v>
@@ -9793,11 +9838,11 @@
     </row>
     <row r="82" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D82" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.dishwasher</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.cooking_range</v>
       </c>
       <c r="F82" s="48" t="s">
         <v>244</v>
@@ -9814,11 +9859,11 @@
     </row>
     <row r="83" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D83" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.clothes_washer</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.dishwasher</v>
       </c>
       <c r="F83" s="48" t="s">
         <v>244</v>
@@ -9835,11 +9880,11 @@
     </row>
     <row r="84" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D84" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.clothes_dryer</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.clothes_washer</v>
       </c>
       <c r="F84" s="48" t="s">
         <v>244</v>
@@ -9856,11 +9901,11 @@
     </row>
     <row r="85" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="D85" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.lighting</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.clothes_dryer</v>
       </c>
       <c r="F85" s="48" t="s">
         <v>244</v>
@@ -9877,11 +9922,11 @@
     </row>
     <row r="86" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="D86" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.plug_loads</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.lighting</v>
       </c>
       <c r="F86" s="48" t="s">
         <v>244</v>
@@ -9898,11 +9943,11 @@
     </row>
     <row r="87" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D87" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.misc_extra_refrigerator</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.plug_loads</v>
       </c>
       <c r="F87" s="48" t="s">
         <v>244</v>
@@ -9919,11 +9964,11 @@
     </row>
     <row r="88" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D88" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.misc_freezer</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_extra_refrigerator</v>
       </c>
       <c r="F88" s="48" t="s">
         <v>244</v>
@@ -9940,11 +9985,11 @@
     </row>
     <row r="89" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D89" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.misc_gas_fireplace</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_freezer</v>
       </c>
       <c r="F89" s="48" t="s">
         <v>244</v>
@@ -9961,11 +10006,11 @@
     </row>
     <row r="90" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D90" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.misc_gas_grill</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_gas_fireplace</v>
       </c>
       <c r="F90" s="48" t="s">
         <v>244</v>
@@ -9982,11 +10027,11 @@
     </row>
     <row r="91" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D91" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>building_characteristics_report.misc_gas_lighting</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_gas_grill</v>
       </c>
       <c r="F91" s="48" t="s">
         <v>244</v>
@@ -10003,11 +10048,11 @@
     </row>
     <row r="92" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D92" s="48" t="str">
-        <f t="shared" ref="D92:D98" si="3">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A92," ","_"))</f>
-        <v>building_characteristics_report.misc_hot_tub_spa</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_gas_lighting</v>
       </c>
       <c r="F92" s="48" t="s">
         <v>244</v>
@@ -10024,11 +10069,11 @@
     </row>
     <row r="93" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D93" s="48" t="str">
-        <f t="shared" si="3"/>
-        <v>building_characteristics_report.misc_pool</v>
+        <f t="shared" ref="D93:D99" si="2">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A93," ","_"))</f>
+        <v>building_characteristics_report.misc_hot_tub_spa</v>
       </c>
       <c r="F93" s="48" t="s">
         <v>244</v>
@@ -10045,11 +10090,11 @@
     </row>
     <row r="94" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D94" s="48" t="str">
-        <f t="shared" si="3"/>
-        <v>building_characteristics_report.misc_well_pump</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.misc_pool</v>
       </c>
       <c r="F94" s="48" t="s">
         <v>244</v>
@@ -10066,11 +10111,11 @@
     </row>
     <row r="95" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D95" s="48" t="str">
-        <f t="shared" si="3"/>
-        <v>building_characteristics_report.ducts</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.misc_well_pump</v>
       </c>
       <c r="F95" s="48" t="s">
         <v>244</v>
@@ -10087,11 +10132,11 @@
     </row>
     <row r="96" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D96" s="48" t="str">
-        <f t="shared" si="3"/>
-        <v>building_characteristics_report.infiltration</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.ducts</v>
       </c>
       <c r="F96" s="48" t="s">
         <v>244</v>
@@ -10108,11 +10153,11 @@
     </row>
     <row r="97" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D97" s="48" t="str">
-        <f t="shared" si="3"/>
-        <v>building_characteristics_report.natural_ventilation</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.infiltration</v>
       </c>
       <c r="F97" s="48" t="s">
         <v>244</v>
@@ -10129,11 +10174,11 @@
     </row>
     <row r="98" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D98" s="48" t="str">
-        <f t="shared" si="3"/>
-        <v>building_characteristics_report.mechanical_ventilation</v>
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.natural_ventilation</v>
       </c>
       <c r="F98" s="48" t="s">
         <v>244</v>
@@ -10148,14 +10193,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
-      <c r="B99" s="21"/>
-      <c r="D99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
+    <row r="99" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="D99" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>building_characteristics_report.mechanical_ventilation</v>
+      </c>
+      <c r="F99" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G99" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" s="48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
@@ -10400,12 +10457,10 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="15"/>
       <c r="B127" s="21"/>
-      <c r="C127" s="22"/>
       <c r="D127" s="15"/>
-      <c r="E127" s="22"/>
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
       <c r="H127" s="15"/>
@@ -10465,6 +10520,17 @@
       <c r="G132" s="15"/>
       <c r="H132" s="15"/>
       <c r="I132" s="15"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="15"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/resstock_pnw.xlsx
+++ b/projects/resstock_pnw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1125" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="402">
   <si>
     <t>type</t>
   </si>
@@ -1221,13 +1221,25 @@
     <t>Option 3 Cost 1 Multiplier</t>
   </si>
   <si>
-    <t>Upgrade Cost</t>
-  </si>
-  <si>
     <t>Number of Buildings Represented</t>
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t>Upgrade Cost USD</t>
+  </si>
+  <si>
+    <t>Location City</t>
+  </si>
+  <si>
+    <t>Location State</t>
+  </si>
+  <si>
+    <t>Location Latitude</t>
+  </si>
+  <si>
+    <t>Location Longitude</t>
   </si>
 </sst>
 </file>
@@ -6084,7 +6096,7 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E6" s="10" t="str">
         <f t="shared" ref="E6" si="0">LOWER(SUBSTITUTE(D6," ","_"))</f>
@@ -7939,11 +7951,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8529,14 +8541,14 @@
     </row>
     <row r="26" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D26" s="14" t="str">
         <f>"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A26," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
-        <v>simulation_output_report.upgrade_cost</v>
+        <v>simulation_output_report.upgrade_cost_usd</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>244</v>
+        <v>343</v>
       </c>
       <c r="G26" s="14" t="b">
         <v>0</v>
@@ -8550,7 +8562,7 @@
     </row>
     <row r="27" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D27" s="14" t="str">
         <f>"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A27," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
@@ -8604,7 +8616,7 @@
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="str">
-        <f t="shared" ref="D29:D92" si="1">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A29," ","_"))</f>
+        <f t="shared" ref="D29:D96" si="1">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A29," ","_"))</f>
         <v>building_characteristics_report.location_cooling_region</v>
       </c>
       <c r="E29" s="48"/>
@@ -8655,13 +8667,13 @@
     </row>
     <row r="31" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
-        <v>281</v>
+        <v>398</v>
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="48"/>
       <c r="D31" s="48" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.vintage</v>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A31," ","_"))</f>
+        <v>building_characteristics_report.location_city</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
@@ -8683,13 +8695,13 @@
     </row>
     <row r="32" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>282</v>
+        <v>399</v>
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
       <c r="D32" s="48" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.heating_fuel</v>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A32," ","_"))</f>
+        <v>building_characteristics_report.location_state</v>
       </c>
       <c r="E32" s="48"/>
       <c r="F32" s="48" t="s">
@@ -8711,17 +8723,17 @@
     </row>
     <row r="33" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>283</v>
+        <v>400</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
       <c r="D33" s="48" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.usage_level</v>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A33," ","_"))</f>
+        <v>building_characteristics_report.location_latitude</v>
       </c>
       <c r="E33" s="48"/>
       <c r="F33" s="48" t="s">
-        <v>244</v>
+        <v>343</v>
       </c>
       <c r="G33" s="48" t="b">
         <v>0</v>
@@ -8739,17 +8751,17 @@
     </row>
     <row r="34" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
       <c r="D34" s="48" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.geometry_foundation_type</v>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A34," ","_"))</f>
+        <v>building_characteristics_report.location_longitude</v>
       </c>
       <c r="E34" s="48"/>
       <c r="F34" s="48" t="s">
-        <v>244</v>
+        <v>343</v>
       </c>
       <c r="G34" s="48" t="b">
         <v>0</v>
@@ -8767,13 +8779,13 @@
     </row>
     <row r="35" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>378</v>
+        <v>281</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
       <c r="D35" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.geometry_heated_basement</v>
+        <v>building_characteristics_report.vintage</v>
       </c>
       <c r="E35" s="48"/>
       <c r="F35" s="48" t="s">
@@ -8795,13 +8807,13 @@
     </row>
     <row r="36" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
       <c r="D36" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.geometry_house_size</v>
+        <v>building_characteristics_report.heating_fuel</v>
       </c>
       <c r="E36" s="48"/>
       <c r="F36" s="48" t="s">
@@ -8823,13 +8835,13 @@
     </row>
     <row r="37" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.geometry_stories</v>
+        <v>building_characteristics_report.usage_level</v>
       </c>
       <c r="E37" s="48"/>
       <c r="F37" s="48" t="s">
@@ -8851,13 +8863,13 @@
     </row>
     <row r="38" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
       <c r="D38" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.geometry_garage</v>
+        <v>building_characteristics_report.geometry_foundation_type</v>
       </c>
       <c r="E38" s="48"/>
       <c r="F38" s="48" t="s">
@@ -8879,13 +8891,13 @@
     </row>
     <row r="39" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
       <c r="D39" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.occupants</v>
+        <v>building_characteristics_report.geometry_heated_basement</v>
       </c>
       <c r="E39" s="48"/>
       <c r="F39" s="48" t="s">
@@ -8907,13 +8919,13 @@
     </row>
     <row r="40" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
       <c r="D40" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.orientation</v>
+        <v>building_characteristics_report.geometry_house_size</v>
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="48" t="s">
@@ -8935,13 +8947,13 @@
     </row>
     <row r="41" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
       <c r="D41" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.eaves</v>
+        <v>building_characteristics_report.geometry_stories</v>
       </c>
       <c r="E41" s="48"/>
       <c r="F41" s="48" t="s">
@@ -8963,13 +8975,13 @@
     </row>
     <row r="42" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
       <c r="D42" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.overhangs</v>
+        <v>building_characteristics_report.geometry_garage</v>
       </c>
       <c r="E42" s="48"/>
       <c r="F42" s="48" t="s">
@@ -8991,12 +9003,15 @@
     </row>
     <row r="43" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>291</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.door_area</v>
-      </c>
+        <v>building_characteristics_report.occupants</v>
+      </c>
+      <c r="E43" s="48"/>
       <c r="F43" s="48" t="s">
         <v>244</v>
       </c>
@@ -9009,15 +9024,22 @@
       <c r="I43" s="48" t="b">
         <v>0</v>
       </c>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
     </row>
     <row r="44" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>292</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
       <c r="D44" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.window_areas</v>
-      </c>
+        <v>building_characteristics_report.orientation</v>
+      </c>
+      <c r="E44" s="48"/>
       <c r="F44" s="48" t="s">
         <v>244</v>
       </c>
@@ -9030,16 +9052,20 @@
       <c r="I44" s="48" t="b">
         <v>0</v>
       </c>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
     </row>
     <row r="45" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
       <c r="D45" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.neighbors</v>
+        <v>building_characteristics_report.eaves</v>
       </c>
       <c r="E45" s="48"/>
       <c r="F45" s="48" t="s">
@@ -9061,13 +9087,13 @@
     </row>
     <row r="46" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
       <c r="D46" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_unfinished_attic</v>
+        <v>building_characteristics_report.overhangs</v>
       </c>
       <c r="E46" s="48"/>
       <c r="F46" s="48" t="s">
@@ -9089,15 +9115,12 @@
     </row>
     <row r="47" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
+        <v>291</v>
+      </c>
       <c r="D47" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_wall</v>
-      </c>
-      <c r="E47" s="48"/>
+        <v>building_characteristics_report.door_area</v>
+      </c>
       <c r="F47" s="48" t="s">
         <v>244</v>
       </c>
@@ -9110,22 +9133,15 @@
       <c r="I47" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
     </row>
     <row r="48" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
+        <v>292</v>
+      </c>
       <c r="D48" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_slab</v>
-      </c>
-      <c r="E48" s="48"/>
+        <v>building_characteristics_report.window_areas</v>
+      </c>
       <c r="F48" s="48" t="s">
         <v>244</v>
       </c>
@@ -9138,19 +9154,18 @@
       <c r="I48" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-    </row>
-    <row r="49" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>296</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_crawlspace</v>
-      </c>
+        <v>building_characteristics_report.neighbors</v>
+      </c>
+      <c r="E49" s="48"/>
       <c r="F49" s="48" t="s">
         <v>244</v>
       </c>
@@ -9163,15 +9178,22 @@
       <c r="I49" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+    </row>
+    <row r="50" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>297</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
       <c r="D50" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_unfinished_basement</v>
-      </c>
+        <v>building_characteristics_report.insulation_unfinished_attic</v>
+      </c>
+      <c r="E50" s="48"/>
       <c r="F50" s="48" t="s">
         <v>244</v>
       </c>
@@ -9184,15 +9206,22 @@
       <c r="I50" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+    </row>
+    <row r="51" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>298</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_finished_basement</v>
-      </c>
+        <v>building_characteristics_report.insulation_wall</v>
+      </c>
+      <c r="E51" s="48"/>
       <c r="F51" s="48" t="s">
         <v>244</v>
       </c>
@@ -9205,15 +9234,22 @@
       <c r="I51" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+    </row>
+    <row r="52" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>299</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
       <c r="D52" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_interzonal_floor</v>
-      </c>
+        <v>building_characteristics_report.insulation_slab</v>
+      </c>
+      <c r="E52" s="48"/>
       <c r="F52" s="48" t="s">
         <v>244</v>
       </c>
@@ -9226,14 +9262,18 @@
       <c r="I52" s="48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+    </row>
+    <row r="53" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D53" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.uninsulated_surfaces</v>
+        <v>building_characteristics_report.insulation_crawlspace</v>
       </c>
       <c r="F53" s="48" t="s">
         <v>244</v>
@@ -9248,13 +9288,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D54" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.roof_sheathing</v>
+        <v>building_characteristics_report.insulation_unfinished_basement</v>
       </c>
       <c r="F54" s="48" t="s">
         <v>244</v>
@@ -9269,13 +9309,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D55" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.wall_sheathing</v>
+        <v>building_characteristics_report.insulation_finished_basement</v>
       </c>
       <c r="F55" s="48" t="s">
         <v>244</v>
@@ -9290,13 +9330,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D56" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.floor_sheathing</v>
+        <v>building_characteristics_report.insulation_interzonal_floor</v>
       </c>
       <c r="F56" s="48" t="s">
         <v>244</v>
@@ -9311,13 +9351,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D57" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.exterior_finish</v>
+        <v>building_characteristics_report.uninsulated_surfaces</v>
       </c>
       <c r="F57" s="48" t="s">
         <v>244</v>
@@ -9332,13 +9372,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D58" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.roof_material</v>
+        <v>building_characteristics_report.roof_sheathing</v>
       </c>
       <c r="F58" s="48" t="s">
         <v>244</v>
@@ -9353,13 +9393,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D59" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.floor_covering</v>
+        <v>building_characteristics_report.wall_sheathing</v>
       </c>
       <c r="F59" s="48" t="s">
         <v>244</v>
@@ -9374,13 +9414,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D60" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.thermal_mass_floor</v>
+        <v>building_characteristics_report.floor_sheathing</v>
       </c>
       <c r="F60" s="48" t="s">
         <v>244</v>
@@ -9395,13 +9435,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D61" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.thermal_mass_exterior_wall</v>
+        <v>building_characteristics_report.exterior_finish</v>
       </c>
       <c r="F61" s="48" t="s">
         <v>244</v>
@@ -9416,13 +9456,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D62" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.thermal_mass_partition_wall</v>
+        <v>building_characteristics_report.roof_material</v>
       </c>
       <c r="F62" s="48" t="s">
         <v>244</v>
@@ -9437,13 +9477,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D63" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.thermal_mass_ceiling</v>
+        <v>building_characteristics_report.floor_covering</v>
       </c>
       <c r="F63" s="48" t="s">
         <v>244</v>
@@ -9458,13 +9498,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D64" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.thermal_mass_furniture</v>
+        <v>building_characteristics_report.thermal_mass_floor</v>
       </c>
       <c r="F64" s="48" t="s">
         <v>244</v>
@@ -9481,11 +9521,11 @@
     </row>
     <row r="65" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D65" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.doors</v>
+        <v>building_characteristics_report.thermal_mass_exterior_wall</v>
       </c>
       <c r="F65" s="48" t="s">
         <v>244</v>
@@ -9502,11 +9542,11 @@
     </row>
     <row r="66" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="D66" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.windows</v>
+        <v>building_characteristics_report.thermal_mass_partition_wall</v>
       </c>
       <c r="F66" s="48" t="s">
         <v>244</v>
@@ -9523,11 +9563,11 @@
     </row>
     <row r="67" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D67" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.water_heater</v>
+        <v>building_characteristics_report.thermal_mass_ceiling</v>
       </c>
       <c r="F67" s="48" t="s">
         <v>244</v>
@@ -9544,11 +9584,11 @@
     </row>
     <row r="68" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D68" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hot_water_fixtures</v>
+        <v>building_characteristics_report.thermal_mass_furniture</v>
       </c>
       <c r="F68" s="48" t="s">
         <v>244</v>
@@ -9565,11 +9605,11 @@
     </row>
     <row r="69" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="D69" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hot_water_distribution</v>
+        <v>building_characteristics_report.doors</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>244</v>
@@ -9586,11 +9626,11 @@
     </row>
     <row r="70" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="D70" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_is_combined</v>
+        <v>building_characteristics_report.windows</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>244</v>
@@ -9607,11 +9647,11 @@
     </row>
     <row r="71" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D71" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_combined</v>
+        <v>building_characteristics_report.water_heater</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>244</v>
@@ -9628,11 +9668,11 @@
     </row>
     <row r="72" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
-        <v>379</v>
+        <v>314</v>
       </c>
       <c r="D72" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_heating_electricity</v>
+        <v>building_characteristics_report.hot_water_fixtures</v>
       </c>
       <c r="F72" s="48" t="s">
         <v>244</v>
@@ -9649,11 +9689,11 @@
     </row>
     <row r="73" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="D73" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_heating_fuel_oil</v>
+        <v>building_characteristics_report.hot_water_distribution</v>
       </c>
       <c r="F73" s="48" t="s">
         <v>244</v>
@@ -9670,11 +9710,11 @@
     </row>
     <row r="74" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="D74" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_heating_natural_gas</v>
+        <v>building_characteristics_report.hvac_system_is_combined</v>
       </c>
       <c r="F74" s="48" t="s">
         <v>244</v>
@@ -9691,11 +9731,11 @@
     </row>
     <row r="75" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
-        <v>382</v>
+        <v>316</v>
       </c>
       <c r="D75" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_heating_propane</v>
+        <v>building_characteristics_report.hvac_system_combined</v>
       </c>
       <c r="F75" s="48" t="s">
         <v>244</v>
@@ -9712,11 +9752,11 @@
     </row>
     <row r="76" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D76" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_heating_wood</v>
+        <v>building_characteristics_report.hvac_system_heating_electricity</v>
       </c>
       <c r="F76" s="48" t="s">
         <v>244</v>
@@ -9733,11 +9773,11 @@
     </row>
     <row r="77" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
-        <v>317</v>
+        <v>380</v>
       </c>
       <c r="D77" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_cooling</v>
+        <v>building_characteristics_report.hvac_system_heating_fuel_oil</v>
       </c>
       <c r="F77" s="48" t="s">
         <v>244</v>
@@ -9754,11 +9794,11 @@
     </row>
     <row r="78" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
-        <v>318</v>
+        <v>381</v>
       </c>
       <c r="D78" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.heating_setpoint</v>
+        <v>building_characteristics_report.hvac_system_heating_natural_gas</v>
       </c>
       <c r="F78" s="48" t="s">
         <v>244</v>
@@ -9775,11 +9815,11 @@
     </row>
     <row r="79" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
-        <v>319</v>
+        <v>382</v>
       </c>
       <c r="D79" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.cooling_setpoint</v>
+        <v>building_characteristics_report.hvac_system_heating_propane</v>
       </c>
       <c r="F79" s="48" t="s">
         <v>244</v>
@@ -9796,11 +9836,11 @@
     </row>
     <row r="80" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D80" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.ceiling_fan</v>
+        <v>building_characteristics_report.hvac_system_heating_wood</v>
       </c>
       <c r="F80" s="48" t="s">
         <v>244</v>
@@ -9817,11 +9857,11 @@
     </row>
     <row r="81" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D81" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.refrigerator</v>
+        <v>building_characteristics_report.hvac_system_cooling</v>
       </c>
       <c r="F81" s="48" t="s">
         <v>244</v>
@@ -9838,11 +9878,11 @@
     </row>
     <row r="82" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D82" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.cooking_range</v>
+        <v>building_characteristics_report.heating_setpoint</v>
       </c>
       <c r="F82" s="48" t="s">
         <v>244</v>
@@ -9859,11 +9899,11 @@
     </row>
     <row r="83" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D83" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.dishwasher</v>
+        <v>building_characteristics_report.cooling_setpoint</v>
       </c>
       <c r="F83" s="48" t="s">
         <v>244</v>
@@ -9880,11 +9920,11 @@
     </row>
     <row r="84" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="D84" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.clothes_washer</v>
+        <v>building_characteristics_report.ceiling_fan</v>
       </c>
       <c r="F84" s="48" t="s">
         <v>244</v>
@@ -9901,11 +9941,11 @@
     </row>
     <row r="85" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D85" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.clothes_dryer</v>
+        <v>building_characteristics_report.refrigerator</v>
       </c>
       <c r="F85" s="48" t="s">
         <v>244</v>
@@ -9922,11 +9962,11 @@
     </row>
     <row r="86" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="D86" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.lighting</v>
+        <v>building_characteristics_report.cooking_range</v>
       </c>
       <c r="F86" s="48" t="s">
         <v>244</v>
@@ -9943,11 +9983,11 @@
     </row>
     <row r="87" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D87" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.plug_loads</v>
+        <v>building_characteristics_report.dishwasher</v>
       </c>
       <c r="F87" s="48" t="s">
         <v>244</v>
@@ -9964,11 +10004,11 @@
     </row>
     <row r="88" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D88" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_extra_refrigerator</v>
+        <v>building_characteristics_report.clothes_washer</v>
       </c>
       <c r="F88" s="48" t="s">
         <v>244</v>
@@ -9985,11 +10025,11 @@
     </row>
     <row r="89" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D89" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_freezer</v>
+        <v>building_characteristics_report.clothes_dryer</v>
       </c>
       <c r="F89" s="48" t="s">
         <v>244</v>
@@ -10006,11 +10046,11 @@
     </row>
     <row r="90" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="D90" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_gas_fireplace</v>
+        <v>building_characteristics_report.lighting</v>
       </c>
       <c r="F90" s="48" t="s">
         <v>244</v>
@@ -10027,11 +10067,11 @@
     </row>
     <row r="91" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D91" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_gas_grill</v>
+        <v>building_characteristics_report.plug_loads</v>
       </c>
       <c r="F91" s="48" t="s">
         <v>244</v>
@@ -10048,11 +10088,11 @@
     </row>
     <row r="92" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D92" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_gas_lighting</v>
+        <v>building_characteristics_report.misc_extra_refrigerator</v>
       </c>
       <c r="F92" s="48" t="s">
         <v>244</v>
@@ -10069,11 +10109,11 @@
     </row>
     <row r="93" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D93" s="48" t="str">
-        <f t="shared" ref="D93:D99" si="2">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A93," ","_"))</f>
-        <v>building_characteristics_report.misc_hot_tub_spa</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_freezer</v>
       </c>
       <c r="F93" s="48" t="s">
         <v>244</v>
@@ -10090,165 +10130,213 @@
     </row>
     <row r="94" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="D94" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_gas_fireplace</v>
+      </c>
+      <c r="F94" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G94" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="D95" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_gas_grill</v>
+      </c>
+      <c r="F95" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G95" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D96" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_gas_lighting</v>
+      </c>
+      <c r="F96" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G96" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="D97" s="48" t="str">
+        <f t="shared" ref="D97:D103" si="2">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A97," ","_"))</f>
+        <v>building_characteristics_report.misc_hot_tub_spa</v>
+      </c>
+      <c r="F97" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G97" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="D94" s="48" t="str">
+      <c r="D98" s="48" t="str">
         <f t="shared" si="2"/>
         <v>building_characteristics_report.misc_pool</v>
       </c>
-      <c r="F94" s="48" t="s">
+      <c r="F98" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="G94" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="48" t="s">
+      <c r="G98" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="D95" s="48" t="str">
+      <c r="D99" s="48" t="str">
         <f t="shared" si="2"/>
         <v>building_characteristics_report.misc_well_pump</v>
       </c>
-      <c r="F95" s="48" t="s">
+      <c r="F99" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="G95" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="48" t="s">
+      <c r="G99" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="D96" s="48" t="str">
+      <c r="D100" s="48" t="str">
         <f t="shared" si="2"/>
         <v>building_characteristics_report.ducts</v>
       </c>
-      <c r="F96" s="48" t="s">
+      <c r="F100" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="G96" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="48" t="s">
+      <c r="G100" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="D97" s="48" t="str">
+      <c r="D101" s="48" t="str">
         <f t="shared" si="2"/>
         <v>building_characteristics_report.infiltration</v>
       </c>
-      <c r="F97" s="48" t="s">
+      <c r="F101" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="G97" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="48" t="s">
+      <c r="G101" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="D98" s="48" t="str">
+      <c r="D102" s="48" t="str">
         <f t="shared" si="2"/>
         <v>building_characteristics_report.natural_ventilation</v>
       </c>
-      <c r="F98" s="48" t="s">
+      <c r="F102" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="G98" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="48" t="s">
+      <c r="G102" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="D99" s="48" t="str">
+      <c r="D103" s="48" t="str">
         <f t="shared" si="2"/>
         <v>building_characteristics_report.mechanical_ventilation</v>
       </c>
-      <c r="F99" s="48" t="s">
+      <c r="F103" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="G99" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
-      <c r="B100" s="21"/>
-      <c r="D100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-    </row>
-    <row r="101" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="B101" s="21"/>
-      <c r="D101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-    </row>
-    <row r="102" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
-      <c r="B102" s="21"/>
-      <c r="D102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-    </row>
-    <row r="103" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="21"/>
-      <c r="D103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
+      <c r="G103" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" s="48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
@@ -10466,45 +10554,37 @@
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
       <c r="B128" s="21"/>
-      <c r="C128" s="22"/>
       <c r="D128" s="15"/>
-      <c r="E128" s="22"/>
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="21"/>
-      <c r="C129" s="22"/>
       <c r="D129" s="15"/>
-      <c r="E129" s="22"/>
       <c r="F129" s="15"/>
       <c r="G129" s="15"/>
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="21"/>
-      <c r="C130" s="22"/>
       <c r="D130" s="15"/>
-      <c r="E130" s="22"/>
       <c r="F130" s="15"/>
       <c r="G130" s="15"/>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="21"/>
-      <c r="C131" s="22"/>
       <c r="D131" s="15"/>
-      <c r="E131" s="22"/>
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
       <c r="H131" s="15"/>
@@ -10531,6 +10611,50 @@
       <c r="G133" s="15"/>
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="15"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="15"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="15"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="15"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
